--- a/music_list_7.xlsx
+++ b/music_list_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="874">
   <si>
     <t>歌名</t>
   </si>
@@ -136,7 +136,7 @@
     <t>爱你不是两三天</t>
   </si>
   <si>
-    <t>爱你</t>
+    <t>王心凌 - 爱你</t>
   </si>
   <si>
     <t>王心凌</t>
@@ -2254,13 +2254,22 @@
     <t>自己按门铃自己听</t>
   </si>
   <si>
+    <t>周深</t>
+  </si>
+  <si>
     <t>17岁</t>
   </si>
   <si>
+    <t>刘德华</t>
+  </si>
+  <si>
     <t>粤语</t>
   </si>
   <si>
     <t>喜帖街</t>
+  </si>
+  <si>
+    <t>谢安琪</t>
   </si>
   <si>
     <t>大风吹</t>
@@ -2634,44 +2643,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="180" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="181" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="184" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="185" formatCode="yy/m/d"/>
+    <numFmt numFmtId="186" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="189" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="190" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="191" formatCode="mmmmm"/>
+    <numFmt numFmtId="192" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="194" formatCode="m/d"/>
+    <numFmt numFmtId="195" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="196" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="mmmmm"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="182" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="197" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="198" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="199" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="185" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="186" formatCode="yy/m/d"/>
-    <numFmt numFmtId="187" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="188" formatCode="m/d"/>
-    <numFmt numFmtId="189" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="190" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="192" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="193" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="200" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="201" formatCode="#\ ??"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="196" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="197" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="200" formatCode="#\ ??"/>
-    <numFmt numFmtId="201" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2710,17 +2719,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2732,24 +2742,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2763,16 +2787,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2787,22 +2819,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2816,24 +2840,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2854,7 +2863,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2866,13 +2893,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2884,25 +2995,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2914,121 +3037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3055,7 +3064,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3064,7 +3073,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3084,21 +3123,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3106,21 +3130,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3144,124 +3153,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3270,16 +3279,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3618,19 +3627,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E818"/>
+  <dimension ref="A1:F818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A795" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D736" sqref="D736"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="30.675" customWidth="1"/>
     <col min="2" max="2" width="22.95" customWidth="1"/>
+    <col min="4" max="4" width="45.95" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,6 +3656,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -11484,6 +11495,9 @@
       <c r="A712" s="1" t="s">
         <v>745</v>
       </c>
+      <c r="B712" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="C712" s="1" t="s">
         <v>6</v>
       </c>
@@ -11493,68 +11507,74 @@
     </row>
     <row r="713" spans="1:5">
       <c r="A713" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E713" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="714" spans="1:5">
       <c r="A714" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="715" spans="1:5">
       <c r="A715" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C715" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C715" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="E715" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="716" spans="1:5">
       <c r="A716" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="717" spans="1:5">
       <c r="A717" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="718" spans="1:5">
       <c r="A718" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -11562,1158 +11582,1158 @@
         <v>245</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="720" spans="1:5">
       <c r="A720" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="721" spans="1:5">
       <c r="A721" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E721" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="722" spans="1:5">
       <c r="A722" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="723" spans="1:5">
       <c r="A723" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="724" spans="1:5">
       <c r="A724" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="725" spans="1:5">
       <c r="A725" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E725" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="726" spans="1:5">
       <c r="A726" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B726"/>
       <c r="C726" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="727" spans="1:5">
       <c r="A727" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D727" s="1"/>
       <c r="E727" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="728" spans="1:5">
       <c r="A728" s="1" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B728" s="1"/>
       <c r="C728" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="729" spans="1:5">
       <c r="A729" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B729" s="2"/>
       <c r="C729" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="730" spans="1:5">
       <c r="A730" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B730"/>
       <c r="C730" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D730" s="1"/>
       <c r="E730" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="731" spans="1:5">
       <c r="A731" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E731" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B732" s="1"/>
       <c r="C732" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="733" spans="1:5">
       <c r="A733" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B733"/>
       <c r="C733" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D733" s="1"/>
       <c r="E733" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="734" spans="1:5">
       <c r="A734" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B734" s="1"/>
       <c r="C734" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="735" spans="1:5">
       <c r="A735" s="1" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E735" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="1" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="737" spans="1:5">
       <c r="A737" s="1" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="738" spans="1:5">
       <c r="A738" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="739" spans="1:5">
       <c r="A739" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="1" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="741" spans="1:5">
       <c r="A741" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D741" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E741" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="742" spans="1:5">
       <c r="A742" s="1" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="743" spans="1:5">
       <c r="A743" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="744" spans="1:5">
       <c r="A744" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="745" spans="1:5">
       <c r="A745" s="1" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="1" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="747" spans="1:5">
       <c r="A747" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="1" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="749" spans="1:5">
       <c r="A749" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E749" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="1" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="751" spans="1:5">
       <c r="A751" s="1" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E751" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="753" spans="1:5">
       <c r="A753" s="1" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D753" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="1" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="755" spans="1:5">
       <c r="A755" s="1" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="756" spans="1:5">
       <c r="A756" s="1" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D756" s="1"/>
       <c r="E756" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="757" spans="1:5">
       <c r="A757" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="758" spans="1:5">
       <c r="A758" s="1" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="760" spans="1:5">
       <c r="A760" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="761" spans="1:5">
       <c r="A761" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C761" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C761" s="1" t="s">
-        <v>800</v>
-      </c>
       <c r="E761" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="762" spans="1:5">
       <c r="A762" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="1" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E763" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="764" spans="1:5">
       <c r="A764" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="765" spans="1:5">
       <c r="A765" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="1" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="767" spans="1:5">
       <c r="A767" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="1" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C772" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C772" s="1" t="s">
-        <v>813</v>
-      </c>
       <c r="E772" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="1" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="776" spans="1:5">
       <c r="A776" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="1" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="1" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="785" spans="1:5">
       <c r="A785" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="1" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="787" spans="1:5">
       <c r="A787" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="789" spans="1:5">
       <c r="A789" s="1" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="790" spans="1:5">
       <c r="A790" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="791" spans="1:5">
       <c r="A791" s="1" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="1" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="793" spans="1:5">
       <c r="A793" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="794" spans="1:5">
       <c r="A794" s="1" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="795" spans="1:5">
       <c r="A795" s="1" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="796" spans="1:5">
       <c r="A796" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E797" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="798" spans="1:5">
       <c r="A798" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="799" spans="1:5">
       <c r="A799" s="1" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E799" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="800" spans="1:5">
       <c r="A800" s="1" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="801" spans="1:5">
       <c r="A801" s="1" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="802" spans="1:5">
       <c r="A802" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="803" spans="1:5">
       <c r="A803" s="1" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D803" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="1" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E804" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="805" spans="1:5">
       <c r="A805" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="806" spans="1:5">
       <c r="A806" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="807" spans="1:5">
       <c r="A807" s="1" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="808" spans="1:5">
       <c r="A808" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="809" spans="1:5">
       <c r="A809" s="1" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="810" spans="1:5">
       <c r="A810" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="811" spans="1:5">
       <c r="A811" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="812" spans="1:5">
       <c r="A812" s="1" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="814" spans="1:5">
       <c r="A814" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="815" spans="1:5">
       <c r="A815" s="1" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="816" spans="1:5">
       <c r="A816" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="817" spans="1:5">
       <c r="A817" s="1" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="818" spans="1:5">
       <c r="A818" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>

--- a/music_list_7.xlsx
+++ b/music_list_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="1650">
   <si>
     <t>歌名</t>
   </si>
@@ -3247,10 +3247,7 @@
     <t>郑鱼</t>
   </si>
   <si>
-    <t>我落泪 情绪零碎</t>
-  </si>
-  <si>
-    <t>我落泪情绪零碎</t>
+    <t>我落泪。情绪零碎</t>
   </si>
   <si>
     <t>乌克丽丽</t>
@@ -4013,6 +4010,9 @@
   </si>
   <si>
     <t>自己按门铃自己听</t>
+  </si>
+  <si>
+    <t>周深/祖娅纳惜</t>
   </si>
   <si>
     <t>左手指月</t>
@@ -4873,13 +4873,13 @@
     <t>Marshmello、Anne-Marie</t>
   </si>
   <si>
-    <t>world.execute</t>
-  </si>
-  <si>
-    <t>Momocashew</t>
-  </si>
-  <si>
-    <t>Speechless</t>
+    <t>world.execute(me);</t>
+  </si>
+  <si>
+    <t>Mili</t>
+  </si>
+  <si>
+    <t>Song by Mili</t>
   </si>
   <si>
     <t>Naomi Scott</t>
@@ -5031,44 +5031,44 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="181" formatCode="m/d"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="#\ ??"/>
+    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="185" formatCode="yy/m/d"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="186" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="187" formatCode="m/d"/>
+    <numFmt numFmtId="188" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="189" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="194" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="195" formatCode="mmmmm"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="197" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
+    <numFmt numFmtId="198" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="200" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="201" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="183" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="185" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="186" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="187" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="188" formatCode="yy/m/d"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="189" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="190" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="192" formatCode="mmmmm"/>
-    <numFmt numFmtId="193" formatCode="#\ ??"/>
-    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="195" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="197" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
-    <numFmt numFmtId="198" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="200" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="201" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="202" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="202" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5198,23 +5198,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.35"/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
       <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF5F6368"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5229,69 +5240,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5306,7 +5262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5320,22 +5276,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5349,13 +5323,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF222222"/>
       <name val="initial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10.5"/>
       <color rgb="FF222222"/>
       <name val="initial"/>
@@ -5377,7 +5389,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5389,25 +5521,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5419,13 +5557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5437,127 +5569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5568,6 +5580,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5586,6 +5616,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5597,32 +5636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5644,27 +5657,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5673,152 +5685,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5897,23 +5909,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6234,10 +6237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G944"/>
+  <dimension ref="A1:G943"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A913" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A905" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F932" sqref="F932"/>
     </sheetView>
@@ -20193,7 +20196,7 @@
       <c r="E632" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="F632" s="9">
+      <c r="F632" s="8">
         <v>0</v>
       </c>
       <c r="G632" s="9">
@@ -20201,34 +20204,32 @@
       </c>
     </row>
     <row r="633" spans="1:7">
-      <c r="A633" s="5" t="s">
+      <c r="A633" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="B633" s="4" t="s">
-        <v>70</v>
+      <c r="B633" s="20" t="s">
+        <v>1080</v>
       </c>
       <c r="C633" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D633" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D633" s="5"/>
       <c r="E633" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="F633" s="8">
+      <c r="F633" s="9">
         <v>0</v>
       </c>
       <c r="G633" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:7">
       <c r="A634" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B634" s="20" t="s">
         <v>1081</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>1082</v>
       </c>
       <c r="C634" s="4" t="s">
         <v>9</v>
@@ -20246,38 +20247,38 @@
     </row>
     <row r="635" spans="1:7">
       <c r="A635" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B635" s="5" t="s">
         <v>1083</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>1084</v>
       </c>
       <c r="C635" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D635" s="5"/>
       <c r="E635" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F635" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F635" s="8">
         <v>0</v>
       </c>
       <c r="G635" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:7">
       <c r="A636" s="4" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C636" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D636" s="5"/>
       <c r="E636" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F636" s="8">
         <v>0</v>
@@ -20288,17 +20289,17 @@
     </row>
     <row r="637" spans="1:7">
       <c r="A637" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B637" s="4" t="s">
         <v>1088</v>
+      </c>
+      <c r="B637" s="5" t="s">
+        <v>1089</v>
       </c>
       <c r="C637" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D637" s="5"/>
       <c r="E637" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F637" s="8">
         <v>0</v>
@@ -20309,19 +20310,19 @@
     </row>
     <row r="638" spans="1:7">
       <c r="A638" s="4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1090</v>
+        <v>88</v>
       </c>
       <c r="C638" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D638" s="5"/>
       <c r="E638" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F638" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F638" s="9">
         <v>0</v>
       </c>
       <c r="G638" s="9">
@@ -20333,14 +20334,14 @@
         <v>1091</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>88</v>
+        <v>1092</v>
       </c>
       <c r="C639" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D639" s="5"/>
       <c r="E639" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F639" s="9">
         <v>0</v>
@@ -20351,19 +20352,21 @@
     </row>
     <row r="640" spans="1:7">
       <c r="A640" s="4" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1093</v>
+        <v>98</v>
       </c>
       <c r="C640" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D640" s="5"/>
+      <c r="D640" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E640" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F640" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F640" s="8">
         <v>0</v>
       </c>
       <c r="G640" s="9">
@@ -20375,7 +20378,7 @@
         <v>1094</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>98</v>
+        <v>1095</v>
       </c>
       <c r="C641" s="4" t="s">
         <v>9</v>
@@ -20384,7 +20387,7 @@
         <v>10</v>
       </c>
       <c r="E641" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F641" s="8">
         <v>0</v>
@@ -20395,11 +20398,11 @@
     </row>
     <row r="642" spans="1:7">
       <c r="A642" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B642" s="5" t="s">
         <v>1096</v>
       </c>
+      <c r="B642" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="C642" s="4" t="s">
         <v>9</v>
       </c>
@@ -20407,7 +20410,7 @@
         <v>10</v>
       </c>
       <c r="E642" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F642" s="8">
         <v>0</v>
@@ -20430,9 +20433,9 @@
         <v>10</v>
       </c>
       <c r="E643" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F643" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F643" s="9">
         <v>0</v>
       </c>
       <c r="G643" s="9">
@@ -20443,8 +20446,8 @@
       <c r="A644" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="B644" s="4" t="s">
-        <v>364</v>
+      <c r="B644" s="5" t="s">
+        <v>581</v>
       </c>
       <c r="C644" s="4" t="s">
         <v>9</v>
@@ -20453,9 +20456,9 @@
         <v>10</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F644" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F644" s="8">
         <v>0</v>
       </c>
       <c r="G644" s="9">
@@ -20463,20 +20466,20 @@
       </c>
     </row>
     <row r="645" spans="1:7">
-      <c r="A645" s="4" t="s">
+      <c r="A645" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="B645" s="5" t="s">
-        <v>581</v>
+      <c r="B645" s="21" t="s">
+        <v>1100</v>
       </c>
       <c r="C645" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E645" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F645" s="8">
         <v>0</v>
@@ -20486,22 +20489,20 @@
       </c>
     </row>
     <row r="646" spans="1:7">
-      <c r="A646" s="5" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B646" s="21" t="s">
+      <c r="A646" s="4" t="s">
         <v>1101</v>
       </c>
+      <c r="B646" s="4" t="s">
+        <v>1102</v>
+      </c>
       <c r="C646" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D646" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="D646" s="5"/>
       <c r="E646" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F646" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F646" s="9">
         <v>0</v>
       </c>
       <c r="G646" s="9">
@@ -20510,19 +20511,19 @@
     </row>
     <row r="647" spans="1:7">
       <c r="A647" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B647" s="4" t="s">
         <v>1103</v>
+      </c>
+      <c r="B647" s="5" t="s">
+        <v>1104</v>
       </c>
       <c r="C647" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D647" s="5"/>
       <c r="E647" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F647" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F647" s="8">
         <v>0</v>
       </c>
       <c r="G647" s="9">
@@ -20531,19 +20532,21 @@
     </row>
     <row r="648" spans="1:7">
       <c r="A648" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B648" s="5" t="s">
         <v>1105</v>
       </c>
+      <c r="B648" s="4" t="s">
+        <v>698</v>
+      </c>
       <c r="C648" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D648" s="5"/>
+      <c r="D648" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E648" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F648" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F648" s="9">
         <v>0</v>
       </c>
       <c r="G648" s="9">
@@ -20554,19 +20557,17 @@
       <c r="A649" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="B649" s="4" t="s">
-        <v>698</v>
+      <c r="B649" s="5" t="s">
+        <v>1107</v>
       </c>
       <c r="C649" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D649" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D649" s="5"/>
       <c r="E649" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F649" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F649" s="8">
         <v>0</v>
       </c>
       <c r="G649" s="9">
@@ -20575,19 +20576,19 @@
     </row>
     <row r="650" spans="1:7">
       <c r="A650" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C650" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D650" s="5"/>
       <c r="E650" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F650" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F650" s="9">
         <v>0</v>
       </c>
       <c r="G650" s="9">
@@ -20596,19 +20597,19 @@
     </row>
     <row r="651" spans="1:7">
       <c r="A651" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1110</v>
+        <v>182</v>
       </c>
       <c r="C651" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D651" s="5"/>
       <c r="E651" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F651" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F651" s="8">
         <v>0</v>
       </c>
       <c r="G651" s="9">
@@ -20619,15 +20620,15 @@
       <c r="A652" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="B652" s="5" t="s">
-        <v>182</v>
+      <c r="B652" s="4" t="s">
+        <v>1112</v>
       </c>
       <c r="C652" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D652" s="5"/>
       <c r="E652" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F652" s="8">
         <v>0</v>
@@ -20638,17 +20639,17 @@
     </row>
     <row r="653" spans="1:7">
       <c r="A653" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B653" s="4" t="s">
         <v>1113</v>
+      </c>
+      <c r="B653" s="20" t="s">
+        <v>1114</v>
       </c>
       <c r="C653" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D653" s="5"/>
       <c r="E653" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F653" s="8">
         <v>0</v>
@@ -20659,17 +20660,17 @@
     </row>
     <row r="654" spans="1:7">
       <c r="A654" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B654" s="20" t="s">
         <v>1115</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>1116</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D654" s="5"/>
       <c r="E654" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F654" s="8">
         <v>0</v>
@@ -20680,19 +20681,19 @@
     </row>
     <row r="655" spans="1:7">
       <c r="A655" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C655" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D655" s="5"/>
       <c r="E655" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F655" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F655" s="9">
         <v>0</v>
       </c>
       <c r="G655" s="9">
@@ -20701,19 +20702,19 @@
     </row>
     <row r="656" spans="1:7">
       <c r="A656" s="4" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C656" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D656" s="5"/>
       <c r="E656" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F656" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F656" s="8">
         <v>0</v>
       </c>
       <c r="G656" s="9">
@@ -20722,19 +20723,21 @@
     </row>
     <row r="657" spans="1:7">
       <c r="A657" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B657" s="5" t="s">
         <v>1121</v>
       </c>
+      <c r="B657" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C657" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D657" s="5"/>
+      <c r="D657" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E657" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F657" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F657" s="9">
         <v>0</v>
       </c>
       <c r="G657" s="9">
@@ -20746,16 +20749,14 @@
         <v>1122</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>34</v>
+        <v>1123</v>
       </c>
       <c r="C658" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D658" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D658" s="5"/>
       <c r="E658" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F658" s="9">
         <v>0</v>
@@ -20766,19 +20767,19 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B659" s="4" t="s">
         <v>1124</v>
+      </c>
+      <c r="B659" s="5" t="s">
+        <v>1125</v>
       </c>
       <c r="C659" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D659" s="5"/>
       <c r="E659" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F659" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F659" s="8">
         <v>0</v>
       </c>
       <c r="G659" s="9">
@@ -20787,17 +20788,17 @@
     </row>
     <row r="660" spans="1:7">
       <c r="A660" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C660" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D660" s="5"/>
       <c r="E660" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F660" s="8">
         <v>0</v>
@@ -20807,18 +20808,18 @@
       </c>
     </row>
     <row r="661" spans="1:7">
-      <c r="A661" s="4" t="s">
-        <v>1127</v>
+      <c r="A661" s="5" t="s">
+        <v>1128</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1128</v>
+        <v>444</v>
       </c>
       <c r="C661" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D661" s="5"/>
       <c r="E661" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F661" s="8">
         <v>0</v>
@@ -20828,18 +20829,20 @@
       </c>
     </row>
     <row r="662" spans="1:7">
-      <c r="A662" s="5" t="s">
+      <c r="A662" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="B662" s="5" t="s">
-        <v>444</v>
+      <c r="B662" s="4" t="s">
+        <v>1130</v>
       </c>
       <c r="C662" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D662" s="5"/>
+      <c r="D662" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E662" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F662" s="8">
         <v>0</v>
@@ -20850,19 +20853,17 @@
     </row>
     <row r="663" spans="1:7">
       <c r="A663" s="4" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C663" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D663" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D663" s="5"/>
       <c r="E663" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F663" s="8">
         <v>0</v>
@@ -20873,19 +20874,19 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C664" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D664" s="5"/>
       <c r="E664" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F664" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F664" s="9">
         <v>0</v>
       </c>
       <c r="G664" s="9">
@@ -20894,7 +20895,7 @@
     </row>
     <row r="665" spans="1:7">
       <c r="A665" s="4" t="s">
-        <v>1134</v>
+        <v>795</v>
       </c>
       <c r="B665" s="4" t="s">
         <v>1135</v>
@@ -20904,7 +20905,7 @@
       </c>
       <c r="D665" s="5"/>
       <c r="E665" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F665" s="9">
         <v>0</v>
@@ -20915,19 +20916,21 @@
     </row>
     <row r="666" spans="1:7">
       <c r="A666" s="4" t="s">
-        <v>795</v>
+        <v>1136</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>1136</v>
+        <v>126</v>
       </c>
       <c r="C666" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D666" s="5"/>
+      <c r="D666" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E666" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F666" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F666" s="8">
         <v>0</v>
       </c>
       <c r="G666" s="9">
@@ -20938,17 +20941,15 @@
       <c r="A667" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="B667" s="4" t="s">
-        <v>126</v>
+      <c r="B667" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="C667" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D667" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D667" s="5"/>
       <c r="E667" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F667" s="8">
         <v>0</v>
@@ -20961,15 +20962,17 @@
       <c r="A668" s="4" t="s">
         <v>1138</v>
       </c>
-      <c r="B668" s="5" t="s">
-        <v>459</v>
+      <c r="B668" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="C668" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D668" s="5"/>
+      <c r="D668" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E668" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F668" s="8">
         <v>0</v>
@@ -20983,7 +20986,7 @@
         <v>1139</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>208</v>
+        <v>1140</v>
       </c>
       <c r="C669" s="4" t="s">
         <v>9</v>
@@ -20992,9 +20995,9 @@
         <v>18</v>
       </c>
       <c r="E669" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F669" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F669" s="9">
         <v>0</v>
       </c>
       <c r="G669" s="9">
@@ -21003,21 +21006,19 @@
     </row>
     <row r="670" spans="1:7">
       <c r="A670" s="4" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C670" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D670" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D670" s="5"/>
       <c r="E670" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F670" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F670" s="8">
         <v>0</v>
       </c>
       <c r="G670" s="9">
@@ -21026,19 +21027,19 @@
     </row>
     <row r="671" spans="1:7">
       <c r="A671" s="4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B671" s="4" t="s">
         <v>1143</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>1144</v>
       </c>
       <c r="C671" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D671" s="5"/>
       <c r="E671" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F671" s="8">
+        <v>1085</v>
+      </c>
+      <c r="F671" s="9">
         <v>0</v>
       </c>
       <c r="G671" s="9">
@@ -21047,17 +21048,17 @@
     </row>
     <row r="672" spans="1:7">
       <c r="A672" s="4" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C672" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D672" s="5"/>
       <c r="E672" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F672" s="9">
         <v>0</v>
@@ -21068,17 +21069,17 @@
     </row>
     <row r="673" spans="1:7">
       <c r="A673" s="4" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C673" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D673" s="5"/>
       <c r="E673" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F673" s="9">
         <v>0</v>
@@ -21089,17 +21090,17 @@
     </row>
     <row r="674" spans="1:7">
       <c r="A674" s="4" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C674" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D674" s="5"/>
       <c r="E674" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F674" s="9">
         <v>0</v>
@@ -21110,17 +21111,17 @@
     </row>
     <row r="675" spans="1:7">
       <c r="A675" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B675" s="5" t="s">
         <v>1151</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="C675" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D675" s="5"/>
       <c r="E675" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F675" s="9">
         <v>0</v>
@@ -21134,14 +21135,14 @@
         <v>1152</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>295</v>
+        <v>1153</v>
       </c>
       <c r="C676" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D676" s="5"/>
       <c r="E676" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F676" s="9">
         <v>0</v>
@@ -21152,17 +21153,17 @@
     </row>
     <row r="677" spans="1:7">
       <c r="A677" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C677" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D677" s="5"/>
       <c r="E677" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F677" s="9">
         <v>0</v>
@@ -21173,17 +21174,19 @@
     </row>
     <row r="678" spans="1:7">
       <c r="A678" s="4" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B678" s="4" t="s">
         <v>1156</v>
       </c>
+      <c r="B678" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C678" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D678" s="5"/>
+      <c r="D678" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E678" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F678" s="9">
         <v>0</v>
@@ -21196,23 +21199,21 @@
       <c r="A679" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="B679" s="5" t="s">
-        <v>68</v>
+      <c r="B679" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C679" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D679" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D679" s="5"/>
       <c r="E679" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F679" s="9">
         <v>0</v>
       </c>
       <c r="G679" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -21220,14 +21221,14 @@
         <v>1158</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>61</v>
+        <v>1159</v>
       </c>
       <c r="C680" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D680" s="5"/>
       <c r="E680" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F680" s="9">
         <v>0</v>
@@ -21237,10 +21238,10 @@
       </c>
     </row>
     <row r="681" spans="1:7">
-      <c r="A681" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B681" s="4" t="s">
+      <c r="A681" s="5">
+        <v>1022</v>
+      </c>
+      <c r="B681" s="5" t="s">
         <v>1160</v>
       </c>
       <c r="C681" s="4" t="s">
@@ -21248,28 +21249,28 @@
       </c>
       <c r="D681" s="5"/>
       <c r="E681" s="4" t="s">
-        <v>1086</v>
+        <v>1161</v>
       </c>
       <c r="F681" s="9">
         <v>0</v>
       </c>
       <c r="G681" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:7">
-      <c r="A682" s="5">
-        <v>1022</v>
-      </c>
-      <c r="B682" s="5" t="s">
-        <v>1161</v>
+      <c r="A682" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>685</v>
       </c>
       <c r="C682" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D682" s="5"/>
       <c r="E682" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F682" s="9">
         <v>0</v>
@@ -21290,9 +21291,9 @@
       </c>
       <c r="D683" s="5"/>
       <c r="E683" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F683" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F683" s="8">
         <v>0</v>
       </c>
       <c r="G683" s="9">
@@ -21304,16 +21305,16 @@
         <v>1164</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>685</v>
+        <v>1165</v>
       </c>
       <c r="C684" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D684" s="5"/>
       <c r="E684" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F684" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F684" s="9">
         <v>0</v>
       </c>
       <c r="G684" s="9">
@@ -21322,19 +21323,19 @@
     </row>
     <row r="685" spans="1:7">
       <c r="A685" s="4" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C685" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D685" s="5"/>
       <c r="E685" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F685" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F685" s="8">
         <v>0</v>
       </c>
       <c r="G685" s="9">
@@ -21343,19 +21344,19 @@
     </row>
     <row r="686" spans="1:7">
       <c r="A686" s="4" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1168</v>
+        <v>92</v>
       </c>
       <c r="C686" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D686" s="5"/>
+      <c r="D686" s="4"/>
       <c r="E686" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F686" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F686" s="9">
         <v>0</v>
       </c>
       <c r="G686" s="9">
@@ -21372,11 +21373,13 @@
       <c r="C687" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D687" s="4"/>
+      <c r="D687" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E687" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F687" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F687" s="8">
         <v>0</v>
       </c>
       <c r="G687" s="9">
@@ -21387,19 +21390,17 @@
       <c r="A688" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="B688" s="4" t="s">
-        <v>92</v>
+      <c r="B688" s="5" t="s">
+        <v>1171</v>
       </c>
       <c r="C688" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D688" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D688" s="5"/>
       <c r="E688" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F688" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F688" s="9">
         <v>0</v>
       </c>
       <c r="G688" s="9">
@@ -21408,19 +21409,21 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B689" s="5" t="s">
         <v>1172</v>
       </c>
+      <c r="B689" s="4" t="s">
+        <v>1173</v>
+      </c>
       <c r="C689" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D689" s="5"/>
+      <c r="D689" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E689" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F689" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F689" s="8">
         <v>0</v>
       </c>
       <c r="G689" s="9">
@@ -21429,21 +21432,19 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B690" s="4" t="s">
         <v>1174</v>
       </c>
+      <c r="B690" s="5" t="s">
+        <v>954</v>
+      </c>
       <c r="C690" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D690" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D690" s="5"/>
       <c r="E690" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F690" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F690" s="9">
         <v>0</v>
       </c>
       <c r="G690" s="9">
@@ -21455,16 +21456,16 @@
         <v>1175</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>954</v>
+        <v>1176</v>
       </c>
       <c r="C691" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D691" s="5"/>
       <c r="E691" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F691" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F691" s="8">
         <v>0</v>
       </c>
       <c r="G691" s="9">
@@ -21473,19 +21474,21 @@
     </row>
     <row r="692" spans="1:7">
       <c r="A692" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1177</v>
+        <v>98</v>
       </c>
       <c r="C692" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D692" s="5"/>
+      <c r="D692" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E692" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F692" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F692" s="9">
         <v>0</v>
       </c>
       <c r="G692" s="9">
@@ -21496,8 +21499,8 @@
       <c r="A693" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="B693" s="5" t="s">
-        <v>98</v>
+      <c r="B693" s="4" t="s">
+        <v>1179</v>
       </c>
       <c r="C693" s="4" t="s">
         <v>9</v>
@@ -21506,9 +21509,9 @@
         <v>10</v>
       </c>
       <c r="E693" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F693" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F693" s="8">
         <v>0</v>
       </c>
       <c r="G693" s="9">
@@ -21517,11 +21520,11 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B694" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="B694" s="4" t="s">
-        <v>1180</v>
-      </c>
       <c r="C694" s="4" t="s">
         <v>9</v>
       </c>
@@ -21529,7 +21532,7 @@
         <v>10</v>
       </c>
       <c r="E694" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F694" s="8">
         <v>0</v>
@@ -21542,8 +21545,8 @@
       <c r="A695" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="B695" s="5" t="s">
-        <v>1180</v>
+      <c r="B695" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C695" s="4" t="s">
         <v>9</v>
@@ -21552,7 +21555,7 @@
         <v>10</v>
       </c>
       <c r="E695" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F695" s="8">
         <v>0</v>
@@ -21566,7 +21569,7 @@
         <v>1182</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>364</v>
+        <v>581</v>
       </c>
       <c r="C696" s="4" t="s">
         <v>9</v>
@@ -21575,7 +21578,7 @@
         <v>10</v>
       </c>
       <c r="E696" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F696" s="8">
         <v>0</v>
@@ -21589,7 +21592,7 @@
         <v>1183</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>581</v>
+        <v>1184</v>
       </c>
       <c r="C697" s="4" t="s">
         <v>9</v>
@@ -21598,7 +21601,7 @@
         <v>10</v>
       </c>
       <c r="E697" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F697" s="8">
         <v>0</v>
@@ -21609,10 +21612,10 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" s="4" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1185</v>
+        <v>1015</v>
       </c>
       <c r="C698" s="4" t="s">
         <v>9</v>
@@ -21621,7 +21624,7 @@
         <v>10</v>
       </c>
       <c r="E698" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F698" s="8">
         <v>0</v>
@@ -21635,16 +21638,14 @@
         <v>1186</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>1015</v>
+        <v>1187</v>
       </c>
       <c r="C699" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D699" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D699" s="5"/>
       <c r="E699" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F699" s="8">
         <v>0</v>
@@ -21655,19 +21656,19 @@
     </row>
     <row r="700" spans="1:7">
       <c r="A700" s="4" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C700" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D700" s="5"/>
       <c r="E700" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F700" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F700" s="9">
         <v>0</v>
       </c>
       <c r="G700" s="9">
@@ -21676,19 +21677,21 @@
     </row>
     <row r="701" spans="1:7">
       <c r="A701" s="4" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>1190</v>
+        <v>585</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D701" s="5"/>
+      <c r="D701" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E701" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F701" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F701" s="8">
         <v>0</v>
       </c>
       <c r="G701" s="9">
@@ -21699,19 +21702,17 @@
       <c r="A702" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="B702" s="4" t="s">
-        <v>585</v>
+      <c r="B702" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D702" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D702" s="4"/>
       <c r="E702" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F702" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F702" s="9">
         <v>0</v>
       </c>
       <c r="G702" s="9">
@@ -21723,16 +21724,18 @@
         <v>1192</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="C703" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D703" s="4"/>
+      <c r="D703" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E703" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F703" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F703" s="8">
         <v>0</v>
       </c>
       <c r="G703" s="9">
@@ -21743,19 +21746,19 @@
       <c r="A704" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="B704" s="5" t="s">
-        <v>321</v>
+      <c r="B704" s="6" t="s">
+        <v>1194</v>
       </c>
       <c r="C704" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D704" s="4" t="s">
-        <v>10</v>
+      <c r="D704" s="5" t="s">
+        <v>1195</v>
       </c>
       <c r="E704" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F704" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F704" s="9">
         <v>0</v>
       </c>
       <c r="G704" s="9">
@@ -21764,19 +21767,17 @@
     </row>
     <row r="705" spans="1:7">
       <c r="A705" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B705" s="6" t="s">
-        <v>1195</v>
+        <v>1196</v>
+      </c>
+      <c r="B705" s="5" t="s">
+        <v>1197</v>
       </c>
       <c r="C705" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D705" s="5" t="s">
-        <v>1196</v>
-      </c>
+      <c r="D705" s="5"/>
       <c r="E705" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F705" s="9">
         <v>0</v>
@@ -21787,17 +21788,19 @@
     </row>
     <row r="706" spans="1:7">
       <c r="A706" s="4" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C706" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D706" s="5"/>
+      <c r="D706" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E706" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F706" s="9">
         <v>0</v>
@@ -21808,19 +21811,17 @@
     </row>
     <row r="707" spans="1:7">
       <c r="A707" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B707" s="5" t="s">
         <v>1200</v>
       </c>
+      <c r="B707" s="4" t="s">
+        <v>499</v>
+      </c>
       <c r="C707" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D707" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D707" s="5"/>
       <c r="E707" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F707" s="9">
         <v>0</v>
@@ -21834,16 +21835,16 @@
         <v>1201</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>499</v>
+        <v>182</v>
       </c>
       <c r="C708" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D708" s="5"/>
       <c r="E708" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F708" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F708" s="8">
         <v>0</v>
       </c>
       <c r="G708" s="9">
@@ -21851,18 +21852,18 @@
       </c>
     </row>
     <row r="709" spans="1:7">
-      <c r="A709" s="4" t="s">
+      <c r="A709" s="5">
+        <v>180231</v>
+      </c>
+      <c r="B709" s="4" t="s">
         <v>1202</v>
-      </c>
-      <c r="B709" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="C709" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D709" s="5"/>
       <c r="E709" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F709" s="8">
         <v>0</v>
@@ -21872,20 +21873,22 @@
       </c>
     </row>
     <row r="710" spans="1:7">
-      <c r="A710" s="5">
-        <v>180231</v>
-      </c>
-      <c r="B710" s="4" t="s">
+      <c r="A710" s="4" t="s">
         <v>1203</v>
       </c>
+      <c r="B710" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="C710" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D710" s="5"/>
+      <c r="D710" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E710" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F710" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F710" s="9">
         <v>0</v>
       </c>
       <c r="G710" s="9">
@@ -21896,17 +21899,15 @@
       <c r="A711" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="B711" s="5" t="s">
-        <v>705</v>
+      <c r="B711" s="4" t="s">
+        <v>1205</v>
       </c>
       <c r="C711" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D711" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D711" s="5"/>
       <c r="E711" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F711" s="9">
         <v>0</v>
@@ -21916,20 +21917,20 @@
       </c>
     </row>
     <row r="712" spans="1:7">
-      <c r="A712" s="4" t="s">
-        <v>1205</v>
+      <c r="A712" s="5" t="s">
+        <v>1206</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C712" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D712" s="5"/>
       <c r="E712" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F712" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F712" s="8">
         <v>0</v>
       </c>
       <c r="G712" s="9">
@@ -21937,20 +21938,20 @@
       </c>
     </row>
     <row r="713" spans="1:7">
-      <c r="A713" s="5" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B713" s="4" t="s">
+      <c r="A713" s="4" t="s">
         <v>1208</v>
+      </c>
+      <c r="B713" s="5" t="s">
+        <v>1209</v>
       </c>
       <c r="C713" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D713" s="5"/>
       <c r="E713" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F713" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F713" s="9">
         <v>0</v>
       </c>
       <c r="G713" s="9">
@@ -21959,17 +21960,19 @@
     </row>
     <row r="714" spans="1:7">
       <c r="A714" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B714" s="5" t="s">
         <v>1210</v>
       </c>
+      <c r="B714" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C714" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D714" s="5"/>
+      <c r="D714" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E714" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F714" s="9">
         <v>0</v>
@@ -21983,7 +21986,7 @@
         <v>1211</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C715" s="4" t="s">
         <v>9</v>
@@ -21992,9 +21995,9 @@
         <v>10</v>
       </c>
       <c r="E715" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F715" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F715" s="8">
         <v>0</v>
       </c>
       <c r="G715" s="9">
@@ -22005,17 +22008,15 @@
       <c r="A716" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="B716" s="4" t="s">
-        <v>36</v>
+      <c r="B716" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="C716" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D716" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D716" s="5"/>
       <c r="E716" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F716" s="8">
         <v>0</v>
@@ -22028,17 +22029,17 @@
       <c r="A717" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="B717" s="5" t="s">
-        <v>265</v>
+      <c r="B717" s="16" t="s">
+        <v>620</v>
       </c>
       <c r="C717" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D717" s="5"/>
       <c r="E717" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F717" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F717" s="9">
         <v>0</v>
       </c>
       <c r="G717" s="9">
@@ -22049,15 +22050,15 @@
       <c r="A718" s="4" t="s">
         <v>1214</v>
       </c>
-      <c r="B718" s="16" t="s">
-        <v>620</v>
+      <c r="B718" s="5" t="s">
+        <v>1215</v>
       </c>
       <c r="C718" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D718" s="5"/>
       <c r="E718" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F718" s="9">
         <v>0</v>
@@ -22068,17 +22069,17 @@
     </row>
     <row r="719" spans="1:7">
       <c r="A719" s="4" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C719" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D719" s="5"/>
       <c r="E719" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F719" s="9">
         <v>0</v>
@@ -22089,19 +22090,19 @@
     </row>
     <row r="720" spans="1:7">
       <c r="A720" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B720" s="5" t="s">
         <v>1217</v>
-      </c>
-      <c r="B720" s="5" t="s">
-        <v>1218</v>
       </c>
       <c r="C720" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D720" s="5"/>
       <c r="E720" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F720" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F720" s="8">
         <v>0</v>
       </c>
       <c r="G720" s="9">
@@ -22112,15 +22113,15 @@
       <c r="A721" s="4" t="s">
         <v>1219</v>
       </c>
-      <c r="B721" s="5" t="s">
-        <v>1218</v>
+      <c r="B721" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="C721" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D721" s="5"/>
       <c r="E721" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F721" s="8">
         <v>0</v>
@@ -22131,17 +22132,17 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B722" s="4" t="s">
         <v>1221</v>
+      </c>
+      <c r="B722" s="5" t="s">
+        <v>1222</v>
       </c>
       <c r="C722" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D722" s="5"/>
       <c r="E722" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F722" s="8">
         <v>0</v>
@@ -22152,19 +22153,19 @@
     </row>
     <row r="723" spans="1:7">
       <c r="A723" s="4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B723" s="5" t="s">
         <v>1223</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C723" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D723" s="5"/>
       <c r="E723" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F723" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F723" s="9">
         <v>0</v>
       </c>
       <c r="G723" s="9">
@@ -22183,7 +22184,7 @@
       </c>
       <c r="D724" s="5"/>
       <c r="E724" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F724" s="9">
         <v>0</v>
@@ -22197,14 +22198,14 @@
         <v>1225</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>279</v>
+        <v>1226</v>
       </c>
       <c r="C725" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D725" s="5"/>
       <c r="E725" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F725" s="9">
         <v>0</v>
@@ -22215,17 +22216,19 @@
     </row>
     <row r="726" spans="1:7">
       <c r="A726" s="4" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1227</v>
+        <v>124</v>
       </c>
       <c r="C726" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D726" s="5"/>
+      <c r="D726" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E726" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F726" s="9">
         <v>0</v>
@@ -22238,19 +22241,17 @@
       <c r="A727" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="B727" s="4" t="s">
-        <v>124</v>
+      <c r="B727" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="C727" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D727" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D727" s="5"/>
       <c r="E727" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F727" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F727" s="8">
         <v>0</v>
       </c>
       <c r="G727" s="9">
@@ -22261,15 +22262,17 @@
       <c r="A728" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B728" s="5" t="s">
-        <v>459</v>
+      <c r="B728" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C728" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D728" s="5"/>
+      <c r="D728" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E728" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F728" s="8">
         <v>0</v>
@@ -22283,16 +22286,14 @@
         <v>1230</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>47</v>
+        <v>1231</v>
       </c>
       <c r="C729" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D729" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D729" s="5"/>
       <c r="E729" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F729" s="8">
         <v>0</v>
@@ -22303,17 +22304,17 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" s="4" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B730" s="4" t="s">
         <v>1232</v>
+      </c>
+      <c r="B730" s="5" t="s">
+        <v>1233</v>
       </c>
       <c r="C730" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D730" s="5"/>
       <c r="E730" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F730" s="8">
         <v>0</v>
@@ -22324,17 +22325,17 @@
     </row>
     <row r="731" spans="1:7">
       <c r="A731" s="4" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B731" s="5" t="s">
         <v>1234</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>1235</v>
       </c>
       <c r="C731" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D731" s="5"/>
       <c r="E731" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F731" s="8">
         <v>0</v>
@@ -22345,19 +22346,19 @@
     </row>
     <row r="732" spans="1:7">
       <c r="A732" s="4" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B732" s="4" t="s">
         <v>1236</v>
+      </c>
+      <c r="B732" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="C732" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D732" s="5"/>
       <c r="E732" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F732" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F732" s="9">
         <v>0</v>
       </c>
       <c r="G732" s="9">
@@ -22369,16 +22370,16 @@
         <v>1237</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>524</v>
+        <v>1238</v>
       </c>
       <c r="C733" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D733" s="5"/>
       <c r="E733" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F733" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F733" s="8">
         <v>0</v>
       </c>
       <c r="G733" s="9">
@@ -22387,19 +22388,19 @@
     </row>
     <row r="734" spans="1:7">
       <c r="A734" s="4" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B734" s="5" t="s">
         <v>1239</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>833</v>
       </c>
       <c r="C734" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D734" s="5"/>
       <c r="E734" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F734" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F734" s="9">
         <v>0</v>
       </c>
       <c r="G734" s="9">
@@ -22410,15 +22411,15 @@
       <c r="A735" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="B735" s="4" t="s">
-        <v>833</v>
+      <c r="B735" s="5" t="s">
+        <v>1241</v>
       </c>
       <c r="C735" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D735" s="5"/>
       <c r="E735" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F735" s="9">
         <v>0</v>
@@ -22429,17 +22430,19 @@
     </row>
     <row r="736" spans="1:7">
       <c r="A736" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B736" s="5" t="s">
         <v>1242</v>
       </c>
+      <c r="B736" s="4" t="s">
+        <v>985</v>
+      </c>
       <c r="C736" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D736" s="5"/>
+      <c r="D736" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E736" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F736" s="9">
         <v>0</v>
@@ -22453,18 +22456,16 @@
         <v>1243</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>985</v>
+        <v>289</v>
       </c>
       <c r="C737" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D737" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D737" s="5"/>
       <c r="E737" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F737" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F737" s="8">
         <v>0</v>
       </c>
       <c r="G737" s="9">
@@ -22476,16 +22477,16 @@
         <v>1244</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>289</v>
+        <v>1245</v>
       </c>
       <c r="C738" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D738" s="5"/>
       <c r="E738" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F738" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F738" s="9">
         <v>0</v>
       </c>
       <c r="G738" s="9">
@@ -22494,17 +22495,17 @@
     </row>
     <row r="739" spans="1:7">
       <c r="A739" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B739" s="4" t="s">
         <v>1246</v>
+      </c>
+      <c r="B739" s="5" t="s">
+        <v>1247</v>
       </c>
       <c r="C739" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D739" s="5"/>
       <c r="E739" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F739" s="9">
         <v>0</v>
@@ -22515,19 +22516,19 @@
     </row>
     <row r="740" spans="1:7">
       <c r="A740" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B740" s="5" t="s">
         <v>1248</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="C740" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D740" s="5"/>
       <c r="E740" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F740" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F740" s="8">
         <v>0</v>
       </c>
       <c r="G740" s="9">
@@ -22539,14 +22540,14 @@
         <v>1249</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="C741" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D741" s="5"/>
       <c r="E741" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F741" s="8">
         <v>0</v>
@@ -22560,14 +22561,16 @@
         <v>1250</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C742" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D742" s="5"/>
+      <c r="D742" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E742" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F742" s="8">
         <v>0</v>
@@ -22580,17 +22583,17 @@
       <c r="A743" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="B743" s="4" t="s">
+      <c r="B743" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C743" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D743" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E743" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F743" s="8">
         <v>0</v>
@@ -22603,8 +22606,8 @@
       <c r="A744" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="B744" s="5" t="s">
-        <v>151</v>
+      <c r="B744" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C744" s="4" t="s">
         <v>9</v>
@@ -22613,9 +22616,9 @@
         <v>10</v>
       </c>
       <c r="E744" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F744" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F744" s="9">
         <v>0</v>
       </c>
       <c r="G744" s="9">
@@ -22636,9 +22639,9 @@
         <v>10</v>
       </c>
       <c r="E745" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F745" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F745" s="8">
         <v>0</v>
       </c>
       <c r="G745" s="9">
@@ -22659,7 +22662,7 @@
         <v>10</v>
       </c>
       <c r="E746" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F746" s="8">
         <v>0</v>
@@ -22682,9 +22685,9 @@
         <v>10</v>
       </c>
       <c r="E747" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F747" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F747" s="9">
         <v>0</v>
       </c>
       <c r="G747" s="9">
@@ -22705,9 +22708,9 @@
         <v>10</v>
       </c>
       <c r="E748" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F748" s="9">
+        <v>1161</v>
+      </c>
+      <c r="F748" s="8">
         <v>0</v>
       </c>
       <c r="G748" s="9">
@@ -22719,18 +22722,18 @@
         <v>1257</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>70</v>
+        <v>1258</v>
       </c>
       <c r="C749" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D749" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E749" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F749" s="8">
+        <v>1161</v>
+      </c>
+      <c r="F749" s="9">
         <v>0</v>
       </c>
       <c r="G749" s="9">
@@ -22739,64 +22742,62 @@
     </row>
     <row r="750" spans="1:7">
       <c r="A750" s="4" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C750" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D750" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D750" s="5"/>
       <c r="E750" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F750" s="9">
         <v>0</v>
       </c>
       <c r="G750" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:7">
-      <c r="A751" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B751" s="4" t="s">
+      <c r="A751" s="5" t="s">
         <v>1261</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>1262</v>
       </c>
       <c r="C751" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D751" s="5"/>
       <c r="E751" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F751" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G751" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:7">
-      <c r="A752" s="5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B752" s="5" t="s">
+      <c r="A752" s="4" t="s">
         <v>1263</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>1084</v>
       </c>
       <c r="C752" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D752" s="5"/>
       <c r="E752" s="4" t="s">
-        <v>1162</v>
+        <v>1264</v>
       </c>
       <c r="F752" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G752" s="9">
         <v>0</v>
@@ -22804,17 +22805,17 @@
     </row>
     <row r="753" spans="1:7">
       <c r="A753" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B753" s="4" t="s">
-        <v>1085</v>
+        <v>1265</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>1266</v>
       </c>
       <c r="C753" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D753" s="5"/>
       <c r="E753" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F753" s="9">
         <v>0</v>
@@ -22825,17 +22826,17 @@
     </row>
     <row r="754" spans="1:7">
       <c r="A754" s="4" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B754" s="5" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C754" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D754" s="5"/>
       <c r="E754" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F754" s="9">
         <v>0</v>
@@ -22846,19 +22847,21 @@
     </row>
     <row r="755" spans="1:7">
       <c r="A755" s="4" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B755" s="5" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C755" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D755" s="5"/>
+      <c r="D755" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E755" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F755" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F755" s="8">
         <v>0</v>
       </c>
       <c r="G755" s="9">
@@ -22867,19 +22870,17 @@
     </row>
     <row r="756" spans="1:7">
       <c r="A756" s="4" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B756" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C756" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D756" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D756" s="5"/>
       <c r="E756" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F756" s="8">
         <v>0</v>
@@ -22890,17 +22891,17 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757" s="4" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B757" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C757" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D757" s="5"/>
       <c r="E757" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F757" s="8">
         <v>0</v>
@@ -22911,17 +22912,19 @@
     </row>
     <row r="758" spans="1:7">
       <c r="A758" s="4" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B758" s="5" t="s">
         <v>1275</v>
       </c>
+      <c r="B758" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="C758" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D758" s="5"/>
+      <c r="D758" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E758" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F758" s="8">
         <v>0</v>
@@ -22931,22 +22934,20 @@
       </c>
     </row>
     <row r="759" spans="1:7">
-      <c r="A759" s="4" t="s">
+      <c r="A759" s="5" t="s">
         <v>1276</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>364</v>
+        <v>1277</v>
       </c>
       <c r="C759" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D759" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D759" s="5"/>
       <c r="E759" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F759" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F759" s="9">
         <v>0</v>
       </c>
       <c r="G759" s="9">
@@ -22954,18 +22955,18 @@
       </c>
     </row>
     <row r="760" spans="1:7">
-      <c r="A760" s="5" t="s">
-        <v>1277</v>
+      <c r="A760" s="4" t="s">
+        <v>1278</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>1278</v>
+        <v>1189</v>
       </c>
       <c r="C760" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D760" s="5"/>
       <c r="E760" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F760" s="9">
         <v>0</v>
@@ -22978,17 +22979,19 @@
       <c r="A761" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="B761" s="4" t="s">
-        <v>1190</v>
+      <c r="B761" s="5" t="s">
+        <v>1280</v>
       </c>
       <c r="C761" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D761" s="5"/>
+      <c r="D761" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E761" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F761" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F761" s="8">
         <v>0</v>
       </c>
       <c r="G761" s="9">
@@ -22997,10 +23000,10 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762" s="4" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B762" s="5" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C762" s="4" t="s">
         <v>9</v>
@@ -23009,7 +23012,7 @@
         <v>10</v>
       </c>
       <c r="E762" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F762" s="8">
         <v>0</v>
@@ -23020,21 +23023,19 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763" s="4" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B763" s="5" t="s">
         <v>1283</v>
       </c>
+      <c r="B763" s="4" t="s">
+        <v>1284</v>
+      </c>
       <c r="C763" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D763" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D763" s="5"/>
       <c r="E763" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F763" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F763" s="9">
         <v>0</v>
       </c>
       <c r="G763" s="9">
@@ -23043,19 +23044,21 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764" s="4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B764" s="4" t="s">
         <v>1285</v>
       </c>
+      <c r="B764" s="5" t="s">
+        <v>1286</v>
+      </c>
       <c r="C764" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D764" s="5"/>
+      <c r="D764" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E764" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F764" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F764" s="8">
         <v>0</v>
       </c>
       <c r="G764" s="9">
@@ -23064,21 +23067,19 @@
     </row>
     <row r="765" spans="1:7">
       <c r="A765" s="4" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B765" s="5" t="s">
         <v>1287</v>
       </c>
+      <c r="B765" s="4" t="s">
+        <v>1288</v>
+      </c>
       <c r="C765" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D765" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D765" s="5"/>
       <c r="E765" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F765" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F765" s="9">
         <v>0</v>
       </c>
       <c r="G765" s="9">
@@ -23087,19 +23088,19 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766" s="4" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B766" s="4" t="s">
         <v>1289</v>
+      </c>
+      <c r="B766" s="5" t="s">
+        <v>882</v>
       </c>
       <c r="C766" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D766" s="5"/>
       <c r="E766" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F766" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F766" s="8">
         <v>0</v>
       </c>
       <c r="G766" s="9">
@@ -23111,16 +23112,16 @@
         <v>1290</v>
       </c>
       <c r="B767" s="5" t="s">
-        <v>882</v>
+        <v>1291</v>
       </c>
       <c r="C767" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D767" s="5"/>
       <c r="E767" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F767" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F767" s="9">
         <v>0</v>
       </c>
       <c r="G767" s="9">
@@ -23129,17 +23130,19 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" s="4" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B768" s="5" t="s">
-        <v>1292</v>
+        <v>885</v>
       </c>
       <c r="C768" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D768" s="5"/>
+      <c r="D768" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E768" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F768" s="9">
         <v>0</v>
@@ -23153,7 +23156,7 @@
         <v>1293</v>
       </c>
       <c r="B769" s="5" t="s">
-        <v>885</v>
+        <v>1294</v>
       </c>
       <c r="C769" s="4" t="s">
         <v>9</v>
@@ -23162,9 +23165,9 @@
         <v>10</v>
       </c>
       <c r="E769" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F769" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F769" s="8">
         <v>0</v>
       </c>
       <c r="G769" s="9">
@@ -23173,19 +23176,17 @@
     </row>
     <row r="770" spans="1:7">
       <c r="A770" s="4" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B770" s="5" t="s">
-        <v>1295</v>
+        <v>114</v>
       </c>
       <c r="C770" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D770" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D770" s="5"/>
       <c r="E770" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F770" s="8">
         <v>0</v>
@@ -23199,16 +23200,16 @@
         <v>1296</v>
       </c>
       <c r="B771" s="5" t="s">
-        <v>114</v>
+        <v>1297</v>
       </c>
       <c r="C771" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D771" s="5"/>
       <c r="E771" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F771" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F771" s="9">
         <v>0</v>
       </c>
       <c r="G771" s="9">
@@ -23217,17 +23218,19 @@
     </row>
     <row r="772" spans="1:7">
       <c r="A772" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B772" s="5" t="s">
         <v>1298</v>
       </c>
+      <c r="B772" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C772" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D772" s="5"/>
+      <c r="D772" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E772" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F772" s="9">
         <v>0</v>
@@ -23241,18 +23244,16 @@
         <v>1299</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="C773" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D773" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D773" s="5"/>
       <c r="E773" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F773" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F773" s="8">
         <v>0</v>
       </c>
       <c r="G773" s="9">
@@ -23263,17 +23264,17 @@
       <c r="A774" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="B774" s="4" t="s">
-        <v>279</v>
+      <c r="B774" s="5" t="s">
+        <v>1301</v>
       </c>
       <c r="C774" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D774" s="5"/>
       <c r="E774" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F774" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F774" s="9">
         <v>0</v>
       </c>
       <c r="G774" s="9">
@@ -23282,17 +23283,19 @@
     </row>
     <row r="775" spans="1:7">
       <c r="A775" s="4" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B775" s="5" t="s">
         <v>1302</v>
       </c>
+      <c r="B775" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="C775" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D775" s="5"/>
+      <c r="D775" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E775" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F775" s="9">
         <v>0</v>
@@ -23306,7 +23309,7 @@
         <v>1303</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>208</v>
+        <v>729</v>
       </c>
       <c r="C776" s="4" t="s">
         <v>9</v>
@@ -23315,9 +23318,9 @@
         <v>10</v>
       </c>
       <c r="E776" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F776" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F776" s="8">
         <v>0</v>
       </c>
       <c r="G776" s="9">
@@ -23329,16 +23332,14 @@
         <v>1304</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>729</v>
+        <v>212</v>
       </c>
       <c r="C777" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D777" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D777" s="4"/>
       <c r="E777" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F777" s="8">
         <v>0</v>
@@ -23351,15 +23352,15 @@
       <c r="A778" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="B778" s="4" t="s">
-        <v>212</v>
+      <c r="B778" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="C778" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D778" s="4"/>
+      <c r="D778" s="5"/>
       <c r="E778" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F778" s="8">
         <v>0</v>
@@ -23380,7 +23381,7 @@
       </c>
       <c r="D779" s="5"/>
       <c r="E779" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F779" s="8">
         <v>0</v>
@@ -23394,16 +23395,16 @@
         <v>1307</v>
       </c>
       <c r="B780" s="5" t="s">
-        <v>289</v>
+        <v>1308</v>
       </c>
       <c r="C780" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D780" s="5"/>
       <c r="E780" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F780" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F780" s="9">
         <v>0</v>
       </c>
       <c r="G780" s="9">
@@ -23412,19 +23413,19 @@
     </row>
     <row r="781" spans="1:7">
       <c r="A781" s="4" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B781" s="5" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C781" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D781" s="5"/>
       <c r="E781" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F781" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F781" s="8">
         <v>0</v>
       </c>
       <c r="G781" s="9">
@@ -23433,17 +23434,17 @@
     </row>
     <row r="782" spans="1:7">
       <c r="A782" s="4" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B782" s="5" t="s">
         <v>1311</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="C782" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D782" s="5"/>
       <c r="E782" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F782" s="8">
         <v>0</v>
@@ -23456,15 +23457,17 @@
       <c r="A783" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="B783" s="4" t="s">
-        <v>1246</v>
+      <c r="B783" s="5" t="s">
+        <v>1313</v>
       </c>
       <c r="C783" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D783" s="5"/>
+      <c r="D783" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E783" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F783" s="8">
         <v>0</v>
@@ -23475,21 +23478,19 @@
     </row>
     <row r="784" spans="1:7">
       <c r="A784" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B784" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C784" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D784" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D784" s="5"/>
       <c r="E784" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F784" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F784" s="9">
         <v>0</v>
       </c>
       <c r="G784" s="9">
@@ -23498,17 +23499,17 @@
     </row>
     <row r="785" spans="1:7">
       <c r="A785" s="4" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B785" s="5" t="s">
         <v>1316</v>
+      </c>
+      <c r="B785" s="17" t="s">
+        <v>1317</v>
       </c>
       <c r="C785" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D785" s="5"/>
       <c r="E785" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F785" s="9">
         <v>0</v>
@@ -23519,19 +23520,19 @@
     </row>
     <row r="786" spans="1:7">
       <c r="A786" s="4" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B786" s="17" t="s">
         <v>1318</v>
+      </c>
+      <c r="B786" s="5" t="s">
+        <v>1319</v>
       </c>
       <c r="C786" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D786" s="5"/>
       <c r="E786" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F786" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F786" s="8">
         <v>0</v>
       </c>
       <c r="G786" s="9">
@@ -23540,19 +23541,19 @@
     </row>
     <row r="787" spans="1:7">
       <c r="A787" s="4" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B787" s="5" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C787" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D787" s="5"/>
       <c r="E787" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F787" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F787" s="9">
         <v>0</v>
       </c>
       <c r="G787" s="9">
@@ -23561,17 +23562,17 @@
     </row>
     <row r="788" spans="1:7">
       <c r="A788" s="4" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B788" s="5" t="s">
         <v>1322</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>1076</v>
       </c>
       <c r="C788" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D788" s="5"/>
       <c r="E788" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F788" s="9">
         <v>0</v>
@@ -23585,16 +23586,18 @@
         <v>1323</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>1076</v>
+        <v>70</v>
       </c>
       <c r="C789" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D789" s="5"/>
+      <c r="D789" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E789" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F789" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F789" s="8">
         <v>0</v>
       </c>
       <c r="G789" s="9">
@@ -23606,7 +23609,7 @@
         <v>1324</v>
       </c>
       <c r="B790" s="4" t="s">
-        <v>70</v>
+        <v>1325</v>
       </c>
       <c r="C790" s="4" t="s">
         <v>9</v>
@@ -23615,7 +23618,7 @@
         <v>10</v>
       </c>
       <c r="E790" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F790" s="8">
         <v>0</v>
@@ -23626,21 +23629,19 @@
     </row>
     <row r="791" spans="1:7">
       <c r="A791" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B791" s="4" t="s">
         <v>1326</v>
       </c>
+      <c r="B791" s="5" t="s">
+        <v>1258</v>
+      </c>
       <c r="C791" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D791" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D791" s="5"/>
       <c r="E791" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F791" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F791" s="9">
         <v>0</v>
       </c>
       <c r="G791" s="9">
@@ -23652,14 +23653,14 @@
         <v>1327</v>
       </c>
       <c r="B792" s="5" t="s">
-        <v>1259</v>
+        <v>1328</v>
       </c>
       <c r="C792" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D792" s="5"/>
       <c r="E792" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F792" s="9">
         <v>0</v>
@@ -23670,19 +23671,19 @@
     </row>
     <row r="793" spans="1:7">
       <c r="A793" s="4" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B793" s="5" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C793" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D793" s="5"/>
       <c r="E793" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F793" s="9">
+        <v>1264</v>
+      </c>
+      <c r="F793" s="8">
         <v>0</v>
       </c>
       <c r="G793" s="9">
@@ -23691,38 +23692,38 @@
     </row>
     <row r="794" spans="1:7">
       <c r="A794" s="4" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B794" s="5" t="s">
         <v>1331</v>
       </c>
+      <c r="B794" s="4" t="s">
+        <v>1332</v>
+      </c>
       <c r="C794" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D794" s="5"/>
+      <c r="D794" s="4"/>
       <c r="E794" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F794" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F794" s="9">
         <v>0</v>
       </c>
       <c r="G794" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:7">
       <c r="A795" s="4" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B795" s="4" t="s">
-        <v>300</v>
+        <v>1333</v>
+      </c>
+      <c r="B795" s="5" t="s">
+        <v>1334</v>
       </c>
       <c r="C795" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D795" s="4"/>
+      <c r="D795" s="5"/>
       <c r="E795" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F795" s="9">
         <v>0</v>
@@ -23733,38 +23734,38 @@
     </row>
     <row r="796" spans="1:7">
       <c r="A796" s="4" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B796" s="5" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D796" s="5"/>
+        <v>1337</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>1338</v>
+      </c>
       <c r="E796" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F796" s="9">
+        <v>1337</v>
+      </c>
+      <c r="F796" s="8">
         <v>0</v>
       </c>
       <c r="G796" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:7">
       <c r="A797" s="4" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B797" s="5" t="s">
-        <v>1336</v>
+        <v>1339</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>1340</v>
       </c>
       <c r="C797" s="4" t="s">
         <v>1337</v>
       </c>
-      <c r="D797" s="4" t="s">
-        <v>1338</v>
-      </c>
+      <c r="D797" s="5"/>
       <c r="E797" s="4" t="s">
         <v>1337</v>
       </c>
@@ -23777,7 +23778,7 @@
     </row>
     <row r="798" spans="1:7">
       <c r="A798" s="4" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B798" s="4" t="s">
         <v>1340</v>
@@ -23798,10 +23799,10 @@
     </row>
     <row r="799" spans="1:7">
       <c r="A799" s="4" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="C799" s="4" t="s">
         <v>1337</v>
@@ -23810,7 +23811,7 @@
       <c r="E799" s="4" t="s">
         <v>1337</v>
       </c>
-      <c r="F799" s="8">
+      <c r="F799" s="9">
         <v>0</v>
       </c>
       <c r="G799" s="9">
@@ -23819,10 +23820,10 @@
     </row>
     <row r="800" spans="1:7">
       <c r="A800" s="4" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="B800" s="4" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C800" s="4" t="s">
         <v>1337</v>
@@ -23840,10 +23841,10 @@
     </row>
     <row r="801" spans="1:7">
       <c r="A801" s="4" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C801" s="4" t="s">
         <v>1337</v>
@@ -23861,10 +23862,10 @@
     </row>
     <row r="802" spans="1:7">
       <c r="A802" s="4" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B802" s="4" t="s">
-        <v>1347</v>
+        <v>1348</v>
+      </c>
+      <c r="B802" s="5" t="s">
+        <v>1349</v>
       </c>
       <c r="C802" s="4" t="s">
         <v>1337</v>
@@ -23882,10 +23883,10 @@
     </row>
     <row r="803" spans="1:7">
       <c r="A803" s="4" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B803" s="5" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C803" s="4" t="s">
         <v>1337</v>
@@ -23903,10 +23904,10 @@
     </row>
     <row r="804" spans="1:7">
       <c r="A804" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B804" s="5" t="s">
-        <v>1351</v>
+        <v>1352</v>
+      </c>
+      <c r="B804" s="6" t="s">
+        <v>1353</v>
       </c>
       <c r="C804" s="4" t="s">
         <v>1337</v>
@@ -23915,7 +23916,7 @@
       <c r="E804" s="4" t="s">
         <v>1337</v>
       </c>
-      <c r="F804" s="9">
+      <c r="F804" s="8">
         <v>0</v>
       </c>
       <c r="G804" s="9">
@@ -23924,10 +23925,10 @@
     </row>
     <row r="805" spans="1:7">
       <c r="A805" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B805" s="6" t="s">
-        <v>1353</v>
+        <v>1354</v>
+      </c>
+      <c r="B805" s="5" t="s">
+        <v>1355</v>
       </c>
       <c r="C805" s="4" t="s">
         <v>1337</v>
@@ -23945,10 +23946,10 @@
     </row>
     <row r="806" spans="1:7">
       <c r="A806" s="4" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B806" s="5" t="s">
-        <v>1355</v>
+        <v>1356</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>1357</v>
       </c>
       <c r="C806" s="4" t="s">
         <v>1337</v>
@@ -23957,7 +23958,7 @@
       <c r="E806" s="4" t="s">
         <v>1337</v>
       </c>
-      <c r="F806" s="8">
+      <c r="F806" s="9">
         <v>0</v>
       </c>
       <c r="G806" s="9">
@@ -23966,17 +23967,17 @@
     </row>
     <row r="807" spans="1:7">
       <c r="A807" s="4" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1357</v>
+        <v>561</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="D807" s="5"/>
       <c r="E807" s="4" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="F807" s="9">
         <v>0</v>
@@ -23987,10 +23988,10 @@
     </row>
     <row r="808" spans="1:7">
       <c r="A808" s="4" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>561</v>
+        <v>1361</v>
       </c>
       <c r="C808" s="4" t="s">
         <v>1359</v>
@@ -24008,10 +24009,10 @@
     </row>
     <row r="809" spans="1:7">
       <c r="A809" s="4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B809" s="4" t="s">
-        <v>1361</v>
+        <v>1362</v>
+      </c>
+      <c r="B809" s="5" t="s">
+        <v>1363</v>
       </c>
       <c r="C809" s="4" t="s">
         <v>1359</v>
@@ -24027,19 +24028,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" ht="14.25" spans="1:7">
       <c r="A810" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B810" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>1365</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D810" s="5"/>
+        <v>1366</v>
+      </c>
+      <c r="D810" s="22" t="s">
+        <v>1367</v>
+      </c>
       <c r="E810" s="4" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="F810" s="9">
         <v>0</v>
@@ -24048,19 +24051,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" ht="14.25" spans="1:7">
+    <row r="811" spans="1:7">
       <c r="A811" s="4" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="B811" s="4" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="C811" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D811" s="22" t="s">
-        <v>1367</v>
-      </c>
+      <c r="D811" s="5"/>
       <c r="E811" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24073,7 +24074,7 @@
     </row>
     <row r="812" spans="1:7">
       <c r="A812" s="4" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B812" s="4" t="s">
         <v>1369</v>
@@ -24085,7 +24086,7 @@
       <c r="E812" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F812" s="9">
+      <c r="F812" s="8">
         <v>0</v>
       </c>
       <c r="G812" s="9">
@@ -24094,7 +24095,7 @@
     </row>
     <row r="813" spans="1:7">
       <c r="A813" s="4" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B813" s="4" t="s">
         <v>1369</v>
@@ -24106,7 +24107,7 @@
       <c r="E813" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F813" s="8">
+      <c r="F813" s="9">
         <v>0</v>
       </c>
       <c r="G813" s="9">
@@ -24115,7 +24116,7 @@
     </row>
     <row r="814" spans="1:7">
       <c r="A814" s="4" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B814" s="4" t="s">
         <v>1369</v>
@@ -24136,7 +24137,7 @@
     </row>
     <row r="815" spans="1:7">
       <c r="A815" s="4" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B815" s="4" t="s">
         <v>1369</v>
@@ -24156,8 +24157,8 @@
       </c>
     </row>
     <row r="816" spans="1:7">
-      <c r="A816" s="4" t="s">
-        <v>1373</v>
+      <c r="A816" s="5" t="s">
+        <v>1374</v>
       </c>
       <c r="B816" s="4" t="s">
         <v>1369</v>
@@ -24165,11 +24166,13 @@
       <c r="C816" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D816" s="5"/>
+      <c r="D816" s="5" t="s">
+        <v>1375</v>
+      </c>
       <c r="E816" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F816" s="9">
+      <c r="F816" s="8">
         <v>0</v>
       </c>
       <c r="G816" s="9">
@@ -24178,7 +24181,7 @@
     </row>
     <row r="817" spans="1:7">
       <c r="A817" s="5" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="B817" s="4" t="s">
         <v>1369</v>
@@ -24186,8 +24189,8 @@
       <c r="C817" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D817" s="5" t="s">
-        <v>1375</v>
+      <c r="D817" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="E817" s="4" t="s">
         <v>1366</v>
@@ -24201,21 +24204,19 @@
     </row>
     <row r="818" spans="1:7">
       <c r="A818" s="5" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1369</v>
+        <v>1379</v>
       </c>
       <c r="C818" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D818" s="4" t="s">
-        <v>1377</v>
-      </c>
+      <c r="D818" s="5"/>
       <c r="E818" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F818" s="8">
+      <c r="F818" s="9">
         <v>0</v>
       </c>
       <c r="G818" s="9">
@@ -24224,19 +24225,21 @@
     </row>
     <row r="819" spans="1:7">
       <c r="A819" s="5" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B819" s="4" t="s">
-        <v>1379</v>
+        <v>1380</v>
+      </c>
+      <c r="B819" s="11" t="s">
+        <v>1381</v>
       </c>
       <c r="C819" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D819" s="5"/>
+      <c r="D819" s="10" t="s">
+        <v>1382</v>
+      </c>
       <c r="E819" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F819" s="9">
+      <c r="F819" s="8">
         <v>0</v>
       </c>
       <c r="G819" s="9">
@@ -24244,22 +24247,20 @@
       </c>
     </row>
     <row r="820" spans="1:7">
-      <c r="A820" s="5" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B820" s="11" t="s">
-        <v>1381</v>
+      <c r="A820" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B820" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="C820" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D820" s="10" t="s">
-        <v>1382</v>
-      </c>
+      <c r="D820" s="5"/>
       <c r="E820" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F820" s="8">
+      <c r="F820" s="9">
         <v>0</v>
       </c>
       <c r="G820" s="9">
@@ -24267,20 +24268,22 @@
       </c>
     </row>
     <row r="821" spans="1:7">
-      <c r="A821" s="4" t="s">
-        <v>1383</v>
+      <c r="A821" s="5" t="s">
+        <v>1385</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C821" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D821" s="5"/>
+      <c r="D821" s="4" t="s">
+        <v>1387</v>
+      </c>
       <c r="E821" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F821" s="9">
+      <c r="F821" s="8">
         <v>0</v>
       </c>
       <c r="G821" s="9">
@@ -24288,18 +24291,16 @@
       </c>
     </row>
     <row r="822" spans="1:7">
-      <c r="A822" s="5" t="s">
-        <v>1385</v>
+      <c r="A822" s="4" t="s">
+        <v>1388</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="C822" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D822" s="4" t="s">
-        <v>1387</v>
-      </c>
+      <c r="D822" s="4"/>
       <c r="E822" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24311,16 +24312,18 @@
       </c>
     </row>
     <row r="823" spans="1:7">
-      <c r="A823" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B823" s="4" t="s">
-        <v>1389</v>
+      <c r="A823" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B823" s="23" t="s">
+        <v>1391</v>
       </c>
       <c r="C823" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D823" s="4"/>
+      <c r="D823" s="23" t="s">
+        <v>1392</v>
+      </c>
       <c r="E823" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24332,22 +24335,22 @@
       </c>
     </row>
     <row r="824" spans="1:7">
-      <c r="A824" s="5" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B824" s="23" t="s">
-        <v>1391</v>
+      <c r="A824" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>1394</v>
       </c>
       <c r="C824" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D824" s="23" t="s">
-        <v>1392</v>
+      <c r="D824" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="E824" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F824" s="8">
+      <c r="F824" s="9">
         <v>0</v>
       </c>
       <c r="G824" s="9">
@@ -24355,22 +24358,22 @@
       </c>
     </row>
     <row r="825" spans="1:7">
-      <c r="A825" s="4" t="s">
-        <v>1393</v>
+      <c r="A825" s="5" t="s">
+        <v>1396</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="C825" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D825" s="4" t="s">
-        <v>1395</v>
+      <c r="D825" s="23" t="s">
+        <v>1398</v>
       </c>
       <c r="E825" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F825" s="9">
+      <c r="F825" s="8">
         <v>0</v>
       </c>
       <c r="G825" s="9">
@@ -24378,18 +24381,16 @@
       </c>
     </row>
     <row r="826" spans="1:7">
-      <c r="A826" s="5" t="s">
-        <v>1396</v>
+      <c r="A826" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="C826" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D826" s="23" t="s">
-        <v>1398</v>
-      </c>
+      <c r="D826" s="5"/>
       <c r="E826" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24402,15 +24403,17 @@
     </row>
     <row r="827" spans="1:7">
       <c r="A827" s="4" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C827" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D827" s="5"/>
+      <c r="D827" s="5" t="s">
+        <v>1403</v>
+      </c>
       <c r="E827" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24422,22 +24425,20 @@
       </c>
     </row>
     <row r="828" spans="1:7">
-      <c r="A828" s="4" t="s">
-        <v>1401</v>
+      <c r="A828" s="5" t="s">
+        <v>1404</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C828" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D828" s="5" t="s">
-        <v>1403</v>
-      </c>
+      <c r="D828" s="5"/>
       <c r="E828" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F828" s="8">
+      <c r="F828" s="9">
         <v>0</v>
       </c>
       <c r="G828" s="9">
@@ -24445,11 +24446,11 @@
       </c>
     </row>
     <row r="829" spans="1:7">
-      <c r="A829" s="5" t="s">
-        <v>1404</v>
+      <c r="A829" s="4" t="s">
+        <v>1406</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C829" s="4" t="s">
         <v>1366</v>
@@ -24466,11 +24467,11 @@
       </c>
     </row>
     <row r="830" spans="1:7">
-      <c r="A830" s="4" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B830" s="4" t="s">
-        <v>1407</v>
+      <c r="A830" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B830" s="10" t="s">
+        <v>1409</v>
       </c>
       <c r="C830" s="4" t="s">
         <v>1366</v>
@@ -24479,7 +24480,7 @@
       <c r="E830" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F830" s="9">
+      <c r="F830" s="8">
         <v>0</v>
       </c>
       <c r="G830" s="9">
@@ -24488,10 +24489,10 @@
     </row>
     <row r="831" spans="1:7">
       <c r="A831" s="5" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B831" s="10" t="s">
-        <v>1409</v>
+        <v>1410</v>
+      </c>
+      <c r="B831" s="6" t="s">
+        <v>1411</v>
       </c>
       <c r="C831" s="4" t="s">
         <v>1366</v>
@@ -24508,16 +24509,18 @@
       </c>
     </row>
     <row r="832" spans="1:7">
-      <c r="A832" s="5" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B832" s="6" t="s">
-        <v>1411</v>
+      <c r="A832" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B832" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="C832" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D832" s="5"/>
+      <c r="D832" s="4" t="s">
+        <v>1414</v>
+      </c>
       <c r="E832" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24530,17 +24533,15 @@
     </row>
     <row r="833" spans="1:7">
       <c r="A833" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B833" s="4" t="s">
-        <v>1413</v>
+        <v>1415</v>
+      </c>
+      <c r="B833" s="6" t="s">
+        <v>1416</v>
       </c>
       <c r="C833" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D833" s="4" t="s">
-        <v>1414</v>
-      </c>
+      <c r="D833" s="5"/>
       <c r="E833" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24552,11 +24553,11 @@
       </c>
     </row>
     <row r="834" spans="1:7">
-      <c r="A834" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B834" s="6" t="s">
-        <v>1416</v>
+      <c r="A834" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>1418</v>
       </c>
       <c r="C834" s="4" t="s">
         <v>1366</v>
@@ -24573,11 +24574,11 @@
       </c>
     </row>
     <row r="835" spans="1:7">
-      <c r="A835" s="5" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B835" s="4" t="s">
-        <v>1418</v>
+      <c r="A835" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B835" s="5" t="s">
+        <v>1420</v>
       </c>
       <c r="C835" s="4" t="s">
         <v>1366</v>
@@ -24586,7 +24587,7 @@
       <c r="E835" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F835" s="8">
+      <c r="F835" s="9">
         <v>0</v>
       </c>
       <c r="G835" s="9">
@@ -24594,16 +24595,18 @@
       </c>
     </row>
     <row r="836" spans="1:7">
-      <c r="A836" s="4" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B836" s="5" t="s">
-        <v>1420</v>
+      <c r="A836" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B836" s="4" t="s">
+        <v>1422</v>
       </c>
       <c r="C836" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D836" s="5"/>
+      <c r="D836" s="23" t="s">
+        <v>1423</v>
+      </c>
       <c r="E836" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24616,21 +24619,19 @@
     </row>
     <row r="837" spans="1:7">
       <c r="A837" s="5" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="C837" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D837" s="23" t="s">
-        <v>1423</v>
-      </c>
+      <c r="D837" s="5"/>
       <c r="E837" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F837" s="9">
+      <c r="F837" s="8">
         <v>0</v>
       </c>
       <c r="G837" s="9">
@@ -24638,8 +24639,8 @@
       </c>
     </row>
     <row r="838" spans="1:7">
-      <c r="A838" s="5" t="s">
-        <v>1424</v>
+      <c r="A838" s="4" t="s">
+        <v>1426</v>
       </c>
       <c r="B838" s="4" t="s">
         <v>1425</v>
@@ -24651,7 +24652,7 @@
       <c r="E838" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F838" s="8">
+      <c r="F838" s="9">
         <v>0</v>
       </c>
       <c r="G838" s="9">
@@ -24660,7 +24661,7 @@
     </row>
     <row r="839" spans="1:7">
       <c r="A839" s="4" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B839" s="4" t="s">
         <v>1425</v>
@@ -24680,10 +24681,10 @@
       </c>
     </row>
     <row r="840" spans="1:7">
-      <c r="A840" s="4" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B840" s="4" t="s">
+      <c r="A840" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B840" s="5" t="s">
         <v>1425</v>
       </c>
       <c r="C840" s="4" t="s">
@@ -24693,7 +24694,7 @@
       <c r="E840" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F840" s="9">
+      <c r="F840" s="8">
         <v>0</v>
       </c>
       <c r="G840" s="9">
@@ -24701,10 +24702,10 @@
       </c>
     </row>
     <row r="841" spans="1:7">
-      <c r="A841" s="5" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B841" s="5" t="s">
+      <c r="A841" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B841" s="4" t="s">
         <v>1425</v>
       </c>
       <c r="C841" s="4" t="s">
@@ -24723,38 +24724,38 @@
     </row>
     <row r="842" spans="1:7">
       <c r="A842" s="4" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B842" s="4" t="s">
-        <v>1425</v>
+        <v>1430</v>
+      </c>
+      <c r="B842" s="5" t="s">
+        <v>1431</v>
       </c>
       <c r="C842" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D842" s="5"/>
+      <c r="D842" s="4" t="s">
+        <v>1432</v>
+      </c>
       <c r="E842" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F842" s="8">
+      <c r="F842" s="9">
         <v>0</v>
       </c>
       <c r="G842" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:7">
-      <c r="A843" s="4" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B843" s="5" t="s">
-        <v>1431</v>
+    <row r="843" ht="14.25" spans="1:7">
+      <c r="A843" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B843" s="24" t="s">
+        <v>1434</v>
       </c>
       <c r="C843" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D843" s="4" t="s">
-        <v>1432</v>
-      </c>
+      <c r="D843" s="5"/>
       <c r="E843" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24765,21 +24766,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" ht="14.25" spans="1:7">
-      <c r="A844" s="5" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B844" s="24" t="s">
-        <v>1434</v>
+    <row r="844" spans="1:7">
+      <c r="A844" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B844" s="4" t="s">
+        <v>1436</v>
       </c>
       <c r="C844" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D844" s="5"/>
+      <c r="D844" s="4" t="s">
+        <v>1437</v>
+      </c>
       <c r="E844" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F844" s="9">
+      <c r="F844" s="8">
         <v>0</v>
       </c>
       <c r="G844" s="9">
@@ -24787,22 +24790,20 @@
       </c>
     </row>
     <row r="845" spans="1:7">
-      <c r="A845" s="4" t="s">
-        <v>1435</v>
+      <c r="A845" s="5" t="s">
+        <v>1438</v>
       </c>
       <c r="B845" s="4" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C845" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D845" s="4" t="s">
-        <v>1437</v>
-      </c>
+      <c r="D845" s="5"/>
       <c r="E845" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F845" s="8">
+      <c r="F845" s="9">
         <v>0</v>
       </c>
       <c r="G845" s="9">
@@ -24811,15 +24812,17 @@
     </row>
     <row r="846" spans="1:7">
       <c r="A846" s="5" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C846" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D846" s="5"/>
+      <c r="D846" s="4" t="s">
+        <v>1442</v>
+      </c>
       <c r="E846" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24832,21 +24835,19 @@
     </row>
     <row r="847" spans="1:7">
       <c r="A847" s="5" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="B847" s="4" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="C847" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D847" s="4" t="s">
-        <v>1442</v>
-      </c>
+      <c r="D847" s="5"/>
       <c r="E847" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F847" s="9">
+      <c r="F847" s="8">
         <v>0</v>
       </c>
       <c r="G847" s="9">
@@ -24854,11 +24855,11 @@
       </c>
     </row>
     <row r="848" spans="1:7">
-      <c r="A848" s="5" t="s">
-        <v>1443</v>
+      <c r="A848" s="4" t="s">
+        <v>1445</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C848" s="4" t="s">
         <v>1366</v>
@@ -24867,7 +24868,7 @@
       <c r="E848" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F848" s="8">
+      <c r="F848" s="9">
         <v>0</v>
       </c>
       <c r="G848" s="9">
@@ -24875,11 +24876,11 @@
       </c>
     </row>
     <row r="849" spans="1:7">
-      <c r="A849" s="4" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B849" s="4" t="s">
-        <v>1446</v>
+      <c r="A849" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B849" s="5" t="s">
+        <v>1448</v>
       </c>
       <c r="C849" s="4" t="s">
         <v>1366</v>
@@ -24897,15 +24898,17 @@
     </row>
     <row r="850" spans="1:7">
       <c r="A850" s="5" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B850" s="5" t="s">
-        <v>1448</v>
+        <v>1449</v>
+      </c>
+      <c r="B850" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="C850" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D850" s="5"/>
+      <c r="D850" s="4" t="s">
+        <v>1451</v>
+      </c>
       <c r="E850" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24917,22 +24920,20 @@
       </c>
     </row>
     <row r="851" spans="1:7">
-      <c r="A851" s="5" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B851" s="4" t="s">
-        <v>1450</v>
+      <c r="A851" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B851" s="5" t="s">
+        <v>1453</v>
       </c>
       <c r="C851" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D851" s="4" t="s">
-        <v>1451</v>
-      </c>
+      <c r="D851" s="5"/>
       <c r="E851" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F851" s="9">
+      <c r="F851" s="8">
         <v>0</v>
       </c>
       <c r="G851" s="9">
@@ -24940,16 +24941,18 @@
       </c>
     </row>
     <row r="852" spans="1:7">
-      <c r="A852" s="4" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B852" s="5" t="s">
-        <v>1453</v>
+      <c r="A852" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B852" s="25" t="s">
+        <v>1455</v>
       </c>
       <c r="C852" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D852" s="5"/>
+      <c r="D852" s="5" t="s">
+        <v>1456</v>
+      </c>
       <c r="E852" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24961,22 +24964,22 @@
       </c>
     </row>
     <row r="853" spans="1:7">
-      <c r="A853" s="5" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B853" s="25" t="s">
-        <v>1455</v>
+      <c r="A853" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B853" s="4" t="s">
+        <v>1458</v>
       </c>
       <c r="C853" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D853" s="5" t="s">
-        <v>1456</v>
+      <c r="D853" s="6" t="s">
+        <v>1459</v>
       </c>
       <c r="E853" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F853" s="8">
+      <c r="F853" s="9">
         <v>0</v>
       </c>
       <c r="G853" s="9">
@@ -24985,21 +24988,21 @@
     </row>
     <row r="854" spans="1:7">
       <c r="A854" s="4" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B854" s="4" t="s">
-        <v>1458</v>
+        <v>1460</v>
+      </c>
+      <c r="B854" s="14" t="s">
+        <v>1461</v>
       </c>
       <c r="C854" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D854" s="6" t="s">
-        <v>1459</v>
+      <c r="D854" s="4" t="s">
+        <v>1462</v>
       </c>
       <c r="E854" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F854" s="9">
+      <c r="F854" s="8">
         <v>0</v>
       </c>
       <c r="G854" s="9">
@@ -25007,18 +25010,16 @@
       </c>
     </row>
     <row r="855" spans="1:7">
-      <c r="A855" s="4" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B855" s="14" t="s">
-        <v>1461</v>
+      <c r="A855" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>1464</v>
       </c>
       <c r="C855" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D855" s="4" t="s">
-        <v>1462</v>
-      </c>
+      <c r="D855" s="5"/>
       <c r="E855" s="4" t="s">
         <v>1366</v>
       </c>
@@ -25031,15 +25032,17 @@
     </row>
     <row r="856" spans="1:7">
       <c r="A856" s="5" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="B856" s="4" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="C856" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D856" s="5"/>
+      <c r="D856" s="4" t="s">
+        <v>1467</v>
+      </c>
       <c r="E856" s="4" t="s">
         <v>1366</v>
       </c>
@@ -25051,17 +25054,17 @@
       </c>
     </row>
     <row r="857" spans="1:7">
-      <c r="A857" s="5" t="s">
-        <v>1465</v>
+      <c r="A857" s="4" t="s">
+        <v>1468</v>
       </c>
       <c r="B857" s="4" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="C857" s="4" t="s">
         <v>1366</v>
       </c>
       <c r="D857" s="4" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="E857" s="4" t="s">
         <v>1366</v>
@@ -25075,17 +25078,15 @@
     </row>
     <row r="858" spans="1:7">
       <c r="A858" s="4" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B858" s="4" t="s">
-        <v>1469</v>
+        <v>1471</v>
+      </c>
+      <c r="B858" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C858" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D858" s="4" t="s">
-        <v>1470</v>
-      </c>
+      <c r="D858" s="5"/>
       <c r="E858" s="4" t="s">
         <v>1366</v>
       </c>
@@ -25098,10 +25099,10 @@
     </row>
     <row r="859" spans="1:7">
       <c r="A859" s="4" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B859" s="5" t="s">
-        <v>1472</v>
+        <v>1473</v>
+      </c>
+      <c r="B859" s="4" t="s">
+        <v>1474</v>
       </c>
       <c r="C859" s="4" t="s">
         <v>1366</v>
@@ -25119,7 +25120,7 @@
     </row>
     <row r="860" spans="1:7">
       <c r="A860" s="4" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B860" s="4" t="s">
         <v>1474</v>
@@ -25131,7 +25132,7 @@
       <c r="E860" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F860" s="8">
+      <c r="F860" s="9">
         <v>0</v>
       </c>
       <c r="G860" s="9">
@@ -25139,16 +25140,18 @@
       </c>
     </row>
     <row r="861" spans="1:7">
-      <c r="A861" s="4" t="s">
-        <v>1475</v>
+      <c r="A861" s="5" t="s">
+        <v>1476</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="C861" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D861" s="5"/>
+      <c r="D861" s="4" t="s">
+        <v>1478</v>
+      </c>
       <c r="E861" s="4" t="s">
         <v>1366</v>
       </c>
@@ -25160,22 +25163,20 @@
       </c>
     </row>
     <row r="862" spans="1:7">
-      <c r="A862" s="5" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B862" s="4" t="s">
-        <v>1477</v>
+      <c r="A862" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B862" s="5" t="s">
+        <v>1480</v>
       </c>
       <c r="C862" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D862" s="4" t="s">
-        <v>1478</v>
-      </c>
+      <c r="D862" s="5"/>
       <c r="E862" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F862" s="9">
+      <c r="F862" s="8">
         <v>0</v>
       </c>
       <c r="G862" s="9">
@@ -25184,15 +25185,17 @@
     </row>
     <row r="863" spans="1:7">
       <c r="A863" s="4" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="B863" s="5" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="C863" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D863" s="5"/>
+      <c r="D863" s="4" t="s">
+        <v>1483</v>
+      </c>
       <c r="E863" s="4" t="s">
         <v>1366</v>
       </c>
@@ -25205,21 +25208,19 @@
     </row>
     <row r="864" spans="1:7">
       <c r="A864" s="4" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="B864" s="5" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="C864" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D864" s="4" t="s">
-        <v>1483</v>
-      </c>
+      <c r="D864" s="5"/>
       <c r="E864" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F864" s="8">
+      <c r="F864" s="9">
         <v>0</v>
       </c>
       <c r="G864" s="9">
@@ -25227,11 +25228,11 @@
       </c>
     </row>
     <row r="865" spans="1:7">
-      <c r="A865" s="4" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B865" s="5" t="s">
-        <v>1485</v>
+      <c r="A865" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B865" s="4" t="s">
+        <v>1487</v>
       </c>
       <c r="C865" s="4" t="s">
         <v>1366</v>
@@ -25249,7 +25250,7 @@
     </row>
     <row r="866" spans="1:7">
       <c r="A866" s="5" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B866" s="4" t="s">
         <v>1487</v>
@@ -25257,7 +25258,9 @@
       <c r="C866" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D866" s="5"/>
+      <c r="D866" s="4" t="s">
+        <v>1489</v>
+      </c>
       <c r="E866" s="4" t="s">
         <v>1366</v>
       </c>
@@ -25269,22 +25272,20 @@
       </c>
     </row>
     <row r="867" spans="1:7">
-      <c r="A867" s="5" t="s">
-        <v>1488</v>
+      <c r="A867" s="4" t="s">
+        <v>1490</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="C867" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D867" s="4" t="s">
-        <v>1489</v>
-      </c>
+      <c r="D867" s="5"/>
       <c r="E867" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F867" s="9">
+      <c r="F867" s="8">
         <v>0</v>
       </c>
       <c r="G867" s="9">
@@ -25292,20 +25293,22 @@
       </c>
     </row>
     <row r="868" spans="1:7">
-      <c r="A868" s="4" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B868" s="4" t="s">
-        <v>1491</v>
+      <c r="A868" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B868" s="22" t="s">
+        <v>1493</v>
       </c>
       <c r="C868" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D868" s="5"/>
+      <c r="D868" s="23" t="s">
+        <v>1494</v>
+      </c>
       <c r="E868" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F868" s="8">
+      <c r="F868" s="9">
         <v>0</v>
       </c>
       <c r="G868" s="9">
@@ -25313,22 +25316,20 @@
       </c>
     </row>
     <row r="869" spans="1:7">
-      <c r="A869" s="5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B869" s="22" t="s">
-        <v>1493</v>
+      <c r="A869" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>1496</v>
       </c>
       <c r="C869" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D869" s="23" t="s">
-        <v>1494</v>
-      </c>
+      <c r="D869" s="5"/>
       <c r="E869" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F869" s="9">
+      <c r="F869" s="8">
         <v>0</v>
       </c>
       <c r="G869" s="9">
@@ -25337,7 +25338,7 @@
     </row>
     <row r="870" spans="1:7">
       <c r="A870" s="4" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="B870" s="4" t="s">
         <v>1496</v>
@@ -25345,7 +25346,9 @@
       <c r="C870" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D870" s="5"/>
+      <c r="D870" s="4" t="s">
+        <v>1498</v>
+      </c>
       <c r="E870" s="4" t="s">
         <v>1366</v>
       </c>
@@ -25357,22 +25360,22 @@
       </c>
     </row>
     <row r="871" spans="1:7">
-      <c r="A871" s="4" t="s">
-        <v>1497</v>
+      <c r="A871" s="5" t="s">
+        <v>1499</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="C871" s="4" t="s">
         <v>1366</v>
       </c>
       <c r="D871" s="4" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="E871" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="F871" s="8">
+      <c r="F871" s="9">
         <v>0</v>
       </c>
       <c r="G871" s="9">
@@ -25380,17 +25383,17 @@
       </c>
     </row>
     <row r="872" spans="1:7">
-      <c r="A872" s="5" t="s">
-        <v>1499</v>
+      <c r="A872" s="4" t="s">
+        <v>1502</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="C872" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D872" s="4" t="s">
-        <v>1501</v>
+      <c r="D872" s="23" t="s">
+        <v>1504</v>
       </c>
       <c r="E872" s="4" t="s">
         <v>1366</v>
@@ -25404,17 +25407,15 @@
     </row>
     <row r="873" spans="1:7">
       <c r="A873" s="4" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B873" s="4" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="C873" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D873" s="23" t="s">
-        <v>1504</v>
-      </c>
+      <c r="D873" s="4"/>
       <c r="E873" s="4" t="s">
         <v>1366</v>
       </c>
@@ -25422,42 +25423,44 @@
         <v>0</v>
       </c>
       <c r="G873" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:7">
-      <c r="A874" s="4" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B874" s="4" t="s">
-        <v>1506</v>
+      <c r="A874" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B874" s="5" t="s">
+        <v>1508</v>
       </c>
       <c r="C874" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D874" s="4"/>
+      <c r="D874" s="4" t="s">
+        <v>1509</v>
+      </c>
       <c r="E874" s="4" t="s">
         <v>1366</v>
       </c>
       <c r="F874" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G874" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:7">
-      <c r="A875" s="5" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B875" s="5" t="s">
-        <v>1508</v>
+      <c r="A875" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B875" s="4" t="s">
+        <v>1511</v>
       </c>
       <c r="C875" s="4" t="s">
         <v>1366</v>
       </c>
       <c r="D875" s="4" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="E875" s="4" t="s">
         <v>1366</v>
@@ -25470,1213 +25473,1211 @@
       </c>
     </row>
     <row r="876" spans="1:7">
-      <c r="A876" s="26" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B876" s="26" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C876" s="26" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D876" s="26" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E876" s="26" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F876" s="28">
-        <v>1</v>
-      </c>
-      <c r="G876" s="28">
+      <c r="A876" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B876" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C876" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D876" s="5"/>
+      <c r="E876" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F876" s="9">
+        <v>0</v>
+      </c>
+      <c r="G876" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:7">
-      <c r="A877" s="26" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B877" s="27" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C877" s="26" t="s">
+      <c r="A877" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B877" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C877" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D877" s="27"/>
-      <c r="E877" s="26" t="s">
+      <c r="D877" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E877" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F877" s="28">
-        <v>0</v>
-      </c>
-      <c r="G877" s="28">
+      <c r="F877" s="9">
+        <v>0</v>
+      </c>
+      <c r="G877" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:7">
-      <c r="A878" s="26" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B878" s="27" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C878" s="26" t="s">
+      <c r="A878" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B878" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C878" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D878" s="26" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E878" s="26" t="s">
+      <c r="D878" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E878" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F878" s="28">
-        <v>0</v>
-      </c>
-      <c r="G878" s="28">
+      <c r="F878" s="8">
+        <v>0</v>
+      </c>
+      <c r="G878" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:7">
-      <c r="A879" s="26" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B879" s="27" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C879" s="26" t="s">
+      <c r="A879" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B879" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C879" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D879" s="26" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E879" s="26" t="s">
+      <c r="D879" s="5"/>
+      <c r="E879" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F879" s="29">
-        <v>0</v>
-      </c>
-      <c r="G879" s="28">
+      <c r="F879" s="8">
+        <v>0</v>
+      </c>
+      <c r="G879" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:7">
-      <c r="A880" s="26" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B880" s="26" t="s">
+      <c r="A880" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B880" s="4" t="s">
         <v>1523</v>
       </c>
-      <c r="C880" s="26" t="s">
+      <c r="C880" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D880" s="27"/>
-      <c r="E880" s="26" t="s">
+      <c r="D880" s="5"/>
+      <c r="E880" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F880" s="29">
-        <v>0</v>
-      </c>
-      <c r="G880" s="28">
+      <c r="F880" s="8">
+        <v>0</v>
+      </c>
+      <c r="G880" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:7">
-      <c r="A881" s="26" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B881" s="26" t="s">
+      <c r="A881" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B881" s="4" t="s">
         <v>1523</v>
       </c>
-      <c r="C881" s="26" t="s">
+      <c r="C881" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D881" s="27"/>
-      <c r="E881" s="26" t="s">
+      <c r="D881" s="5"/>
+      <c r="E881" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F881" s="29">
-        <v>0</v>
-      </c>
-      <c r="G881" s="28">
+      <c r="F881" s="9">
+        <v>0</v>
+      </c>
+      <c r="G881" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:7">
-      <c r="A882" s="26" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B882" s="26" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C882" s="26" t="s">
+      <c r="A882" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B882" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C882" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D882" s="27"/>
-      <c r="E882" s="26" t="s">
+      <c r="D882" s="5"/>
+      <c r="E882" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F882" s="28">
-        <v>0</v>
-      </c>
-      <c r="G882" s="28">
+      <c r="F882" s="8">
+        <v>0</v>
+      </c>
+      <c r="G882" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:7">
-      <c r="A883" s="26" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B883" s="26" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C883" s="26" t="s">
+      <c r="A883" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B883" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C883" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D883" s="27"/>
-      <c r="E883" s="26" t="s">
+      <c r="D883" s="5"/>
+      <c r="E883" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F883" s="29">
-        <v>0</v>
-      </c>
-      <c r="G883" s="28">
+      <c r="F883" s="9">
+        <v>0</v>
+      </c>
+      <c r="G883" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:7">
-      <c r="A884" s="26" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B884" s="27" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C884" s="26" t="s">
+      <c r="A884" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B884" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C884" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D884" s="27"/>
-      <c r="E884" s="26" t="s">
+      <c r="D884" s="5"/>
+      <c r="E884" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F884" s="28">
-        <v>0</v>
-      </c>
-      <c r="G884" s="28">
+      <c r="F884" s="8">
+        <v>0</v>
+      </c>
+      <c r="G884" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:7">
-      <c r="A885" s="26" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B885" s="26" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C885" s="26" t="s">
+      <c r="A885" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B885" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C885" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D885" s="27"/>
-      <c r="E885" s="26" t="s">
+      <c r="D885" s="5"/>
+      <c r="E885" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F885" s="29">
-        <v>0</v>
-      </c>
-      <c r="G885" s="28">
+      <c r="F885" s="8">
+        <v>0</v>
+      </c>
+      <c r="G885" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:7">
-      <c r="A886" s="26" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B886" s="27" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C886" s="26" t="s">
+      <c r="A886" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B886" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C886" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D886" s="27"/>
-      <c r="E886" s="26" t="s">
+      <c r="D886" s="5"/>
+      <c r="E886" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F886" s="29">
-        <v>0</v>
-      </c>
-      <c r="G886" s="28">
+      <c r="F886" s="8">
+        <v>0</v>
+      </c>
+      <c r="G886" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:7">
-      <c r="A887" s="26" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B887" s="27" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C887" s="26" t="s">
+      <c r="A887" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B887" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C887" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D887" s="27"/>
-      <c r="E887" s="26" t="s">
+      <c r="D887" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E887" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F887" s="29">
-        <v>0</v>
-      </c>
-      <c r="G887" s="28">
+      <c r="F887" s="9">
+        <v>0</v>
+      </c>
+      <c r="G887" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:7">
-      <c r="A888" s="26" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B888" s="27" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C888" s="26" t="s">
+      <c r="A888" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B888" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C888" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D888" s="26" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E888" s="26" t="s">
+      <c r="D888" s="5"/>
+      <c r="E888" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F888" s="28">
-        <v>0</v>
-      </c>
-      <c r="G888" s="28">
+      <c r="F888" s="8">
+        <v>0</v>
+      </c>
+      <c r="G888" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:7">
-      <c r="A889" s="26" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B889" s="27" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C889" s="26" t="s">
+      <c r="A889" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B889" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C889" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D889" s="27"/>
-      <c r="E889" s="26" t="s">
+      <c r="D889" s="5"/>
+      <c r="E889" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F889" s="29">
-        <v>0</v>
-      </c>
-      <c r="G889" s="28">
+      <c r="F889" s="9">
+        <v>0</v>
+      </c>
+      <c r="G889" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:7">
-      <c r="A890" s="26" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B890" s="27" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C890" s="26" t="s">
+      <c r="A890" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B890" s="5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C890" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D890" s="27"/>
-      <c r="E890" s="26" t="s">
+      <c r="D890" s="5"/>
+      <c r="E890" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F890" s="28">
-        <v>0</v>
-      </c>
-      <c r="G890" s="28">
+      <c r="F890" s="8">
+        <v>0</v>
+      </c>
+      <c r="G890" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:7">
-      <c r="A891" s="26" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B891" s="27" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C891" s="26" t="s">
+      <c r="A891" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B891" s="5" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C891" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D891" s="27"/>
-      <c r="E891" s="26" t="s">
+      <c r="D891" s="5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E891" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F891" s="29">
-        <v>0</v>
-      </c>
-      <c r="G891" s="28">
+      <c r="F891" s="8">
+        <v>0</v>
+      </c>
+      <c r="G891" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:7">
-      <c r="A892" s="26" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B892" s="27" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C892" s="26" t="s">
+      <c r="A892" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C892" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D892" s="27" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E892" s="26" t="s">
+      <c r="D892" s="5"/>
+      <c r="E892" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F892" s="29">
-        <v>0</v>
-      </c>
-      <c r="G892" s="28">
+      <c r="F892" s="8">
+        <v>0</v>
+      </c>
+      <c r="G892" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:7">
-      <c r="A893" s="26" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B893" s="26" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C893" s="26" t="s">
+      <c r="A893" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B893" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C893" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D893" s="27"/>
-      <c r="E893" s="26" t="s">
+      <c r="D893" s="5"/>
+      <c r="E893" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F893" s="29">
-        <v>0</v>
-      </c>
-      <c r="G893" s="28">
+      <c r="F893" s="8">
+        <v>0</v>
+      </c>
+      <c r="G893" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:7">
-      <c r="A894" s="26" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B894" s="26" t="s">
+      <c r="A894" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B894" s="4" t="s">
         <v>1551</v>
       </c>
-      <c r="C894" s="26" t="s">
+      <c r="C894" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D894" s="27"/>
-      <c r="E894" s="26" t="s">
+      <c r="D894" s="5"/>
+      <c r="E894" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F894" s="29">
-        <v>0</v>
-      </c>
-      <c r="G894" s="28">
+      <c r="F894" s="9">
+        <v>0</v>
+      </c>
+      <c r="G894" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:7">
-      <c r="A895" s="26" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B895" s="26" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C895" s="26" t="s">
+      <c r="A895" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B895" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C895" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D895" s="27"/>
-      <c r="E895" s="26" t="s">
+      <c r="D895" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E895" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F895" s="28">
-        <v>0</v>
-      </c>
-      <c r="G895" s="28">
+      <c r="F895" s="9">
+        <v>0</v>
+      </c>
+      <c r="G895" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:7">
-      <c r="A896" s="26" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B896" s="27" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C896" s="26" t="s">
+      <c r="A896" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B896" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C896" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D896" s="26" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E896" s="26" t="s">
+      <c r="D896" s="5"/>
+      <c r="E896" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F896" s="28">
-        <v>0</v>
-      </c>
-      <c r="G896" s="28">
+      <c r="F896" s="8">
+        <v>0</v>
+      </c>
+      <c r="G896" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:7">
-      <c r="A897" s="26" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B897" s="27" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C897" s="26" t="s">
+      <c r="A897" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B897" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C897" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D897" s="27"/>
-      <c r="E897" s="26" t="s">
+      <c r="D897" s="5"/>
+      <c r="E897" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F897" s="29">
-        <v>0</v>
-      </c>
-      <c r="G897" s="28">
+      <c r="F897" s="9">
+        <v>0</v>
+      </c>
+      <c r="G897" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:7">
-      <c r="A898" s="26" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B898" s="27" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C898" s="26" t="s">
+      <c r="A898" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B898" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C898" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D898" s="27"/>
-      <c r="E898" s="26" t="s">
+      <c r="D898" s="5"/>
+      <c r="E898" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F898" s="28">
-        <v>0</v>
-      </c>
-      <c r="G898" s="28">
+      <c r="F898" s="8">
+        <v>0</v>
+      </c>
+      <c r="G898" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:7">
-      <c r="A899" s="26" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B899" s="27" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C899" s="26" t="s">
+      <c r="A899" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B899" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C899" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D899" s="27"/>
-      <c r="E899" s="26" t="s">
+      <c r="D899" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E899" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F899" s="29">
-        <v>0</v>
-      </c>
-      <c r="G899" s="28">
+      <c r="F899" s="8">
+        <v>0</v>
+      </c>
+      <c r="G899" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:7">
-      <c r="A900" s="26" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B900" s="27" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C900" s="26" t="s">
+      <c r="A900" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B900" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C900" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D900" s="26" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E900" s="26" t="s">
+      <c r="D900" s="5"/>
+      <c r="E900" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F900" s="29">
-        <v>0</v>
-      </c>
-      <c r="G900" s="28">
+      <c r="F900" s="8">
+        <v>0</v>
+      </c>
+      <c r="G900" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:7">
-      <c r="A901" s="26" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B901" s="27" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C901" s="26" t="s">
+      <c r="A901" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B901" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C901" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D901" s="27"/>
-      <c r="E901" s="26" t="s">
+      <c r="D901" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E901" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F901" s="29">
-        <v>0</v>
-      </c>
-      <c r="G901" s="28">
+      <c r="F901" s="9">
+        <v>0</v>
+      </c>
+      <c r="G901" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:7">
-      <c r="A902" s="26" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B902" s="27" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C902" s="26" t="s">
+      <c r="A902" s="5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B902" s="10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C902" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D902" s="27" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E902" s="26" t="s">
+      <c r="D902" s="5"/>
+      <c r="E902" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F902" s="28">
-        <v>0</v>
-      </c>
-      <c r="G902" s="28">
+      <c r="F902" s="9">
+        <v>0</v>
+      </c>
+      <c r="G902" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:7">
-      <c r="A903" s="27" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B903" s="30" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C903" s="26" t="s">
+      <c r="A903" s="4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B903" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C903" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D903" s="27"/>
-      <c r="E903" s="26" t="s">
+      <c r="D903" s="5"/>
+      <c r="E903" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F903" s="28">
-        <v>0</v>
-      </c>
-      <c r="G903" s="28">
+      <c r="F903" s="9">
+        <v>0</v>
+      </c>
+      <c r="G903" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:7">
-      <c r="A904" s="26" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B904" s="27" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C904" s="26" t="s">
+      <c r="A904" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B904" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C904" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D904" s="27"/>
-      <c r="E904" s="26" t="s">
+      <c r="D904" s="5"/>
+      <c r="E904" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F904" s="28">
-        <v>0</v>
-      </c>
-      <c r="G904" s="28">
+      <c r="F904" s="8">
+        <v>0</v>
+      </c>
+      <c r="G904" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:7">
-      <c r="A905" s="26" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B905" s="27" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C905" s="26" t="s">
+      <c r="A905" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B905" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C905" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D905" s="27"/>
-      <c r="E905" s="26" t="s">
+      <c r="D905" s="5"/>
+      <c r="E905" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F905" s="29">
-        <v>0</v>
-      </c>
-      <c r="G905" s="28">
+      <c r="F905" s="9">
+        <v>0</v>
+      </c>
+      <c r="G905" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:7">
-      <c r="A906" s="26" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B906" s="27" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C906" s="26" t="s">
+      <c r="A906" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C906" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D906" s="27"/>
-      <c r="E906" s="26" t="s">
+      <c r="D906" s="5"/>
+      <c r="E906" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F906" s="28">
-        <v>0</v>
-      </c>
-      <c r="G906" s="28">
+      <c r="F906" s="9">
+        <v>0</v>
+      </c>
+      <c r="G906" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:7">
-      <c r="A907" s="26" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B907" s="26" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C907" s="26" t="s">
+      <c r="A907" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B907" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C907" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D907" s="27"/>
-      <c r="E907" s="26" t="s">
+      <c r="D907" s="5"/>
+      <c r="E907" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F907" s="28">
-        <v>0</v>
-      </c>
-      <c r="G907" s="28">
+      <c r="F907" s="8">
+        <v>0</v>
+      </c>
+      <c r="G907" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:7">
-      <c r="A908" s="26" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B908" s="27" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C908" s="26" t="s">
+      <c r="A908" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C908" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D908" s="27"/>
-      <c r="E908" s="26" t="s">
+      <c r="D908" s="5"/>
+      <c r="E908" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F908" s="29">
-        <v>0</v>
-      </c>
-      <c r="G908" s="28">
+      <c r="F908" s="9">
+        <v>0</v>
+      </c>
+      <c r="G908" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:7">
-      <c r="A909" s="26" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B909" s="26" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C909" s="26" t="s">
+      <c r="A909" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B909" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C909" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D909" s="27"/>
-      <c r="E909" s="26" t="s">
+      <c r="D909" s="5"/>
+      <c r="E909" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F909" s="28">
-        <v>0</v>
-      </c>
-      <c r="G909" s="28">
+      <c r="F909" s="9">
+        <v>0</v>
+      </c>
+      <c r="G909" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:7">
-      <c r="A910" s="26" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B910" s="27" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C910" s="26" t="s">
+      <c r="A910" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C910" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D910" s="27"/>
-      <c r="E910" s="26" t="s">
+      <c r="D910" s="5"/>
+      <c r="E910" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F910" s="28">
-        <v>0</v>
-      </c>
-      <c r="G910" s="28">
+      <c r="F910" s="9">
+        <v>0</v>
+      </c>
+      <c r="G910" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:7">
-      <c r="A911" s="26" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B911" s="26" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C911" s="26" t="s">
+      <c r="A911" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B911" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C911" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D911" s="27"/>
-      <c r="E911" s="26" t="s">
+      <c r="D911" s="5"/>
+      <c r="E911" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F911" s="28">
-        <v>0</v>
-      </c>
-      <c r="G911" s="28">
+      <c r="F911" s="9">
+        <v>0</v>
+      </c>
+      <c r="G911" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:7">
-      <c r="A912" s="26" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B912" s="27" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C912" s="26" t="s">
+      <c r="A912" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B912" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C912" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D912" s="27"/>
-      <c r="E912" s="26" t="s">
+      <c r="D912" s="5"/>
+      <c r="E912" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F912" s="28">
-        <v>0</v>
-      </c>
-      <c r="G912" s="28">
+      <c r="F912" s="8">
+        <v>0</v>
+      </c>
+      <c r="G912" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:7">
-      <c r="A913" s="26" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B913" s="27" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C913" s="26" t="s">
+      <c r="A913" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C913" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D913" s="27"/>
-      <c r="E913" s="26" t="s">
+      <c r="D913" s="4"/>
+      <c r="E913" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F913" s="29">
-        <v>0</v>
-      </c>
-      <c r="G913" s="28">
+      <c r="F913" s="8">
+        <v>0</v>
+      </c>
+      <c r="G913" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:7">
-      <c r="A914" s="26" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B914" s="26" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C914" s="26" t="s">
+      <c r="A914" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B914" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C914" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D914" s="26"/>
-      <c r="E914" s="26" t="s">
+      <c r="D914" s="5"/>
+      <c r="E914" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F914" s="29">
-        <v>0</v>
-      </c>
-      <c r="G914" s="28">
+      <c r="F914" s="8">
+        <v>0</v>
+      </c>
+      <c r="G914" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:7">
-      <c r="A915" s="26" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B915" s="26" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C915" s="26" t="s">
+      <c r="A915" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C915" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D915" s="27"/>
-      <c r="E915" s="26" t="s">
+      <c r="D915" s="5"/>
+      <c r="E915" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F915" s="29">
-        <v>0</v>
-      </c>
-      <c r="G915" s="28">
+      <c r="F915" s="9">
+        <v>0</v>
+      </c>
+      <c r="G915" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:7">
-      <c r="A916" s="26" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B916" s="26" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C916" s="26" t="s">
+      <c r="A916" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B916" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C916" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D916" s="27"/>
-      <c r="E916" s="26" t="s">
+      <c r="D916" s="5"/>
+      <c r="E916" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F916" s="28">
-        <v>0</v>
-      </c>
-      <c r="G916" s="28">
+      <c r="F916" s="9">
+        <v>0</v>
+      </c>
+      <c r="G916" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:7">
       <c r="A917" s="26" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B917" s="27" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C917" s="26" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C917" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D917" s="27"/>
-      <c r="E917" s="26" t="s">
+      <c r="D917" s="5"/>
+      <c r="E917" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F917" s="28">
-        <v>0</v>
-      </c>
-      <c r="G917" s="28">
+      <c r="F917" s="8">
+        <v>0</v>
+      </c>
+      <c r="G917" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:7">
-      <c r="A918" s="27" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B918" s="31" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C918" s="26" t="s">
+      <c r="A918" s="28" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B918" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C918" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D918" s="27"/>
-      <c r="E918" s="26" t="s">
+      <c r="D918" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E918" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F918" s="29">
-        <v>0</v>
-      </c>
-      <c r="G918" s="28">
+      <c r="F918" s="8">
+        <v>0</v>
+      </c>
+      <c r="G918" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:7">
-      <c r="A919" s="26" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B919" s="26" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C919" s="26" t="s">
+      <c r="A919" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B919" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C919" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D919" s="26" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E919" s="26" t="s">
+      <c r="D919" s="5"/>
+      <c r="E919" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F919" s="29">
-        <v>0</v>
-      </c>
-      <c r="G919" s="28">
+      <c r="F919" s="9">
+        <v>0</v>
+      </c>
+      <c r="G919" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:7">
-      <c r="A920" s="26" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B920" s="27" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C920" s="26" t="s">
+      <c r="A920" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B920" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C920" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D920" s="27"/>
-      <c r="E920" s="26" t="s">
+      <c r="D920" s="5"/>
+      <c r="E920" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F920" s="28">
-        <v>0</v>
-      </c>
-      <c r="G920" s="28">
+      <c r="F920" s="8">
+        <v>0</v>
+      </c>
+      <c r="G920" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:7">
-      <c r="A921" s="26" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B921" s="27" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C921" s="26" t="s">
+      <c r="A921" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B921" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C921" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D921" s="27"/>
-      <c r="E921" s="26" t="s">
+      <c r="D921" s="5"/>
+      <c r="E921" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F921" s="29">
-        <v>0</v>
-      </c>
-      <c r="G921" s="28">
+      <c r="F921" s="9">
+        <v>0</v>
+      </c>
+      <c r="G921" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:7">
-      <c r="A922" s="26" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B922" s="27" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C922" s="26" t="s">
+      <c r="A922" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B922" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C922" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D922" s="27"/>
-      <c r="E922" s="26" t="s">
+      <c r="D922" s="5"/>
+      <c r="E922" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F922" s="28">
-        <v>0</v>
-      </c>
-      <c r="G922" s="28">
+      <c r="F922" s="8">
+        <v>0</v>
+      </c>
+      <c r="G922" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:7">
-      <c r="A923" s="26" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B923" s="26" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C923" s="26" t="s">
+      <c r="A923" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B923" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C923" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D923" s="27"/>
-      <c r="E923" s="26" t="s">
+      <c r="D923" s="5"/>
+      <c r="E923" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F923" s="29">
-        <v>0</v>
-      </c>
-      <c r="G923" s="28">
+      <c r="F923" s="8">
+        <v>0</v>
+      </c>
+      <c r="G923" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:7">
-      <c r="A924" s="26" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B924" s="27" t="s">
+      <c r="A924" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B924" s="4" t="s">
         <v>1614</v>
       </c>
-      <c r="C924" s="26" t="s">
+      <c r="C924" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D924" s="27"/>
-      <c r="E924" s="26" t="s">
+      <c r="D924" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E924" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F924" s="29">
-        <v>0</v>
-      </c>
-      <c r="G924" s="28">
+      <c r="F924" s="9">
+        <v>0</v>
+      </c>
+      <c r="G924" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:7">
-      <c r="A925" s="26" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B925" s="26" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C925" s="26" t="s">
+      <c r="A925" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B925" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C925" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D925" s="26" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E925" s="26" t="s">
+      <c r="D925" s="5"/>
+      <c r="E925" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F925" s="28">
-        <v>0</v>
-      </c>
-      <c r="G925" s="28">
+      <c r="F925" s="9">
+        <v>0</v>
+      </c>
+      <c r="G925" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:7">
-      <c r="A926" s="26" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B926" s="27" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C926" s="26" t="s">
+      <c r="A926" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C926" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D926" s="27"/>
-      <c r="E926" s="26" t="s">
+      <c r="D926" s="5"/>
+      <c r="E926" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F926" s="28">
-        <v>0</v>
-      </c>
-      <c r="G926" s="28">
+      <c r="F926" s="9">
+        <v>0</v>
+      </c>
+      <c r="G926" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:7">
-      <c r="A927" s="26" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B927" s="26" t="s">
+      <c r="A927" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B927" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="C927" s="26" t="s">
+      <c r="C927" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D927" s="27"/>
-      <c r="E927" s="26" t="s">
+      <c r="D927" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E927" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F927" s="28">
-        <v>0</v>
-      </c>
-      <c r="G927" s="28">
+      <c r="F927" s="9">
+        <v>0</v>
+      </c>
+      <c r="G927" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:7">
-      <c r="A928" s="26" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B928" s="26" t="s">
+      <c r="A928" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B928" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="C928" s="26" t="s">
+      <c r="C928" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D928" s="26" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E928" s="26" t="s">
+      <c r="D928" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E928" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F928" s="28">
-        <v>0</v>
-      </c>
-      <c r="G928" s="28">
+      <c r="F928" s="8">
+        <v>0</v>
+      </c>
+      <c r="G928" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:7">
-      <c r="A929" s="26" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B929" s="26" t="s">
+      <c r="A929" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B929" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="C929" s="26" t="s">
+      <c r="C929" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D929" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E929" s="26" t="s">
+      <c r="D929" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E929" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F929" s="29">
-        <v>0</v>
-      </c>
-      <c r="G929" s="28">
+      <c r="F929" s="8">
+        <v>0</v>
+      </c>
+      <c r="G929" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:7">
-      <c r="A930" s="26" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B930" s="26" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C930" s="26" t="s">
+      <c r="A930" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B930" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C930" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D930" s="26" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E930" s="26" t="s">
+      <c r="D930" s="5"/>
+      <c r="E930" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="F930" s="29">
-        <v>0</v>
-      </c>
-      <c r="G930" s="28">
+      <c r="F930" s="8">
+        <v>0</v>
+      </c>
+      <c r="G930" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:7">
-      <c r="A931" s="27" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B931" s="26" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C931" s="26" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D931" s="27"/>
-      <c r="E931" s="26" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F931" s="29">
-        <v>0</v>
-      </c>
-      <c r="G931" s="28">
+      <c r="A931" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B931" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C931" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D931" s="5"/>
+      <c r="E931" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F931" s="8">
+        <v>0</v>
+      </c>
+      <c r="G931" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:7">
       <c r="A932" s="4" t="s">
-        <v>410</v>
+        <v>1629</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>411</v>
+        <v>1630</v>
       </c>
       <c r="C932" s="4" t="s">
         <v>1628</v>
@@ -26685,7 +26686,7 @@
       <c r="E932" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F932" s="8">
+      <c r="F932" s="9">
         <v>0</v>
       </c>
       <c r="G932" s="9">
@@ -26694,19 +26695,21 @@
     </row>
     <row r="933" spans="1:7">
       <c r="A933" s="4" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="C933" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="D933" s="5"/>
+      <c r="D933" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E933" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F933" s="9">
+      <c r="F933" s="8">
         <v>0</v>
       </c>
       <c r="G933" s="9">
@@ -26715,10 +26718,10 @@
     </row>
     <row r="934" spans="1:7">
       <c r="A934" s="4" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>1632</v>
+        <v>366</v>
       </c>
       <c r="C934" s="4" t="s">
         <v>1628</v>
@@ -26738,10 +26741,10 @@
     </row>
     <row r="935" spans="1:7">
       <c r="A935" s="4" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>366</v>
+        <v>15</v>
       </c>
       <c r="C935" s="4" t="s">
         <v>1628</v>
@@ -26752,7 +26755,7 @@
       <c r="E935" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F935" s="8">
+      <c r="F935" s="9">
         <v>0</v>
       </c>
       <c r="G935" s="9">
@@ -26761,10 +26764,10 @@
     </row>
     <row r="936" spans="1:7">
       <c r="A936" s="4" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>15</v>
+        <v>1636</v>
       </c>
       <c r="C936" s="4" t="s">
         <v>1628</v>
@@ -26775,7 +26778,7 @@
       <c r="E936" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F936" s="9">
+      <c r="F936" s="8">
         <v>0</v>
       </c>
       <c r="G936" s="9">
@@ -26784,10 +26787,10 @@
     </row>
     <row r="937" spans="1:7">
       <c r="A937" s="4" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="B937" s="4" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="C937" s="4" t="s">
         <v>1628</v>
@@ -26807,21 +26810,19 @@
     </row>
     <row r="938" spans="1:7">
       <c r="A938" s="4" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="C938" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="D938" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D938" s="5"/>
       <c r="E938" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F938" s="8">
+      <c r="F938" s="9">
         <v>0</v>
       </c>
       <c r="G938" s="9">
@@ -26830,19 +26831,19 @@
     </row>
     <row r="939" spans="1:7">
       <c r="A939" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B939" s="4" t="s">
-        <v>1640</v>
+        <v>1641</v>
+      </c>
+      <c r="B939" s="5" t="s">
+        <v>1642</v>
       </c>
       <c r="C939" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="D939" s="5"/>
+      <c r="D939" s="4"/>
       <c r="E939" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F939" s="9">
+      <c r="F939" s="8">
         <v>0</v>
       </c>
       <c r="G939" s="9">
@@ -26851,19 +26852,19 @@
     </row>
     <row r="940" spans="1:7">
       <c r="A940" s="4" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B940" s="5" t="s">
-        <v>1642</v>
+        <v>1643</v>
+      </c>
+      <c r="B940" s="4" t="s">
+        <v>1644</v>
       </c>
       <c r="C940" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="D940" s="4"/>
+      <c r="D940" s="5"/>
       <c r="E940" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F940" s="8">
+      <c r="F940" s="9">
         <v>0</v>
       </c>
       <c r="G940" s="9">
@@ -26872,10 +26873,10 @@
     </row>
     <row r="941" spans="1:7">
       <c r="A941" s="4" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1628</v>
@@ -26893,10 +26894,10 @@
     </row>
     <row r="942" spans="1:7">
       <c r="A942" s="4" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C942" s="4" t="s">
         <v>1628</v>
@@ -26905,7 +26906,7 @@
       <c r="E942" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F942" s="9">
+      <c r="F942" s="8">
         <v>0</v>
       </c>
       <c r="G942" s="9">
@@ -26914,7 +26915,7 @@
     </row>
     <row r="943" spans="1:7">
       <c r="A943" s="4" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="B943" s="4" t="s">
         <v>1648</v>
@@ -26926,31 +26927,10 @@
       <c r="E943" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F943" s="8">
+      <c r="F943" s="9">
         <v>0</v>
       </c>
       <c r="G943" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="944" spans="1:7">
-      <c r="A944" s="4" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B944" s="4" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C944" s="4" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D944" s="5"/>
-      <c r="E944" s="4" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F944" s="9">
-        <v>0</v>
-      </c>
-      <c r="G944" s="9">
         <v>0</v>
       </c>
     </row>
@@ -26965,10 +26945,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D837" r:id="rId1" display="《国王排名》ED" tooltip="https://baike.baidu.com/item/%E5%9B%BD%E7%8E%8B%E6%8E%92%E5%90%8D/24190907"/>
+    <hyperlink ref="D836" r:id="rId1" display="《国王排名》ED" tooltip="https://baike.baidu.com/item/%E5%9B%BD%E7%8E%8B%E6%8E%92%E5%90%8D/24190907"/>
     <hyperlink ref="D194" r:id="rId2" display="《英雄联盟：双城之战》的中文主题曲" tooltip="https://baike.baidu.com/item/%E8%8B%B1%E9%9B%84%E8%81%94%E7%9B%9F%EF%BC%9A%E5%8F%8C%E5%9F%8E%E4%B9%8B%E6%88%98/58613563"/>
-    <hyperlink ref="D820" r:id="rId3" display="《闪烁的青春》OP主题曲" tooltip="https://baike.baidu.com/item/%E9%97%AA%E7%83%81%E7%9A%84%E9%9D%92%E6%98%A5/13320086"/>
-    <hyperlink ref="D869" r:id="rId4" display="《明日方舟》EP" tooltip="https://baike.baidu.com/item/%E9%AC%BC%E7%81%AD%E4%B9%8B%E5%88%83%EF%BC%9A%E6%97%A0%E9%99%90%E5%88%97%E8%BD%A6%E7%AF%87/23783245"/>
+    <hyperlink ref="D819" r:id="rId3" display="《闪烁的青春》OP主题曲" tooltip="https://baike.baidu.com/item/%E9%97%AA%E7%83%81%E7%9A%84%E9%9D%92%E6%98%A5/13320086"/>
+    <hyperlink ref="D868" r:id="rId4" display="《明日方舟》EP" tooltip="https://baike.baidu.com/item/%E9%AC%BC%E7%81%AD%E4%B9%8B%E5%88%83%EF%BC%9A%E6%97%A0%E9%99%90%E5%88%97%E8%BD%A6%E7%AF%87/23783245"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/music_list_7.xlsx
+++ b/music_list_7.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4546" uniqueCount="1782">
   <si>
     <t>歌名</t>
   </si>
@@ -4963,6 +4963,15 @@
     <t>fripSide</t>
   </si>
   <si>
+    <t>カメレオン</t>
+  </si>
+  <si>
+    <t>King Gnu</t>
+  </si>
+  <si>
+    <t>酸笋姐姐点歌专用 - 七宝还不会</t>
+  </si>
+  <si>
     <t>Youngblood</t>
   </si>
   <si>
@@ -5419,44 +5428,44 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="39">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="177" formatCode="#\ ??/??"/>
     <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="184" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="185" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="186" formatCode="mmmmm"/>
+    <numFmt numFmtId="187" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="188" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="190" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="191" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="193" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
+    <numFmt numFmtId="194" formatCode="#\ ??"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="195" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="198" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="200" formatCode="m/d"/>
+    <numFmt numFmtId="201" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="202" formatCode="yy/m/d"/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="184" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="185" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="186" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="187" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="188" formatCode="mmmmm"/>
-    <numFmt numFmtId="189" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="190" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="192" formatCode="#\ ??"/>
-    <numFmt numFmtId="193" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="194" formatCode="m/d"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="196" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
-    <numFmt numFmtId="197" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="198" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="199" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="200" formatCode="yy/m/d"/>
-    <numFmt numFmtId="201" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="202" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -5613,7 +5622,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5628,45 +5715,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5674,30 +5731,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5710,38 +5751,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -5784,13 +5793,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5802,37 +5901,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5844,97 +5943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5952,19 +5967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5981,41 +5990,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6046,6 +6022,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6057,6 +6042,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6075,164 +6075,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="202" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -6250,10 +6259,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -6292,34 +6301,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -6328,14 +6313,26 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6665,12 +6662,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1010"/>
+  <dimension ref="A1:G1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A999" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A969" sqref="A969"/>
+      <selection pane="bottomLeft" activeCell="A1011" sqref="A1011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -24077,4831 +24074,4854 @@
       </c>
     </row>
     <row r="790" spans="1:7">
-      <c r="A790" s="22" t="s">
+      <c r="A790" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="B790" s="23" t="s">
+      <c r="B790" s="5" t="s">
         <v>1324</v>
       </c>
-      <c r="C790" s="22" t="s">
+      <c r="C790" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D790" s="5"/>
-      <c r="E790" s="22" t="s">
+      <c r="E790" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="F790" s="25">
-        <v>0</v>
-      </c>
-      <c r="G790" s="25">
+      <c r="F790" s="9">
+        <v>0</v>
+      </c>
+      <c r="G790" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:7">
-      <c r="A791" s="22" t="s">
+      <c r="A791" s="4" t="s">
         <v>1325</v>
       </c>
-      <c r="B791" s="22" t="s">
+      <c r="B791" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C791" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D791" s="23"/>
-      <c r="E791" s="22" t="s">
+      <c r="C791" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D791" s="5"/>
+      <c r="E791" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F791" s="25">
-        <v>0</v>
-      </c>
-      <c r="G791" s="25">
+      <c r="F791" s="9">
+        <v>0</v>
+      </c>
+      <c r="G791" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:7">
-      <c r="A792" s="22" t="s">
+      <c r="A792" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="B792" s="23" t="s">
+      <c r="B792" s="5" t="s">
         <v>1324</v>
       </c>
-      <c r="C792" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D792" s="23"/>
-      <c r="E792" s="22" t="s">
+      <c r="C792" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D792" s="5"/>
+      <c r="E792" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F792" s="25">
-        <v>0</v>
-      </c>
-      <c r="G792" s="25">
+      <c r="F792" s="9">
+        <v>0</v>
+      </c>
+      <c r="G792" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:7">
-      <c r="A793" s="22" t="s">
+      <c r="A793" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="B793" s="23" t="s">
+      <c r="B793" s="5" t="s">
         <v>1329</v>
       </c>
-      <c r="C793" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D793" s="23"/>
-      <c r="E793" s="22" t="s">
+      <c r="C793" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D793" s="5"/>
+      <c r="E793" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F793" s="25">
-        <v>0</v>
-      </c>
-      <c r="G793" s="25">
+      <c r="F793" s="9">
+        <v>0</v>
+      </c>
+      <c r="G793" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:7">
-      <c r="A794" s="22" t="s">
+      <c r="A794" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="B794" s="23" t="s">
+      <c r="B794" s="5" t="s">
         <v>1331</v>
       </c>
-      <c r="C794" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D794" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E794" s="22" t="s">
+      <c r="C794" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E794" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F794" s="26">
-        <v>0</v>
-      </c>
-      <c r="G794" s="25">
+      <c r="F794" s="8">
+        <v>0</v>
+      </c>
+      <c r="G794" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:7">
-      <c r="A795" s="22" t="s">
+      <c r="A795" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="B795" s="23" t="s">
+      <c r="B795" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="C795" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D795" s="23"/>
-      <c r="E795" s="22" t="s">
+      <c r="C795" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D795" s="5"/>
+      <c r="E795" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F795" s="26">
-        <v>0</v>
-      </c>
-      <c r="G795" s="25">
+      <c r="F795" s="8">
+        <v>0</v>
+      </c>
+      <c r="G795" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:7">
-      <c r="A796" s="22" t="s">
+      <c r="A796" s="4" t="s">
         <v>1334</v>
       </c>
-      <c r="B796" s="23" t="s">
+      <c r="B796" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="C796" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D796" s="23"/>
-      <c r="E796" s="22" t="s">
+      <c r="C796" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D796" s="5"/>
+      <c r="E796" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F796" s="26">
-        <v>0</v>
-      </c>
-      <c r="G796" s="25">
+      <c r="F796" s="8">
+        <v>0</v>
+      </c>
+      <c r="G796" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:7">
-      <c r="A797" s="22" t="s">
+      <c r="A797" s="4" t="s">
         <v>1336</v>
       </c>
-      <c r="B797" s="22" t="s">
+      <c r="B797" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C797" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D797" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E797" s="22" t="s">
+      <c r="C797" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D797" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E797" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F797" s="26">
-        <v>0</v>
-      </c>
-      <c r="G797" s="25">
+      <c r="F797" s="8">
+        <v>0</v>
+      </c>
+      <c r="G797" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:7">
-      <c r="A798" s="23" t="s">
+      <c r="A798" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="B798" s="22" t="s">
+      <c r="B798" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="C798" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D798" s="23"/>
-      <c r="E798" s="22" t="s">
+      <c r="C798" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D798" s="5"/>
+      <c r="E798" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F798" s="25">
-        <v>0</v>
-      </c>
-      <c r="G798" s="25">
+      <c r="F798" s="9">
+        <v>0</v>
+      </c>
+      <c r="G798" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:7">
-      <c r="A799" s="22" t="s">
+      <c r="A799" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="B799" s="22" t="s">
+      <c r="B799" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="C799" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D799" s="23"/>
-      <c r="E799" s="22" t="s">
+      <c r="C799" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D799" s="5"/>
+      <c r="E799" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F799" s="25">
-        <v>0</v>
-      </c>
-      <c r="G799" s="25">
+      <c r="F799" s="9">
+        <v>0</v>
+      </c>
+      <c r="G799" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:7">
-      <c r="A800" s="22" t="s">
+      <c r="A800" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="B800" s="23" t="s">
+      <c r="B800" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="C800" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D800" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E800" s="22" t="s">
+      <c r="C800" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D800" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E800" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F800" s="26">
-        <v>0</v>
-      </c>
-      <c r="G800" s="25">
+      <c r="F800" s="8">
+        <v>0</v>
+      </c>
+      <c r="G800" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:7">
-      <c r="A801" s="22" t="s">
+      <c r="A801" s="4" t="s">
         <v>1342</v>
       </c>
-      <c r="B801" s="23" t="s">
+      <c r="B801" s="5" t="s">
         <v>1343</v>
       </c>
-      <c r="C801" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D801" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E801" s="22" t="s">
+      <c r="C801" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D801" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E801" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F801" s="26">
-        <v>0</v>
-      </c>
-      <c r="G801" s="25">
+      <c r="F801" s="8">
+        <v>0</v>
+      </c>
+      <c r="G801" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:7">
-      <c r="A802" s="22" t="s">
+      <c r="A802" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="B802" s="22" t="s">
+      <c r="B802" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="C802" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D802" s="23"/>
-      <c r="E802" s="22" t="s">
+      <c r="C802" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D802" s="5"/>
+      <c r="E802" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F802" s="25">
-        <v>0</v>
-      </c>
-      <c r="G802" s="25">
+      <c r="F802" s="9">
+        <v>0</v>
+      </c>
+      <c r="G802" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:7">
-      <c r="A803" s="22" t="s">
+      <c r="A803" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="B803" s="23" t="s">
+      <c r="B803" s="5" t="s">
         <v>1347</v>
       </c>
-      <c r="C803" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D803" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E803" s="22" t="s">
+      <c r="C803" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D803" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E803" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F803" s="26">
-        <v>0</v>
-      </c>
-      <c r="G803" s="25">
+      <c r="F803" s="8">
+        <v>0</v>
+      </c>
+      <c r="G803" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:7">
-      <c r="A804" s="22" t="s">
+      <c r="A804" s="4" t="s">
         <v>1348</v>
       </c>
-      <c r="B804" s="22" t="s">
+      <c r="B804" s="4" t="s">
         <v>1349</v>
       </c>
-      <c r="C804" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D804" s="23"/>
-      <c r="E804" s="22" t="s">
+      <c r="C804" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D804" s="5"/>
+      <c r="E804" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F804" s="25">
-        <v>0</v>
-      </c>
-      <c r="G804" s="25">
+      <c r="F804" s="9">
+        <v>0</v>
+      </c>
+      <c r="G804" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:7">
-      <c r="A805" s="22" t="s">
+      <c r="A805" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="B805" s="23" t="s">
+      <c r="B805" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="C805" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D805" s="23"/>
-      <c r="E805" s="22" t="s">
+      <c r="C805" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D805" s="5"/>
+      <c r="E805" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F805" s="26">
-        <v>0</v>
-      </c>
-      <c r="G805" s="25">
+      <c r="F805" s="8">
+        <v>0</v>
+      </c>
+      <c r="G805" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:7">
-      <c r="A806" s="22" t="s">
+      <c r="A806" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="B806" s="23" t="s">
+      <c r="B806" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="C806" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D806" s="23"/>
-      <c r="E806" s="22" t="s">
+      <c r="C806" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D806" s="5"/>
+      <c r="E806" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F806" s="25">
-        <v>0</v>
-      </c>
-      <c r="G806" s="25">
+      <c r="F806" s="9">
+        <v>0</v>
+      </c>
+      <c r="G806" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:7">
-      <c r="A807" s="22" t="s">
+      <c r="A807" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="B807" s="23" t="s">
+      <c r="B807" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="C807" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D807" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E807" s="22" t="s">
+      <c r="C807" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D807" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E807" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F807" s="25">
-        <v>0</v>
-      </c>
-      <c r="G807" s="25">
+      <c r="F807" s="9">
+        <v>0</v>
+      </c>
+      <c r="G807" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:7">
-      <c r="A808" s="22" t="s">
+      <c r="A808" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="B808" s="23" t="s">
+      <c r="B808" s="5" t="s">
         <v>1355</v>
       </c>
-      <c r="C808" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D808" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E808" s="22" t="s">
+      <c r="C808" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D808" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E808" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F808" s="26">
-        <v>0</v>
-      </c>
-      <c r="G808" s="25">
+      <c r="F808" s="8">
+        <v>0</v>
+      </c>
+      <c r="G808" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:7">
-      <c r="A809" s="22" t="s">
+      <c r="A809" s="4" t="s">
         <v>1356</v>
       </c>
-      <c r="B809" s="23" t="s">
+      <c r="B809" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C809" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D809" s="23"/>
-      <c r="E809" s="22" t="s">
+      <c r="C809" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D809" s="5"/>
+      <c r="E809" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F809" s="26">
-        <v>0</v>
-      </c>
-      <c r="G809" s="25">
+      <c r="F809" s="8">
+        <v>0</v>
+      </c>
+      <c r="G809" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:7">
-      <c r="A810" s="22" t="s">
+      <c r="A810" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="B810" s="23" t="s">
+      <c r="B810" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="C810" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D810" s="23"/>
-      <c r="E810" s="22" t="s">
+      <c r="C810" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D810" s="5"/>
+      <c r="E810" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F810" s="25">
-        <v>0</v>
-      </c>
-      <c r="G810" s="25">
+      <c r="F810" s="9">
+        <v>0</v>
+      </c>
+      <c r="G810" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:7">
-      <c r="A811" s="22" t="s">
+      <c r="A811" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="B811" s="22" t="s">
+      <c r="B811" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C811" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D811" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E811" s="22" t="s">
+      <c r="C811" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D811" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E811" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F811" s="25">
-        <v>0</v>
-      </c>
-      <c r="G811" s="25">
+      <c r="F811" s="9">
+        <v>0</v>
+      </c>
+      <c r="G811" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:7">
-      <c r="A812" s="22" t="s">
+      <c r="A812" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="B812" s="22" t="s">
+      <c r="B812" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C812" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D812" s="23"/>
-      <c r="E812" s="22" t="s">
+      <c r="C812" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D812" s="5"/>
+      <c r="E812" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F812" s="26">
-        <v>0</v>
-      </c>
-      <c r="G812" s="25">
+      <c r="F812" s="8">
+        <v>0</v>
+      </c>
+      <c r="G812" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:7">
-      <c r="A813" s="22" t="s">
+      <c r="A813" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="B813" s="23" t="s">
+      <c r="B813" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="C813" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D813" s="23"/>
-      <c r="E813" s="22" t="s">
+      <c r="C813" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D813" s="5"/>
+      <c r="E813" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F813" s="25">
-        <v>0</v>
-      </c>
-      <c r="G813" s="25">
+      <c r="F813" s="9">
+        <v>0</v>
+      </c>
+      <c r="G813" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:7">
-      <c r="A814" s="22" t="s">
+      <c r="A814" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="B814" s="22" t="s">
+      <c r="B814" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C814" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D814" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E814" s="22" t="s">
+      <c r="C814" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D814" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E814" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F814" s="25">
-        <v>0</v>
-      </c>
-      <c r="G814" s="25">
+      <c r="F814" s="9">
+        <v>0</v>
+      </c>
+      <c r="G814" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:7">
-      <c r="A815" s="22" t="s">
+      <c r="A815" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="B815" s="22" t="s">
+      <c r="B815" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C815" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D815" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E815" s="22" t="s">
+      <c r="C815" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D815" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E815" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F815" s="26">
-        <v>0</v>
-      </c>
-      <c r="G815" s="25">
+      <c r="F815" s="8">
+        <v>0</v>
+      </c>
+      <c r="G815" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:7">
-      <c r="A816" s="22" t="s">
+      <c r="A816" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="B816" s="22" t="s">
+      <c r="B816" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C816" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D816" s="22"/>
-      <c r="E816" s="22" t="s">
+      <c r="C816" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D816" s="4"/>
+      <c r="E816" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F816" s="26">
-        <v>0</v>
-      </c>
-      <c r="G816" s="25">
+      <c r="F816" s="8">
+        <v>0</v>
+      </c>
+      <c r="G816" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:7">
-      <c r="A817" s="22" t="s">
+      <c r="A817" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="B817" s="23" t="s">
+      <c r="B817" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C817" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D817" s="23"/>
-      <c r="E817" s="22" t="s">
+      <c r="C817" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D817" s="5"/>
+      <c r="E817" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F817" s="26">
-        <v>0</v>
-      </c>
-      <c r="G817" s="25">
+      <c r="F817" s="8">
+        <v>0</v>
+      </c>
+      <c r="G817" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:7">
-      <c r="A818" s="22" t="s">
+      <c r="A818" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="B818" s="23" t="s">
+      <c r="B818" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C818" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D818" s="23"/>
-      <c r="E818" s="22" t="s">
+      <c r="C818" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D818" s="5"/>
+      <c r="E818" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F818" s="26">
-        <v>0</v>
-      </c>
-      <c r="G818" s="25">
+      <c r="F818" s="8">
+        <v>0</v>
+      </c>
+      <c r="G818" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:7">
-      <c r="A819" s="22" t="s">
+      <c r="A819" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="B819" s="23" t="s">
+      <c r="B819" s="5" t="s">
         <v>1369</v>
       </c>
-      <c r="C819" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D819" s="23"/>
-      <c r="E819" s="22" t="s">
+      <c r="C819" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D819" s="5"/>
+      <c r="E819" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F819" s="25">
-        <v>0</v>
-      </c>
-      <c r="G819" s="25">
+      <c r="F819" s="9">
+        <v>0</v>
+      </c>
+      <c r="G819" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:7">
-      <c r="A820" s="22" t="s">
+      <c r="A820" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="B820" s="23" t="s">
+      <c r="B820" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="C820" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D820" s="23"/>
-      <c r="E820" s="22" t="s">
+      <c r="C820" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D820" s="5"/>
+      <c r="E820" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F820" s="26">
-        <v>0</v>
-      </c>
-      <c r="G820" s="25">
+      <c r="F820" s="8">
+        <v>0</v>
+      </c>
+      <c r="G820" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:7">
-      <c r="A821" s="22" t="s">
+      <c r="A821" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="B821" s="22" t="s">
+      <c r="B821" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="C821" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D821" s="23"/>
-      <c r="E821" s="22" t="s">
+      <c r="C821" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D821" s="5"/>
+      <c r="E821" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F821" s="26">
-        <v>0</v>
-      </c>
-      <c r="G821" s="25">
+      <c r="F821" s="8">
+        <v>0</v>
+      </c>
+      <c r="G821" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:7">
-      <c r="A822" s="22" t="s">
+      <c r="A822" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="B822" s="23" t="s">
+      <c r="B822" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="C822" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D822" s="22" t="s">
+      <c r="C822" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D822" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E822" s="22" t="s">
+      <c r="E822" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F822" s="26">
-        <v>0</v>
-      </c>
-      <c r="G822" s="25">
+      <c r="F822" s="8">
+        <v>0</v>
+      </c>
+      <c r="G822" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:7">
-      <c r="A823" s="22" t="s">
+      <c r="A823" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="B823" s="23" t="s">
+      <c r="B823" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="C823" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D823" s="23"/>
-      <c r="E823" s="22" t="s">
+      <c r="C823" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D823" s="5"/>
+      <c r="E823" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F823" s="25">
-        <v>0</v>
-      </c>
-      <c r="G823" s="25">
+      <c r="F823" s="9">
+        <v>0</v>
+      </c>
+      <c r="G823" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:7">
-      <c r="A824" s="22" t="s">
+      <c r="A824" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="B824" s="24" t="s">
+      <c r="B824" s="17" t="s">
         <v>1378</v>
       </c>
-      <c r="C824" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D824" s="23"/>
-      <c r="E824" s="22" t="s">
+      <c r="C824" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D824" s="5"/>
+      <c r="E824" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F824" s="25">
-        <v>0</v>
-      </c>
-      <c r="G824" s="25">
+      <c r="F824" s="9">
+        <v>0</v>
+      </c>
+      <c r="G824" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:7">
-      <c r="A825" s="22" t="s">
+      <c r="A825" s="4" t="s">
         <v>1379</v>
       </c>
-      <c r="B825" s="23" t="s">
+      <c r="B825" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="C825" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D825" s="23"/>
-      <c r="E825" s="22" t="s">
+      <c r="C825" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D825" s="5"/>
+      <c r="E825" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F825" s="26">
-        <v>0</v>
-      </c>
-      <c r="G825" s="25">
+      <c r="F825" s="8">
+        <v>0</v>
+      </c>
+      <c r="G825" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:7">
-      <c r="A826" s="22" t="s">
+      <c r="A826" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="B826" s="23" t="s">
+      <c r="B826" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="C826" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D826" s="23"/>
-      <c r="E826" s="22" t="s">
+      <c r="C826" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D826" s="5"/>
+      <c r="E826" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F826" s="25">
-        <v>0</v>
-      </c>
-      <c r="G826" s="25">
+      <c r="F826" s="9">
+        <v>0</v>
+      </c>
+      <c r="G826" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:7">
-      <c r="A827" s="22" t="s">
+      <c r="A827" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="B827" s="22" t="s">
+      <c r="B827" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="C827" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D827" s="23"/>
-      <c r="E827" s="22" t="s">
+      <c r="C827" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D827" s="5"/>
+      <c r="E827" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F827" s="25">
-        <v>0</v>
-      </c>
-      <c r="G827" s="25">
+      <c r="F827" s="9">
+        <v>0</v>
+      </c>
+      <c r="G827" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:7">
-      <c r="A828" s="22" t="s">
+      <c r="A828" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="B828" s="22" t="s">
+      <c r="B828" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C828" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D828" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E828" s="22" t="s">
+      <c r="C828" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D828" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E828" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F828" s="26">
-        <v>0</v>
-      </c>
-      <c r="G828" s="25">
+      <c r="F828" s="8">
+        <v>0</v>
+      </c>
+      <c r="G828" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:7">
-      <c r="A829" s="22" t="s">
+      <c r="A829" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="B829" s="22" t="s">
+      <c r="B829" s="4" t="s">
         <v>1386</v>
       </c>
-      <c r="C829" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D829" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E829" s="22" t="s">
+      <c r="C829" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D829" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E829" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F829" s="26">
-        <v>0</v>
-      </c>
-      <c r="G829" s="25">
+      <c r="F829" s="8">
+        <v>0</v>
+      </c>
+      <c r="G829" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:7">
-      <c r="A830" s="22" t="s">
+      <c r="A830" s="4" t="s">
         <v>1387</v>
       </c>
-      <c r="B830" s="23" t="s">
+      <c r="B830" s="5" t="s">
         <v>1314</v>
       </c>
-      <c r="C830" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D830" s="23"/>
-      <c r="E830" s="22" t="s">
+      <c r="C830" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D830" s="5"/>
+      <c r="E830" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F830" s="25">
-        <v>0</v>
-      </c>
-      <c r="G830" s="25">
+      <c r="F830" s="9">
+        <v>0</v>
+      </c>
+      <c r="G830" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:7">
-      <c r="A831" s="22" t="s">
+      <c r="A831" s="4" t="s">
         <v>1388</v>
       </c>
-      <c r="B831" s="23" t="s">
+      <c r="B831" s="5" t="s">
         <v>1389</v>
       </c>
-      <c r="C831" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D831" s="23"/>
-      <c r="E831" s="22" t="s">
+      <c r="C831" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D831" s="5"/>
+      <c r="E831" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F831" s="25">
-        <v>0</v>
-      </c>
-      <c r="G831" s="25">
+      <c r="F831" s="9">
+        <v>0</v>
+      </c>
+      <c r="G831" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:7">
-      <c r="A832" s="22" t="s">
+      <c r="A832" s="4" t="s">
         <v>1390</v>
       </c>
-      <c r="B832" s="23" t="s">
+      <c r="B832" s="5" t="s">
         <v>1391</v>
       </c>
-      <c r="C832" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D832" s="23"/>
-      <c r="E832" s="22" t="s">
+      <c r="C832" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D832" s="5"/>
+      <c r="E832" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F832" s="26">
-        <v>0</v>
-      </c>
-      <c r="G832" s="25">
+      <c r="F832" s="8">
+        <v>0</v>
+      </c>
+      <c r="G832" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:7">
-      <c r="A833" s="22" t="s">
+      <c r="A833" s="4" t="s">
         <v>1392</v>
       </c>
-      <c r="B833" s="22" t="s">
+      <c r="B833" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="C833" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D833" s="22"/>
-      <c r="E833" s="22" t="s">
+      <c r="C833" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D833" s="4"/>
+      <c r="E833" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F833" s="25">
-        <v>0</v>
-      </c>
-      <c r="G833" s="25">
+      <c r="F833" s="9">
+        <v>0</v>
+      </c>
+      <c r="G833" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:7">
-      <c r="A834" s="22" t="s">
+      <c r="A834" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="B834" s="23" t="s">
+      <c r="B834" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="C834" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D834" s="23"/>
-      <c r="E834" s="22" t="s">
+      <c r="C834" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D834" s="5"/>
+      <c r="E834" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F834" s="25">
-        <v>0</v>
-      </c>
-      <c r="G834" s="25">
+      <c r="F834" s="9">
+        <v>0</v>
+      </c>
+      <c r="G834" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:7">
-      <c r="A835" s="22" t="s">
+      <c r="A835" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="B835" s="22" t="s">
+      <c r="B835" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="C835" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D835" s="23"/>
-      <c r="E835" s="22" t="s">
+      <c r="C835" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D835" s="5"/>
+      <c r="E835" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F835" s="25">
-        <v>0</v>
-      </c>
-      <c r="G835" s="25">
+      <c r="F835" s="9">
+        <v>0</v>
+      </c>
+      <c r="G835" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:7">
-      <c r="A836" s="22" t="s">
+      <c r="A836" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="B836" s="22" t="s">
+      <c r="B836" s="4" t="s">
         <v>1399</v>
       </c>
-      <c r="C836" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D836" s="23"/>
-      <c r="E836" s="22" t="s">
+      <c r="C836" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D836" s="5"/>
+      <c r="E836" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="F836" s="25">
-        <v>0</v>
-      </c>
-      <c r="G836" s="25">
+      <c r="F836" s="9">
+        <v>0</v>
+      </c>
+      <c r="G836" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:7">
-      <c r="A837" s="22" t="s">
+      <c r="A837" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="B837" s="23" t="s">
+      <c r="B837" s="5" t="s">
         <v>1401</v>
       </c>
-      <c r="C837" s="22" t="s">
+      <c r="C837" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D837" s="22" t="s">
+      <c r="D837" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="E837" s="22" t="s">
+      <c r="E837" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F837" s="26">
-        <v>0</v>
-      </c>
-      <c r="G837" s="25">
+      <c r="F837" s="8">
+        <v>0</v>
+      </c>
+      <c r="G837" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:7">
-      <c r="A838" s="22" t="s">
+      <c r="A838" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="B838" s="22" t="s">
+      <c r="B838" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="C838" s="22" t="s">
+      <c r="C838" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D838" s="23"/>
-      <c r="E838" s="22" t="s">
+      <c r="D838" s="5"/>
+      <c r="E838" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F838" s="26">
-        <v>0</v>
-      </c>
-      <c r="G838" s="25">
+      <c r="F838" s="8">
+        <v>0</v>
+      </c>
+      <c r="G838" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:7">
-      <c r="A839" s="22" t="s">
+      <c r="A839" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="B839" s="22" t="s">
+      <c r="B839" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="C839" s="22" t="s">
+      <c r="C839" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D839" s="23"/>
-      <c r="E839" s="22" t="s">
+      <c r="D839" s="5"/>
+      <c r="E839" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F839" s="26">
-        <v>0</v>
-      </c>
-      <c r="G839" s="25">
+      <c r="F839" s="8">
+        <v>0</v>
+      </c>
+      <c r="G839" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:7">
-      <c r="A840" s="22" t="s">
+      <c r="A840" s="4" t="s">
         <v>1407</v>
       </c>
-      <c r="B840" s="22" t="s">
+      <c r="B840" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="C840" s="22" t="s">
+      <c r="C840" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D840" s="23"/>
-      <c r="E840" s="22" t="s">
+      <c r="D840" s="5"/>
+      <c r="E840" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F840" s="25">
-        <v>0</v>
-      </c>
-      <c r="G840" s="25">
+      <c r="F840" s="9">
+        <v>0</v>
+      </c>
+      <c r="G840" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:7">
-      <c r="A841" s="22" t="s">
+      <c r="A841" s="4" t="s">
         <v>1409</v>
       </c>
-      <c r="B841" s="22" t="s">
+      <c r="B841" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="C841" s="22" t="s">
+      <c r="C841" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D841" s="23"/>
-      <c r="E841" s="22" t="s">
+      <c r="D841" s="5"/>
+      <c r="E841" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F841" s="25">
-        <v>0</v>
-      </c>
-      <c r="G841" s="25">
+      <c r="F841" s="9">
+        <v>0</v>
+      </c>
+      <c r="G841" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:7">
-      <c r="A842" s="22" t="s">
+      <c r="A842" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="B842" s="22" t="s">
+      <c r="B842" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="C842" s="22" t="s">
+      <c r="C842" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D842" s="23"/>
-      <c r="E842" s="22" t="s">
+      <c r="D842" s="5"/>
+      <c r="E842" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F842" s="25">
-        <v>0</v>
-      </c>
-      <c r="G842" s="25">
+      <c r="F842" s="9">
+        <v>0</v>
+      </c>
+      <c r="G842" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:7">
-      <c r="A843" s="22" t="s">
+      <c r="A843" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="B843" s="23" t="s">
+      <c r="B843" s="5" t="s">
         <v>1414</v>
       </c>
-      <c r="C843" s="22" t="s">
+      <c r="C843" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D843" s="23"/>
-      <c r="E843" s="22" t="s">
+      <c r="D843" s="5"/>
+      <c r="E843" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F843" s="25">
-        <v>0</v>
-      </c>
-      <c r="G843" s="25">
+      <c r="F843" s="9">
+        <v>0</v>
+      </c>
+      <c r="G843" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:7">
-      <c r="A844" s="22" t="s">
+      <c r="A844" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="B844" s="23" t="s">
+      <c r="B844" s="5" t="s">
         <v>1416</v>
       </c>
-      <c r="C844" s="22" t="s">
+      <c r="C844" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D844" s="23"/>
-      <c r="E844" s="22" t="s">
+      <c r="D844" s="5"/>
+      <c r="E844" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F844" s="25">
-        <v>0</v>
-      </c>
-      <c r="G844" s="25">
+      <c r="F844" s="9">
+        <v>0</v>
+      </c>
+      <c r="G844" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:7">
-      <c r="A845" s="22" t="s">
+      <c r="A845" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="B845" s="27" t="s">
+      <c r="B845" s="6" t="s">
         <v>1418</v>
       </c>
-      <c r="C845" s="22" t="s">
+      <c r="C845" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D845" s="23"/>
-      <c r="E845" s="22" t="s">
+      <c r="D845" s="5"/>
+      <c r="E845" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F845" s="26">
-        <v>0</v>
-      </c>
-      <c r="G845" s="25">
+      <c r="F845" s="8">
+        <v>0</v>
+      </c>
+      <c r="G845" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:7">
-      <c r="A846" s="22" t="s">
+      <c r="A846" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="B846" s="23" t="s">
+      <c r="B846" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="C846" s="22" t="s">
+      <c r="C846" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D846" s="22" t="s">
+      <c r="D846" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E846" s="22" t="s">
+      <c r="E846" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F846" s="26">
-        <v>0</v>
-      </c>
-      <c r="G846" s="25">
+      <c r="F846" s="8">
+        <v>0</v>
+      </c>
+      <c r="G846" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:7">
-      <c r="A847" s="22" t="s">
+      <c r="A847" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="B847" s="22" t="s">
+      <c r="B847" s="4" t="s">
         <v>1422</v>
       </c>
-      <c r="C847" s="22" t="s">
+      <c r="C847" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D847" s="23"/>
-      <c r="E847" s="22" t="s">
+      <c r="D847" s="5"/>
+      <c r="E847" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="F847" s="25">
-        <v>0</v>
-      </c>
-      <c r="G847" s="25">
+      <c r="F847" s="9">
+        <v>0</v>
+      </c>
+      <c r="G847" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:7">
-      <c r="A848" s="22" t="s">
+      <c r="A848" s="4" t="s">
         <v>1423</v>
       </c>
-      <c r="B848" s="22" t="s">
+      <c r="B848" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C848" s="22" t="s">
+      <c r="C848" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="D848" s="23"/>
-      <c r="E848" s="22" t="s">
+      <c r="D848" s="5"/>
+      <c r="E848" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="F848" s="25">
-        <v>0</v>
-      </c>
-      <c r="G848" s="25">
+      <c r="F848" s="9">
+        <v>0</v>
+      </c>
+      <c r="G848" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:7">
-      <c r="A849" s="22" t="s">
+      <c r="A849" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="B849" s="22" t="s">
+      <c r="B849" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="C849" s="22" t="s">
+      <c r="C849" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="D849" s="23"/>
-      <c r="E849" s="22" t="s">
+      <c r="D849" s="5"/>
+      <c r="E849" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="F849" s="25">
-        <v>0</v>
-      </c>
-      <c r="G849" s="25">
+      <c r="F849" s="9">
+        <v>0</v>
+      </c>
+      <c r="G849" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:7">
-      <c r="A850" s="22" t="s">
+      <c r="A850" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="B850" s="23" t="s">
+      <c r="B850" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C850" s="22" t="s">
+      <c r="C850" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="D850" s="22" t="s">
+      <c r="D850" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E850" s="22" t="s">
+      <c r="E850" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="F850" s="25">
-        <v>0</v>
-      </c>
-      <c r="G850" s="25">
+      <c r="F850" s="9">
+        <v>0</v>
+      </c>
+      <c r="G850" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="851" ht="14.25" spans="1:7">
-      <c r="A851" s="22" t="s">
+      <c r="A851" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="B851" s="22" t="s">
+      <c r="B851" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="C851" s="22" t="s">
+      <c r="C851" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D851" s="28" t="s">
+      <c r="D851" s="22" t="s">
         <v>1432</v>
       </c>
-      <c r="E851" s="22" t="s">
+      <c r="E851" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F851" s="25">
-        <v>0</v>
-      </c>
-      <c r="G851" s="25">
+      <c r="F851" s="9">
+        <v>0</v>
+      </c>
+      <c r="G851" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:7">
-      <c r="A852" s="22" t="s">
+      <c r="A852" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="B852" s="22" t="s">
+      <c r="B852" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="C852" s="22" t="s">
+      <c r="C852" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D852" s="22" t="s">
+      <c r="D852" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="E852" s="22" t="s">
+      <c r="E852" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F852" s="25">
-        <v>0</v>
-      </c>
-      <c r="G852" s="25">
+      <c r="F852" s="9">
+        <v>0</v>
+      </c>
+      <c r="G852" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:7">
-      <c r="A853" s="22" t="s">
+      <c r="A853" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="B853" s="22" t="s">
+      <c r="B853" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="C853" s="22" t="s">
+      <c r="C853" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D853" s="23"/>
-      <c r="E853" s="22" t="s">
+      <c r="D853" s="5"/>
+      <c r="E853" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F853" s="26">
-        <v>0</v>
-      </c>
-      <c r="G853" s="25">
+      <c r="F853" s="8">
+        <v>0</v>
+      </c>
+      <c r="G853" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:7">
-      <c r="A854" s="22" t="s">
+      <c r="A854" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="B854" s="22" t="s">
+      <c r="B854" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="C854" s="22" t="s">
+      <c r="C854" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D854" s="23"/>
-      <c r="E854" s="22" t="s">
+      <c r="D854" s="5"/>
+      <c r="E854" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F854" s="25">
-        <v>0</v>
-      </c>
-      <c r="G854" s="25">
+      <c r="F854" s="9">
+        <v>0</v>
+      </c>
+      <c r="G854" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:7">
-      <c r="A855" s="22" t="s">
+      <c r="A855" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="B855" s="22" t="s">
+      <c r="B855" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="C855" s="22" t="s">
+      <c r="C855" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D855" s="23"/>
-      <c r="E855" s="22" t="s">
+      <c r="D855" s="5"/>
+      <c r="E855" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F855" s="25">
-        <v>0</v>
-      </c>
-      <c r="G855" s="25">
+      <c r="F855" s="9">
+        <v>0</v>
+      </c>
+      <c r="G855" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:7">
-      <c r="A856" s="22" t="s">
+      <c r="A856" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="B856" s="22" t="s">
+      <c r="B856" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="C856" s="22" t="s">
+      <c r="C856" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D856" s="22" t="s">
+      <c r="D856" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="E856" s="22" t="s">
+      <c r="E856" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F856" s="25">
-        <v>0</v>
-      </c>
-      <c r="G856" s="25">
+      <c r="F856" s="9">
+        <v>0</v>
+      </c>
+      <c r="G856" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:7">
-      <c r="A857" s="22" t="s">
+      <c r="A857" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="B857" s="22" t="s">
+      <c r="B857" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="C857" s="22" t="s">
+      <c r="C857" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D857" s="23" t="s">
+      <c r="D857" s="5" t="s">
         <v>1442</v>
       </c>
-      <c r="E857" s="22" t="s">
+      <c r="E857" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F857" s="26">
-        <v>0</v>
-      </c>
-      <c r="G857" s="25">
+      <c r="F857" s="8">
+        <v>0</v>
+      </c>
+      <c r="G857" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:7">
-      <c r="A858" s="23" t="s">
+      <c r="A858" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="B858" s="22" t="s">
+      <c r="B858" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="C858" s="22" t="s">
+      <c r="C858" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D858" s="22" t="s">
+      <c r="D858" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="E858" s="22" t="s">
+      <c r="E858" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F858" s="26">
-        <v>0</v>
-      </c>
-      <c r="G858" s="25">
+      <c r="F858" s="8">
+        <v>0</v>
+      </c>
+      <c r="G858" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:7">
-      <c r="A859" s="23" t="s">
+      <c r="A859" s="5" t="s">
         <v>1445</v>
       </c>
-      <c r="B859" s="22" t="s">
+      <c r="B859" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="C859" s="22" t="s">
+      <c r="C859" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D859" s="22" t="s">
+      <c r="D859" s="4" t="s">
         <v>1447</v>
       </c>
-      <c r="E859" s="22" t="s">
+      <c r="E859" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F859" s="25">
-        <v>0</v>
-      </c>
-      <c r="G859" s="25">
+      <c r="F859" s="9">
+        <v>0</v>
+      </c>
+      <c r="G859" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:7">
-      <c r="A860" s="22" t="s">
+      <c r="A860" s="4" t="s">
         <v>1448</v>
       </c>
-      <c r="B860" s="29" t="s">
+      <c r="B860" s="11" t="s">
         <v>1449</v>
       </c>
-      <c r="C860" s="22" t="s">
+      <c r="C860" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D860" s="30" t="s">
+      <c r="D860" s="23" t="s">
         <v>1450</v>
       </c>
-      <c r="E860" s="22" t="s">
+      <c r="E860" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F860" s="26">
-        <v>0</v>
-      </c>
-      <c r="G860" s="25">
+      <c r="F860" s="8">
+        <v>0</v>
+      </c>
+      <c r="G860" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:7">
-      <c r="A861" s="22" t="s">
+      <c r="A861" s="4" t="s">
         <v>1451</v>
       </c>
-      <c r="B861" s="22" t="s">
+      <c r="B861" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C861" s="22" t="s">
+      <c r="C861" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D861" s="23"/>
-      <c r="E861" s="22" t="s">
+      <c r="D861" s="5"/>
+      <c r="E861" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F861" s="25">
-        <v>0</v>
-      </c>
-      <c r="G861" s="25">
+      <c r="F861" s="9">
+        <v>0</v>
+      </c>
+      <c r="G861" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:7">
-      <c r="A862" s="22" t="s">
+      <c r="A862" s="4" t="s">
         <v>1453</v>
       </c>
-      <c r="B862" s="22" t="s">
+      <c r="B862" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C862" s="22" t="s">
+      <c r="C862" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D862" s="22" t="s">
+      <c r="D862" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="E862" s="22" t="s">
+      <c r="E862" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F862" s="26">
-        <v>0</v>
-      </c>
-      <c r="G862" s="25">
+      <c r="F862" s="8">
+        <v>0</v>
+      </c>
+      <c r="G862" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:7">
-      <c r="A863" s="22" t="s">
+      <c r="A863" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="B863" s="22" t="s">
+      <c r="B863" s="4" t="s">
         <v>1457</v>
       </c>
-      <c r="C863" s="22" t="s">
+      <c r="C863" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D863" s="22"/>
-      <c r="E863" s="22" t="s">
+      <c r="D863" s="4"/>
+      <c r="E863" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F863" s="26">
-        <v>0</v>
-      </c>
-      <c r="G863" s="25">
+      <c r="F863" s="8">
+        <v>0</v>
+      </c>
+      <c r="G863" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:7">
-      <c r="A864" s="22" t="s">
+      <c r="A864" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="B864" s="30" t="s">
+      <c r="B864" s="23" t="s">
         <v>1459</v>
       </c>
-      <c r="C864" s="22" t="s">
+      <c r="C864" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D864" s="30" t="s">
+      <c r="D864" s="23" t="s">
         <v>1460</v>
       </c>
-      <c r="E864" s="22" t="s">
+      <c r="E864" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F864" s="26">
-        <v>0</v>
-      </c>
-      <c r="G864" s="25">
+      <c r="F864" s="8">
+        <v>0</v>
+      </c>
+      <c r="G864" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:7">
-      <c r="A865" s="22" t="s">
+      <c r="A865" s="4" t="s">
         <v>1461</v>
       </c>
-      <c r="B865" s="22" t="s">
+      <c r="B865" s="4" t="s">
         <v>1462</v>
       </c>
-      <c r="C865" s="22" t="s">
+      <c r="C865" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D865" s="22" t="s">
+      <c r="D865" s="4" t="s">
         <v>1463</v>
       </c>
-      <c r="E865" s="22" t="s">
+      <c r="E865" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F865" s="25">
-        <v>0</v>
-      </c>
-      <c r="G865" s="25">
+      <c r="F865" s="9">
+        <v>0</v>
+      </c>
+      <c r="G865" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:7">
-      <c r="A866" s="23" t="s">
+      <c r="A866" s="5" t="s">
         <v>1464</v>
       </c>
-      <c r="B866" s="22" t="s">
+      <c r="B866" s="4" t="s">
         <v>1465</v>
       </c>
-      <c r="C866" s="22" t="s">
+      <c r="C866" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D866" s="30" t="s">
+      <c r="D866" s="23" t="s">
         <v>1466</v>
       </c>
-      <c r="E866" s="22" t="s">
+      <c r="E866" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F866" s="26">
-        <v>0</v>
-      </c>
-      <c r="G866" s="25">
+      <c r="F866" s="8">
+        <v>0</v>
+      </c>
+      <c r="G866" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:7">
-      <c r="A867" s="22" t="s">
+      <c r="A867" s="4" t="s">
         <v>1467</v>
       </c>
-      <c r="B867" s="22" t="s">
+      <c r="B867" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="C867" s="22" t="s">
+      <c r="C867" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D867" s="23" t="s">
+      <c r="D867" s="5" t="s">
         <v>1469</v>
       </c>
-      <c r="E867" s="22" t="s">
+      <c r="E867" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F867" s="26">
-        <v>0</v>
-      </c>
-      <c r="G867" s="25">
+      <c r="F867" s="8">
+        <v>0</v>
+      </c>
+      <c r="G867" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:7">
-      <c r="A868" s="22" t="s">
+      <c r="A868" s="4" t="s">
         <v>1470</v>
       </c>
-      <c r="B868" s="22" t="s">
+      <c r="B868" s="4" t="s">
         <v>1471</v>
       </c>
-      <c r="C868" s="22" t="s">
+      <c r="C868" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D868" s="23" t="s">
+      <c r="D868" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="E868" s="22" t="s">
+      <c r="E868" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F868" s="26">
-        <v>0</v>
-      </c>
-      <c r="G868" s="25">
+      <c r="F868" s="8">
+        <v>0</v>
+      </c>
+      <c r="G868" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:7">
-      <c r="A869" s="22" t="s">
+      <c r="A869" s="4" t="s">
         <v>1473</v>
       </c>
-      <c r="B869" s="22" t="s">
+      <c r="B869" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="C869" s="22" t="s">
+      <c r="C869" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D869" s="23"/>
-      <c r="E869" s="22" t="s">
+      <c r="D869" s="5"/>
+      <c r="E869" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F869" s="25">
-        <v>0</v>
-      </c>
-      <c r="G869" s="25">
+      <c r="F869" s="9">
+        <v>0</v>
+      </c>
+      <c r="G869" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:7">
-      <c r="A870" s="22" t="s">
+      <c r="A870" s="4" t="s">
         <v>1475</v>
       </c>
-      <c r="B870" s="22" t="s">
+      <c r="B870" s="4" t="s">
         <v>1476</v>
       </c>
-      <c r="C870" s="22" t="s">
+      <c r="C870" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D870" s="23"/>
-      <c r="E870" s="22" t="s">
+      <c r="D870" s="5"/>
+      <c r="E870" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F870" s="25">
-        <v>0</v>
-      </c>
-      <c r="G870" s="25">
+      <c r="F870" s="9">
+        <v>0</v>
+      </c>
+      <c r="G870" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:7">
-      <c r="A871" s="23" t="s">
+      <c r="A871" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B871" s="31" t="s">
+      <c r="B871" s="10" t="s">
         <v>1478</v>
       </c>
-      <c r="C871" s="22" t="s">
+      <c r="C871" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D871" s="23"/>
-      <c r="E871" s="22" t="s">
+      <c r="D871" s="5"/>
+      <c r="E871" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F871" s="26">
-        <v>0</v>
-      </c>
-      <c r="G871" s="25">
+      <c r="F871" s="8">
+        <v>0</v>
+      </c>
+      <c r="G871" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:7">
-      <c r="A872" s="22" t="s">
+      <c r="A872" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="B872" s="27" t="s">
+      <c r="B872" s="6" t="s">
         <v>1480</v>
       </c>
-      <c r="C872" s="22" t="s">
+      <c r="C872" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D872" s="22" t="s">
+      <c r="D872" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="E872" s="22" t="s">
+      <c r="E872" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F872" s="26">
-        <v>0</v>
-      </c>
-      <c r="G872" s="25">
+      <c r="F872" s="8">
+        <v>0</v>
+      </c>
+      <c r="G872" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:7">
-      <c r="A873" s="22" t="s">
+      <c r="A873" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="B873" s="22" t="s">
+      <c r="B873" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="C873" s="22" t="s">
+      <c r="C873" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D873" s="22" t="s">
+      <c r="D873" s="4" t="s">
         <v>1484</v>
       </c>
-      <c r="E873" s="22" t="s">
+      <c r="E873" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F873" s="26">
-        <v>0</v>
-      </c>
-      <c r="G873" s="25">
+      <c r="F873" s="8">
+        <v>0</v>
+      </c>
+      <c r="G873" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:7">
-      <c r="A874" s="22" t="s">
+      <c r="A874" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="B874" s="27" t="s">
+      <c r="B874" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="C874" s="22" t="s">
+      <c r="C874" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D874" s="22" t="s">
+      <c r="D874" s="4" t="s">
         <v>1487</v>
       </c>
-      <c r="E874" s="22" t="s">
+      <c r="E874" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F874" s="26">
-        <v>0</v>
-      </c>
-      <c r="G874" s="25">
+      <c r="F874" s="8">
+        <v>0</v>
+      </c>
+      <c r="G874" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:7">
-      <c r="A875" s="22" t="s">
+      <c r="A875" s="4" t="s">
         <v>1488</v>
       </c>
-      <c r="B875" s="22" t="s">
+      <c r="B875" s="4" t="s">
         <v>1489</v>
       </c>
-      <c r="C875" s="22" t="s">
+      <c r="C875" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D875" s="23"/>
-      <c r="E875" s="22" t="s">
+      <c r="D875" s="5"/>
+      <c r="E875" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F875" s="26">
-        <v>0</v>
-      </c>
-      <c r="G875" s="25">
+      <c r="F875" s="8">
+        <v>0</v>
+      </c>
+      <c r="G875" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:7">
-      <c r="A876" s="22" t="s">
+      <c r="A876" s="4" t="s">
         <v>1490</v>
       </c>
-      <c r="B876" s="23" t="s">
+      <c r="B876" s="5" t="s">
         <v>1491</v>
       </c>
-      <c r="C876" s="22" t="s">
+      <c r="C876" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D876" s="22" t="s">
+      <c r="D876" s="4" t="s">
         <v>1447</v>
       </c>
-      <c r="E876" s="22" t="s">
+      <c r="E876" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F876" s="25">
-        <v>0</v>
-      </c>
-      <c r="G876" s="25">
+      <c r="F876" s="9">
+        <v>0</v>
+      </c>
+      <c r="G876" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:7">
-      <c r="A877" s="23" t="s">
+      <c r="A877" s="5" t="s">
         <v>1492</v>
       </c>
-      <c r="B877" s="22" t="s">
+      <c r="B877" s="4" t="s">
         <v>1493</v>
       </c>
-      <c r="C877" s="22" t="s">
+      <c r="C877" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D877" s="30" t="s">
+      <c r="D877" s="23" t="s">
         <v>1494</v>
       </c>
-      <c r="E877" s="22" t="s">
+      <c r="E877" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F877" s="25">
-        <v>0</v>
-      </c>
-      <c r="G877" s="25">
+      <c r="F877" s="9">
+        <v>0</v>
+      </c>
+      <c r="G877" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:7">
-      <c r="A878" s="23" t="s">
+      <c r="A878" s="5" t="s">
         <v>1495</v>
       </c>
-      <c r="B878" s="22" t="s">
+      <c r="B878" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="C878" s="22" t="s">
+      <c r="C878" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D878" s="23"/>
-      <c r="E878" s="22" t="s">
+      <c r="D878" s="5"/>
+      <c r="E878" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F878" s="26">
-        <v>0</v>
-      </c>
-      <c r="G878" s="25">
+      <c r="F878" s="8">
+        <v>0</v>
+      </c>
+      <c r="G878" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:7">
-      <c r="A879" s="22" t="s">
+      <c r="A879" s="4" t="s">
         <v>1497</v>
       </c>
-      <c r="B879" s="22" t="s">
+      <c r="B879" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="C879" s="22" t="s">
+      <c r="C879" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D879" s="23"/>
-      <c r="E879" s="22" t="s">
+      <c r="D879" s="5"/>
+      <c r="E879" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F879" s="25">
-        <v>0</v>
-      </c>
-      <c r="G879" s="25">
+      <c r="F879" s="9">
+        <v>0</v>
+      </c>
+      <c r="G879" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:7">
-      <c r="A880" s="22" t="s">
+      <c r="A880" s="4" t="s">
         <v>1498</v>
       </c>
-      <c r="B880" s="22" t="s">
+      <c r="B880" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="C880" s="22" t="s">
+      <c r="C880" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D880" s="23"/>
-      <c r="E880" s="22" t="s">
+      <c r="D880" s="5"/>
+      <c r="E880" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F880" s="25">
-        <v>0</v>
-      </c>
-      <c r="G880" s="25">
+      <c r="F880" s="9">
+        <v>0</v>
+      </c>
+      <c r="G880" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:7">
-      <c r="A881" s="22" t="s">
+      <c r="A881" s="4" t="s">
         <v>1499</v>
       </c>
-      <c r="B881" s="23" t="s">
+      <c r="B881" s="5" t="s">
         <v>1496</v>
       </c>
-      <c r="C881" s="22" t="s">
+      <c r="C881" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D881" s="23"/>
-      <c r="E881" s="22" t="s">
+      <c r="D881" s="5"/>
+      <c r="E881" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F881" s="26">
-        <v>0</v>
-      </c>
-      <c r="G881" s="25">
+      <c r="F881" s="8">
+        <v>0</v>
+      </c>
+      <c r="G881" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:7">
-      <c r="A882" s="22" t="s">
+      <c r="A882" s="4" t="s">
         <v>1500</v>
       </c>
-      <c r="B882" s="22" t="s">
+      <c r="B882" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="C882" s="22" t="s">
+      <c r="C882" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D882" s="23"/>
-      <c r="E882" s="22" t="s">
+      <c r="D882" s="5"/>
+      <c r="E882" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F882" s="26">
-        <v>0</v>
-      </c>
-      <c r="G882" s="25">
+      <c r="F882" s="8">
+        <v>0</v>
+      </c>
+      <c r="G882" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:7">
-      <c r="A883" s="22" t="s">
+      <c r="A883" s="4" t="s">
         <v>1501</v>
       </c>
-      <c r="B883" s="23" t="s">
+      <c r="B883" s="5" t="s">
         <v>1502</v>
       </c>
-      <c r="C883" s="22" t="s">
+      <c r="C883" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D883" s="22" t="s">
+      <c r="D883" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="E883" s="22" t="s">
+      <c r="E883" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F883" s="25">
-        <v>0</v>
-      </c>
-      <c r="G883" s="25">
+      <c r="F883" s="9">
+        <v>0</v>
+      </c>
+      <c r="G883" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="884" ht="14.25" spans="1:7">
-      <c r="A884" s="23" t="s">
+      <c r="A884" s="5" t="s">
         <v>1504</v>
       </c>
-      <c r="B884" s="32" t="s">
+      <c r="B884" s="24" t="s">
         <v>1505</v>
       </c>
-      <c r="C884" s="22" t="s">
+      <c r="C884" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D884" s="23"/>
-      <c r="E884" s="22" t="s">
+      <c r="D884" s="5"/>
+      <c r="E884" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F884" s="25">
-        <v>0</v>
-      </c>
-      <c r="G884" s="25">
+      <c r="F884" s="9">
+        <v>0</v>
+      </c>
+      <c r="G884" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:7">
-      <c r="A885" s="22" t="s">
+      <c r="A885" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="B885" s="22" t="s">
+      <c r="B885" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="C885" s="22" t="s">
+      <c r="C885" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D885" s="22" t="s">
+      <c r="D885" s="4" t="s">
         <v>1508</v>
       </c>
-      <c r="E885" s="22" t="s">
+      <c r="E885" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F885" s="26">
-        <v>0</v>
-      </c>
-      <c r="G885" s="25">
+      <c r="F885" s="8">
+        <v>0</v>
+      </c>
+      <c r="G885" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:7">
-      <c r="A886" s="22" t="s">
+      <c r="A886" s="4" t="s">
         <v>1509</v>
       </c>
-      <c r="B886" s="22" t="s">
+      <c r="B886" s="4" t="s">
         <v>1510</v>
       </c>
-      <c r="C886" s="22" t="s">
+      <c r="C886" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D886" s="23"/>
-      <c r="E886" s="22" t="s">
+      <c r="D886" s="5"/>
+      <c r="E886" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F886" s="25">
-        <v>0</v>
-      </c>
-      <c r="G886" s="25">
+      <c r="F886" s="9">
+        <v>0</v>
+      </c>
+      <c r="G886" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:7">
-      <c r="A887" s="23" t="s">
+      <c r="A887" s="5" t="s">
         <v>1511</v>
       </c>
-      <c r="B887" s="22" t="s">
+      <c r="B887" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="C887" s="22" t="s">
+      <c r="C887" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D887" s="22" t="s">
+      <c r="D887" s="4" t="s">
         <v>1513</v>
       </c>
-      <c r="E887" s="22" t="s">
+      <c r="E887" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F887" s="25">
-        <v>0</v>
-      </c>
-      <c r="G887" s="25">
+      <c r="F887" s="9">
+        <v>0</v>
+      </c>
+      <c r="G887" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:7">
-      <c r="A888" s="23" t="s">
+      <c r="A888" s="5" t="s">
         <v>1514</v>
       </c>
-      <c r="B888" s="22" t="s">
+      <c r="B888" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="C888" s="22" t="s">
+      <c r="C888" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D888" s="23"/>
-      <c r="E888" s="22" t="s">
+      <c r="D888" s="5"/>
+      <c r="E888" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F888" s="26">
-        <v>0</v>
-      </c>
-      <c r="G888" s="25">
+      <c r="F888" s="8">
+        <v>0</v>
+      </c>
+      <c r="G888" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:7">
-      <c r="A889" s="22" t="s">
+      <c r="A889" s="4" t="s">
         <v>1516</v>
       </c>
-      <c r="B889" s="22" t="s">
+      <c r="B889" s="4" t="s">
         <v>1517</v>
       </c>
-      <c r="C889" s="22" t="s">
+      <c r="C889" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D889" s="23"/>
-      <c r="E889" s="22" t="s">
+      <c r="D889" s="5"/>
+      <c r="E889" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F889" s="25">
-        <v>0</v>
-      </c>
-      <c r="G889" s="25">
+      <c r="F889" s="9">
+        <v>0</v>
+      </c>
+      <c r="G889" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:7">
-      <c r="A890" s="23" t="s">
+      <c r="A890" s="5" t="s">
         <v>1518</v>
       </c>
-      <c r="B890" s="22" t="s">
+      <c r="B890" s="4" t="s">
         <v>1519</v>
       </c>
-      <c r="C890" s="22" t="s">
+      <c r="C890" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D890" s="23"/>
-      <c r="E890" s="22" t="s">
+      <c r="D890" s="5"/>
+      <c r="E890" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F890" s="25">
-        <v>0</v>
-      </c>
-      <c r="G890" s="25">
+      <c r="F890" s="9">
+        <v>0</v>
+      </c>
+      <c r="G890" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:7">
-      <c r="A891" s="23" t="s">
+      <c r="A891" s="5" t="s">
         <v>1520</v>
       </c>
-      <c r="B891" s="22" t="s">
+      <c r="B891" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="C891" s="22" t="s">
+      <c r="C891" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D891" s="22" t="s">
+      <c r="D891" s="4" t="s">
         <v>1522</v>
       </c>
-      <c r="E891" s="22" t="s">
+      <c r="E891" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F891" s="25">
-        <v>0</v>
-      </c>
-      <c r="G891" s="25">
+      <c r="F891" s="9">
+        <v>0</v>
+      </c>
+      <c r="G891" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:7">
-      <c r="A892" s="22" t="s">
+      <c r="A892" s="4" t="s">
         <v>1523</v>
       </c>
-      <c r="B892" s="23" t="s">
+      <c r="B892" s="5" t="s">
         <v>1524</v>
       </c>
-      <c r="C892" s="22" t="s">
+      <c r="C892" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D892" s="23"/>
-      <c r="E892" s="22" t="s">
+      <c r="D892" s="5"/>
+      <c r="E892" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F892" s="26">
-        <v>0</v>
-      </c>
-      <c r="G892" s="25">
+      <c r="F892" s="8">
+        <v>0</v>
+      </c>
+      <c r="G892" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:7">
-      <c r="A893" s="22" t="s">
+      <c r="A893" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="B893" s="33" t="s">
+      <c r="B893" s="25" t="s">
         <v>1526</v>
       </c>
-      <c r="C893" s="22" t="s">
+      <c r="C893" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D893" s="23" t="s">
+      <c r="D893" s="5" t="s">
         <v>1527</v>
       </c>
-      <c r="E893" s="22" t="s">
+      <c r="E893" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F893" s="26">
-        <v>0</v>
-      </c>
-      <c r="G893" s="25">
+      <c r="F893" s="8">
+        <v>0</v>
+      </c>
+      <c r="G893" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:7">
-      <c r="A894" s="22" t="s">
+      <c r="A894" s="4" t="s">
         <v>1528</v>
       </c>
-      <c r="B894" s="22" t="s">
+      <c r="B894" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="C894" s="22" t="s">
+      <c r="C894" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D894" s="27" t="s">
+      <c r="D894" s="6" t="s">
         <v>1530</v>
       </c>
-      <c r="E894" s="22" t="s">
+      <c r="E894" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F894" s="25">
-        <v>0</v>
-      </c>
-      <c r="G894" s="25">
+      <c r="F894" s="9">
+        <v>0</v>
+      </c>
+      <c r="G894" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:7">
-      <c r="A895" s="22" t="s">
+      <c r="A895" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="B895" s="34" t="s">
+      <c r="B895" s="14" t="s">
         <v>1532</v>
       </c>
-      <c r="C895" s="22" t="s">
+      <c r="C895" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D895" s="22" t="s">
+      <c r="D895" s="4" t="s">
         <v>1533</v>
       </c>
-      <c r="E895" s="22" t="s">
+      <c r="E895" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F895" s="26">
-        <v>0</v>
-      </c>
-      <c r="G895" s="25">
+      <c r="F895" s="8">
+        <v>0</v>
+      </c>
+      <c r="G895" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:7">
-      <c r="A896" s="23" t="s">
+      <c r="A896" s="5" t="s">
         <v>1534</v>
       </c>
-      <c r="B896" s="22" t="s">
+      <c r="B896" s="4" t="s">
         <v>1535</v>
       </c>
-      <c r="C896" s="22" t="s">
+      <c r="C896" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D896" s="22" t="s">
+      <c r="D896" s="4" t="s">
         <v>1536</v>
       </c>
-      <c r="E896" s="22" t="s">
+      <c r="E896" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F896" s="26">
-        <v>0</v>
-      </c>
-      <c r="G896" s="25">
+      <c r="F896" s="8">
+        <v>0</v>
+      </c>
+      <c r="G896" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:7">
-      <c r="A897" s="22" t="s">
+      <c r="A897" s="4" t="s">
         <v>1537</v>
       </c>
-      <c r="B897" s="22" t="s">
+      <c r="B897" s="4" t="s">
         <v>1538</v>
       </c>
-      <c r="C897" s="22" t="s">
+      <c r="C897" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D897" s="22" t="s">
+      <c r="D897" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="E897" s="22" t="s">
+      <c r="E897" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F897" s="26">
-        <v>0</v>
-      </c>
-      <c r="G897" s="25">
+      <c r="F897" s="8">
+        <v>0</v>
+      </c>
+      <c r="G897" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:7">
-      <c r="A898" s="22" t="s">
+      <c r="A898" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="B898" s="23" t="s">
+      <c r="B898" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="C898" s="22" t="s">
+      <c r="C898" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D898" s="23"/>
-      <c r="E898" s="22" t="s">
+      <c r="D898" s="5"/>
+      <c r="E898" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F898" s="26">
-        <v>0</v>
-      </c>
-      <c r="G898" s="25">
+      <c r="F898" s="8">
+        <v>0</v>
+      </c>
+      <c r="G898" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:7">
-      <c r="A899" s="22" t="s">
+      <c r="A899" s="4" t="s">
         <v>1542</v>
       </c>
-      <c r="B899" s="22" t="s">
+      <c r="B899" s="4" t="s">
         <v>1543</v>
       </c>
-      <c r="C899" s="22" t="s">
+      <c r="C899" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D899" s="23"/>
-      <c r="E899" s="22" t="s">
+      <c r="D899" s="5"/>
+      <c r="E899" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F899" s="26">
-        <v>0</v>
-      </c>
-      <c r="G899" s="25">
+      <c r="F899" s="8">
+        <v>0</v>
+      </c>
+      <c r="G899" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:7">
-      <c r="A900" s="22" t="s">
+      <c r="A900" s="4" t="s">
         <v>1544</v>
       </c>
-      <c r="B900" s="22" t="s">
+      <c r="B900" s="4" t="s">
         <v>1543</v>
       </c>
-      <c r="C900" s="22" t="s">
+      <c r="C900" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D900" s="23"/>
-      <c r="E900" s="22" t="s">
+      <c r="D900" s="5"/>
+      <c r="E900" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F900" s="25">
-        <v>0</v>
-      </c>
-      <c r="G900" s="25">
+      <c r="F900" s="9">
+        <v>0</v>
+      </c>
+      <c r="G900" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:7">
-      <c r="A901" s="23" t="s">
+      <c r="A901" s="5" t="s">
         <v>1545</v>
       </c>
-      <c r="B901" s="22" t="s">
+      <c r="B901" s="4" t="s">
         <v>1546</v>
       </c>
-      <c r="C901" s="22" t="s">
+      <c r="C901" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D901" s="22" t="s">
+      <c r="D901" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="E901" s="22" t="s">
+      <c r="E901" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F901" s="25">
-        <v>0</v>
-      </c>
-      <c r="G901" s="25">
+      <c r="F901" s="9">
+        <v>0</v>
+      </c>
+      <c r="G901" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:7">
-      <c r="A902" s="22" t="s">
+      <c r="A902" s="4" t="s">
         <v>1548</v>
       </c>
-      <c r="B902" s="23" t="s">
+      <c r="B902" s="5" t="s">
         <v>1549</v>
       </c>
-      <c r="C902" s="22" t="s">
+      <c r="C902" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D902" s="23"/>
-      <c r="E902" s="22" t="s">
+      <c r="D902" s="5"/>
+      <c r="E902" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F902" s="26">
-        <v>0</v>
-      </c>
-      <c r="G902" s="25">
+      <c r="F902" s="8">
+        <v>0</v>
+      </c>
+      <c r="G902" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:7">
-      <c r="A903" s="22" t="s">
+      <c r="A903" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="B903" s="23" t="s">
+      <c r="B903" s="5" t="s">
         <v>1551</v>
       </c>
-      <c r="C903" s="22" t="s">
+      <c r="C903" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D903" s="22" t="s">
+      <c r="D903" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="E903" s="22" t="s">
+      <c r="E903" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F903" s="26">
-        <v>0</v>
-      </c>
-      <c r="G903" s="25">
+      <c r="F903" s="8">
+        <v>0</v>
+      </c>
+      <c r="G903" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:7">
-      <c r="A904" s="22" t="s">
+      <c r="A904" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="B904" s="23" t="s">
+      <c r="B904" s="5" t="s">
         <v>1554</v>
       </c>
-      <c r="C904" s="22" t="s">
+      <c r="C904" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D904" s="23"/>
-      <c r="E904" s="22" t="s">
+      <c r="D904" s="5"/>
+      <c r="E904" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F904" s="25">
-        <v>0</v>
-      </c>
-      <c r="G904" s="25">
+      <c r="F904" s="9">
+        <v>0</v>
+      </c>
+      <c r="G904" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:7">
-      <c r="A905" s="22" t="s">
+      <c r="A905" s="4" t="s">
         <v>1555</v>
       </c>
-      <c r="B905" s="22" t="s">
+      <c r="B905" s="4" t="s">
         <v>1556</v>
       </c>
-      <c r="C905" s="22" t="s">
+      <c r="C905" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D905" s="23"/>
-      <c r="E905" s="22" t="s">
+      <c r="D905" s="5"/>
+      <c r="E905" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F905" s="25">
-        <v>0</v>
-      </c>
-      <c r="G905" s="25">
+      <c r="F905" s="9">
+        <v>0</v>
+      </c>
+      <c r="G905" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:7">
-      <c r="A906" s="22" t="s">
+      <c r="A906" s="4" t="s">
         <v>1557</v>
       </c>
-      <c r="B906" s="22" t="s">
+      <c r="B906" s="4" t="s">
         <v>1556</v>
       </c>
-      <c r="C906" s="22" t="s">
+      <c r="C906" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D906" s="22" t="s">
+      <c r="D906" s="4" t="s">
         <v>1558</v>
       </c>
-      <c r="E906" s="22" t="s">
+      <c r="E906" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F906" s="25">
-        <v>0</v>
-      </c>
-      <c r="G906" s="25">
+      <c r="F906" s="9">
+        <v>0</v>
+      </c>
+      <c r="G906" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:7">
-      <c r="A907" s="22" t="s">
+      <c r="A907" s="4" t="s">
         <v>1559</v>
       </c>
-      <c r="B907" s="22" t="s">
+      <c r="B907" s="4" t="s">
         <v>1560</v>
       </c>
-      <c r="C907" s="22" t="s">
+      <c r="C907" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D907" s="22" t="s">
+      <c r="D907" s="4" t="s">
         <v>1561</v>
       </c>
-      <c r="E907" s="22" t="s">
+      <c r="E907" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F907" s="26">
-        <v>0</v>
-      </c>
-      <c r="G907" s="25">
+      <c r="F907" s="8">
+        <v>0</v>
+      </c>
+      <c r="G907" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:7">
-      <c r="A908" s="23" t="s">
+      <c r="A908" s="5" t="s">
         <v>1562</v>
       </c>
-      <c r="B908" s="28" t="s">
+      <c r="B908" s="22" t="s">
         <v>1563</v>
       </c>
-      <c r="C908" s="22" t="s">
+      <c r="C908" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D908" s="30" t="s">
+      <c r="D908" s="23" t="s">
         <v>1564</v>
       </c>
-      <c r="E908" s="22" t="s">
+      <c r="E908" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F908" s="25">
-        <v>0</v>
-      </c>
-      <c r="G908" s="25">
+      <c r="F908" s="9">
+        <v>0</v>
+      </c>
+      <c r="G908" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:7">
-      <c r="A909" s="22" t="s">
+      <c r="A909" s="4" t="s">
         <v>1565</v>
       </c>
-      <c r="B909" s="22" t="s">
+      <c r="B909" s="4" t="s">
         <v>1566</v>
       </c>
-      <c r="C909" s="22" t="s">
+      <c r="C909" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D909" s="23"/>
-      <c r="E909" s="22" t="s">
+      <c r="D909" s="5"/>
+      <c r="E909" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F909" s="26">
-        <v>0</v>
-      </c>
-      <c r="G909" s="25">
+      <c r="F909" s="8">
+        <v>0</v>
+      </c>
+      <c r="G909" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:7">
-      <c r="A910" s="22" t="s">
+      <c r="A910" s="4" t="s">
         <v>1567</v>
       </c>
-      <c r="B910" s="22" t="s">
+      <c r="B910" s="4" t="s">
         <v>1566</v>
       </c>
-      <c r="C910" s="22" t="s">
+      <c r="C910" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D910" s="22" t="s">
+      <c r="D910" s="4" t="s">
         <v>1568</v>
       </c>
-      <c r="E910" s="22" t="s">
+      <c r="E910" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F910" s="26">
-        <v>0</v>
-      </c>
-      <c r="G910" s="25">
+      <c r="F910" s="8">
+        <v>0</v>
+      </c>
+      <c r="G910" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:7">
-      <c r="A911" s="22" t="s">
+      <c r="A911" s="4" t="s">
         <v>1569</v>
       </c>
-      <c r="B911" s="22" t="s">
+      <c r="B911" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="C911" s="22" t="s">
+      <c r="C911" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D911" s="22" t="s">
+      <c r="D911" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="E911" s="22" t="s">
+      <c r="E911" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F911" s="25">
-        <v>0</v>
-      </c>
-      <c r="G911" s="25">
+      <c r="F911" s="9">
+        <v>0</v>
+      </c>
+      <c r="G911" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:7">
-      <c r="A912" s="22" t="s">
+      <c r="A912" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="B912" s="22" t="s">
+      <c r="B912" s="4" t="s">
         <v>1573</v>
       </c>
-      <c r="C912" s="22" t="s">
+      <c r="C912" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D912" s="30" t="s">
+      <c r="D912" s="23" t="s">
         <v>1574</v>
       </c>
-      <c r="E912" s="22" t="s">
+      <c r="E912" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F912" s="25">
-        <v>0</v>
-      </c>
-      <c r="G912" s="25">
+      <c r="F912" s="9">
+        <v>0</v>
+      </c>
+      <c r="G912" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:7">
-      <c r="A913" s="22" t="s">
+      <c r="A913" s="4" t="s">
         <v>1575</v>
       </c>
-      <c r="B913" s="22" t="s">
+      <c r="B913" s="4" t="s">
         <v>1576</v>
       </c>
-      <c r="C913" s="22" t="s">
+      <c r="C913" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D913" s="22" t="s">
+      <c r="D913" s="4" t="s">
         <v>1577</v>
       </c>
-      <c r="E913" s="22" t="s">
+      <c r="E913" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F913" s="25">
-        <v>0</v>
-      </c>
-      <c r="G913" s="25">
+      <c r="F913" s="9">
+        <v>0</v>
+      </c>
+      <c r="G913" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:7">
-      <c r="A914" s="23" t="s">
+      <c r="A914" s="5" t="s">
         <v>1578</v>
       </c>
-      <c r="B914" s="23" t="s">
+      <c r="B914" s="5" t="s">
         <v>1579</v>
       </c>
-      <c r="C914" s="22" t="s">
+      <c r="C914" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D914" s="22" t="s">
+      <c r="D914" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="E914" s="22" t="s">
+      <c r="E914" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F914" s="25">
-        <v>0</v>
-      </c>
-      <c r="G914" s="25">
+      <c r="F914" s="9">
+        <v>0</v>
+      </c>
+      <c r="G914" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:7">
-      <c r="A915" s="22" t="s">
+      <c r="A915" s="4" t="s">
         <v>1581</v>
       </c>
-      <c r="B915" s="22" t="s">
+      <c r="B915" s="4" t="s">
         <v>1582</v>
       </c>
-      <c r="C915" s="22" t="s">
+      <c r="C915" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D915" s="22" t="s">
+      <c r="D915" s="4" t="s">
         <v>1583</v>
       </c>
-      <c r="E915" s="22" t="s">
+      <c r="E915" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F915" s="25">
-        <v>0</v>
-      </c>
-      <c r="G915" s="25">
+      <c r="F915" s="9">
+        <v>0</v>
+      </c>
+      <c r="G915" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:7">
-      <c r="A916" s="22" t="s">
+      <c r="A916" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="B916" s="22" t="s">
+      <c r="B916" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="C916" s="22" t="s">
+      <c r="C916" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D916" s="22" t="s">
+      <c r="D916" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="E916" s="22" t="s">
+      <c r="E916" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F916" s="25">
-        <v>0</v>
-      </c>
-      <c r="G916" s="25">
+      <c r="F916" s="9">
+        <v>0</v>
+      </c>
+      <c r="G916" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:7">
-      <c r="A917" s="22" t="s">
+      <c r="A917" s="4" t="s">
         <v>1586</v>
       </c>
-      <c r="B917" s="22" t="s">
+      <c r="B917" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="C917" s="22" t="s">
+      <c r="C917" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D917" s="22" t="s">
+      <c r="D917" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="E917" s="22" t="s">
+      <c r="E917" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F917" s="25">
-        <v>0</v>
-      </c>
-      <c r="G917" s="25">
+      <c r="F917" s="9">
+        <v>0</v>
+      </c>
+      <c r="G917" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:7">
-      <c r="A918" s="22" t="s">
+      <c r="A918" s="4" t="s">
         <v>1588</v>
       </c>
-      <c r="B918" s="22" t="s">
+      <c r="B918" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="C918" s="22" t="s">
+      <c r="C918" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D918" s="22" t="s">
+      <c r="D918" s="4" t="s">
         <v>1589</v>
       </c>
-      <c r="E918" s="22" t="s">
+      <c r="E918" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F918" s="25">
-        <v>0</v>
-      </c>
-      <c r="G918" s="25">
+      <c r="F918" s="9">
+        <v>0</v>
+      </c>
+      <c r="G918" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:7">
-      <c r="A919" s="22" t="s">
+      <c r="A919" s="4" t="s">
         <v>1590</v>
       </c>
-      <c r="B919" s="22" t="s">
+      <c r="B919" s="4" t="s">
         <v>1591</v>
       </c>
-      <c r="C919" s="22" t="s">
+      <c r="C919" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D919" s="23"/>
-      <c r="E919" s="22" t="s">
+      <c r="D919" s="5"/>
+      <c r="E919" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F919" s="25">
-        <v>0</v>
-      </c>
-      <c r="G919" s="25">
+      <c r="F919" s="9">
+        <v>0</v>
+      </c>
+      <c r="G919" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:7">
-      <c r="A920" s="22" t="s">
+      <c r="A920" s="4" t="s">
         <v>1592</v>
       </c>
-      <c r="B920" s="23" t="s">
+      <c r="B920" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="C920" s="23" t="s">
+      <c r="C920" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="D920" s="22" t="s">
+      <c r="D920" s="4" t="s">
         <v>1594</v>
       </c>
-      <c r="E920" s="23" t="s">
+      <c r="E920" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="F920" s="25">
-        <v>0</v>
-      </c>
-      <c r="G920" s="25">
+      <c r="F920" s="9">
+        <v>0</v>
+      </c>
+      <c r="G920" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="921" ht="14.25" spans="1:7">
-      <c r="A921" s="35" t="s">
+      <c r="A921" s="26" t="s">
         <v>1595</v>
       </c>
-      <c r="B921" s="35" t="s">
+      <c r="B921" s="26" t="s">
         <v>1596</v>
       </c>
-      <c r="C921" s="22" t="s">
+      <c r="C921" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D921" s="36" t="s">
+      <c r="D921" s="27" t="s">
         <v>1597</v>
       </c>
-      <c r="E921" s="22" t="s">
+      <c r="E921" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F921" s="25">
-        <v>0</v>
-      </c>
-      <c r="G921" s="25">
+      <c r="F921" s="9">
+        <v>0</v>
+      </c>
+      <c r="G921" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:7">
-      <c r="A922" s="35" t="s">
+      <c r="A922" s="26" t="s">
         <v>1598</v>
       </c>
-      <c r="B922" s="22" t="s">
+      <c r="B922" s="4" t="s">
         <v>1599</v>
       </c>
-      <c r="C922" s="22" t="s">
+      <c r="C922" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D922" s="23"/>
-      <c r="E922" s="22" t="s">
+      <c r="D922" s="5"/>
+      <c r="E922" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F922" s="25">
-        <v>0</v>
-      </c>
-      <c r="G922" s="25">
+      <c r="F922" s="9">
+        <v>0</v>
+      </c>
+      <c r="G922" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:7">
-      <c r="A923" s="22" t="s">
+      <c r="A923" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="B923" s="22" t="s">
+      <c r="B923" s="4" t="s">
         <v>1601</v>
       </c>
-      <c r="C923" s="22" t="s">
+      <c r="C923" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D923" s="22" t="s">
+      <c r="D923" s="4" t="s">
         <v>1602</v>
       </c>
-      <c r="E923" s="22" t="s">
+      <c r="E923" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F923" s="25">
-        <v>0</v>
-      </c>
-      <c r="G923" s="25">
+      <c r="F923" s="9">
+        <v>0</v>
+      </c>
+      <c r="G923" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:7">
-      <c r="A924" s="22" t="s">
+      <c r="A924" s="4" t="s">
         <v>1603</v>
       </c>
-      <c r="B924" s="22" t="s">
+      <c r="B924" s="4" t="s">
         <v>1604</v>
       </c>
-      <c r="C924" s="22" t="s">
+      <c r="C924" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D924" s="22" t="s">
+      <c r="D924" s="4" t="s">
         <v>1605</v>
       </c>
-      <c r="E924" s="22" t="s">
+      <c r="E924" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F924" s="25">
-        <v>0</v>
-      </c>
-      <c r="G924" s="25">
+      <c r="F924" s="9">
+        <v>0</v>
+      </c>
+      <c r="G924" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:7">
-      <c r="A925" s="22" t="s">
+      <c r="A925" s="4" t="s">
         <v>1606</v>
       </c>
-      <c r="B925" s="22" t="s">
+      <c r="B925" s="4" t="s">
         <v>1607</v>
       </c>
-      <c r="C925" s="22" t="s">
+      <c r="C925" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D925" s="22" t="s">
+      <c r="D925" s="4" t="s">
         <v>1608</v>
       </c>
-      <c r="E925" s="22" t="s">
+      <c r="E925" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F925" s="25">
-        <v>0</v>
-      </c>
-      <c r="G925" s="25">
+      <c r="F925" s="9">
+        <v>0</v>
+      </c>
+      <c r="G925" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:7">
-      <c r="A926" s="22" t="s">
+      <c r="A926" s="4" t="s">
         <v>1609</v>
       </c>
-      <c r="B926" s="22" t="s">
+      <c r="B926" s="4" t="s">
         <v>1519</v>
       </c>
-      <c r="C926" s="22" t="s">
+      <c r="C926" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D926" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E926" s="22" t="s">
+      <c r="D926" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E926" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F926" s="25">
-        <v>0</v>
-      </c>
-      <c r="G926" s="25">
+      <c r="F926" s="9">
+        <v>0</v>
+      </c>
+      <c r="G926" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:7">
-      <c r="A927" s="22" t="s">
+      <c r="A927" s="4" t="s">
         <v>1610</v>
       </c>
-      <c r="B927" s="23" t="s">
+      <c r="B927" s="5" t="s">
         <v>1611</v>
       </c>
-      <c r="C927" s="22" t="s">
+      <c r="C927" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D927" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E927" s="22" t="s">
+      <c r="D927" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E927" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F927" s="25">
-        <v>0</v>
-      </c>
-      <c r="G927" s="25">
+      <c r="F927" s="9">
+        <v>0</v>
+      </c>
+      <c r="G927" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:7">
-      <c r="A928" s="23" t="s">
+      <c r="A928" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="B928" s="22" t="s">
+      <c r="B928" s="4" t="s">
         <v>1613</v>
       </c>
-      <c r="C928" s="22" t="s">
+      <c r="C928" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D928" s="22" t="s">
+      <c r="D928" s="4" t="s">
         <v>1602</v>
       </c>
-      <c r="E928" s="22" t="s">
+      <c r="E928" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F928" s="25">
-        <v>0</v>
-      </c>
-      <c r="G928" s="25">
+      <c r="F928" s="9">
+        <v>0</v>
+      </c>
+      <c r="G928" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:7">
-      <c r="A929" s="22" t="s">
+      <c r="A929" s="4" t="s">
         <v>1614</v>
       </c>
-      <c r="B929" s="22" t="s">
+      <c r="B929" s="4" t="s">
         <v>1615</v>
       </c>
-      <c r="C929" s="22" t="s">
+      <c r="C929" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D929" s="22" t="s">
+      <c r="D929" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="E929" s="22" t="s">
+      <c r="E929" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F929" s="25">
+      <c r="F929" s="9">
         <v>1</v>
       </c>
-      <c r="G929" s="25">
+      <c r="G929" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:7">
-      <c r="A930" s="23" t="s">
+      <c r="A930" s="5" t="s">
         <v>1617</v>
       </c>
-      <c r="B930" s="23" t="s">
+      <c r="B930" s="5" t="s">
         <v>1618</v>
       </c>
-      <c r="C930" s="23" t="s">
+      <c r="C930" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="D930" s="23" t="s">
+      <c r="D930" s="5" t="s">
         <v>1619</v>
       </c>
-      <c r="E930" s="23" t="s">
+      <c r="E930" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="F930" s="25">
+      <c r="F930" s="9">
         <v>1</v>
       </c>
-      <c r="G930" s="25">
+      <c r="G930" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:7">
-      <c r="A931" s="22" t="s">
+      <c r="A931" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="B931" s="23" t="s">
+      <c r="B931" s="5" t="s">
         <v>1621</v>
       </c>
-      <c r="C931" s="22" t="s">
+      <c r="C931" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D931" s="23"/>
-      <c r="E931" s="22" t="s">
+      <c r="D931" s="5"/>
+      <c r="E931" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F931" s="25">
-        <v>0</v>
-      </c>
-      <c r="G931" s="25">
+      <c r="F931" s="9">
+        <v>0</v>
+      </c>
+      <c r="G931" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:7">
-      <c r="A932" s="22" t="s">
+      <c r="A932" s="4" t="s">
         <v>1622</v>
       </c>
-      <c r="B932" s="23" t="s">
+      <c r="B932" s="5" t="s">
         <v>1623</v>
       </c>
-      <c r="C932" s="22" t="s">
+      <c r="C932" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D932" s="23"/>
-      <c r="E932" s="22" t="s">
+      <c r="D932" s="5"/>
+      <c r="E932" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F932" s="25">
-        <v>0</v>
-      </c>
-      <c r="G932" s="25">
+      <c r="F932" s="9">
+        <v>0</v>
+      </c>
+      <c r="G932" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:7">
-      <c r="A933" s="22" t="s">
+      <c r="A933" s="4" t="s">
         <v>1624</v>
       </c>
-      <c r="B933" s="22" t="s">
+      <c r="B933" s="4" t="s">
         <v>1519</v>
       </c>
-      <c r="C933" s="22" t="s">
+      <c r="C933" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D933" s="23"/>
-      <c r="E933" s="22" t="s">
+      <c r="D933" s="5"/>
+      <c r="E933" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F933" s="25">
-        <v>0</v>
-      </c>
-      <c r="G933" s="25">
+      <c r="F933" s="9">
+        <v>0</v>
+      </c>
+      <c r="G933" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:7">
-      <c r="A934" s="22" t="s">
+      <c r="A934" s="4" t="s">
         <v>1625</v>
       </c>
-      <c r="B934" s="22" t="s">
+      <c r="B934" s="4" t="s">
         <v>1618</v>
       </c>
-      <c r="C934" s="22" t="s">
+      <c r="C934" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D934" s="22" t="s">
+      <c r="D934" s="4" t="s">
         <v>1626</v>
       </c>
-      <c r="E934" s="22" t="s">
+      <c r="E934" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F934" s="25">
-        <v>0</v>
-      </c>
-      <c r="G934" s="25">
+      <c r="F934" s="9">
+        <v>0</v>
+      </c>
+      <c r="G934" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:7">
-      <c r="A935" s="23" t="s">
+      <c r="A935" s="5" t="s">
         <v>1627</v>
       </c>
-      <c r="B935" s="22" t="s">
+      <c r="B935" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="C935" s="22" t="s">
+      <c r="C935" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D935" s="23"/>
-      <c r="E935" s="22" t="s">
+      <c r="D935" s="5"/>
+      <c r="E935" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F935" s="25">
-        <v>0</v>
-      </c>
-      <c r="G935" s="25">
+      <c r="F935" s="9">
+        <v>0</v>
+      </c>
+      <c r="G935" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:7">
-      <c r="A936" s="22" t="s">
+      <c r="A936" s="28" t="s">
         <v>1629</v>
       </c>
-      <c r="B936" s="23" t="s">
+      <c r="B936" s="28" t="s">
         <v>1630</v>
       </c>
-      <c r="C936" s="22" t="s">
+      <c r="C936" s="28" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D936" s="28" t="s">
         <v>1631</v>
       </c>
-      <c r="D936" s="23"/>
-      <c r="E936" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F936" s="25">
-        <v>0</v>
-      </c>
-      <c r="G936" s="25">
+      <c r="E936" s="28" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F936" s="30">
+        <v>0</v>
+      </c>
+      <c r="G936" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:7">
-      <c r="A937" s="22" t="s">
+      <c r="A937" s="28" t="s">
         <v>1632</v>
       </c>
-      <c r="B937" s="23" t="s">
+      <c r="B937" s="29" t="s">
         <v>1633</v>
       </c>
-      <c r="C937" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D937" s="22" t="s">
+      <c r="C937" s="28" t="s">
         <v>1634</v>
       </c>
-      <c r="E937" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F937" s="25">
-        <v>0</v>
-      </c>
-      <c r="G937" s="25">
+      <c r="D937" s="29"/>
+      <c r="E937" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F937" s="30">
+        <v>0</v>
+      </c>
+      <c r="G937" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:7">
-      <c r="A938" s="22" t="s">
+      <c r="A938" s="28" t="s">
         <v>1635</v>
       </c>
-      <c r="B938" s="23" t="s">
+      <c r="B938" s="29" t="s">
         <v>1636</v>
       </c>
-      <c r="C938" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D938" s="22" t="s">
+      <c r="C938" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D938" s="28" t="s">
         <v>1637</v>
       </c>
-      <c r="E938" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F938" s="26">
-        <v>0</v>
-      </c>
-      <c r="G938" s="25">
+      <c r="E938" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F938" s="30">
+        <v>0</v>
+      </c>
+      <c r="G938" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:7">
-      <c r="A939" s="22" t="s">
+      <c r="A939" s="28" t="s">
         <v>1638</v>
       </c>
-      <c r="B939" s="22" t="s">
+      <c r="B939" s="29" t="s">
         <v>1639</v>
       </c>
-      <c r="C939" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D939" s="22" t="s">
+      <c r="C939" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D939" s="28" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E939" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F939" s="31">
+        <v>0</v>
+      </c>
+      <c r="G939" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7">
+      <c r="A940" s="28" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B940" s="28" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C940" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D940" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E939" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F939" s="26">
-        <v>0</v>
-      </c>
-      <c r="G939" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="940" spans="1:7">
-      <c r="A940" s="22" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B940" s="22" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C940" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D940" s="23"/>
-      <c r="E940" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F940" s="26">
-        <v>0</v>
-      </c>
-      <c r="G940" s="25">
+      <c r="E940" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F940" s="31">
+        <v>0</v>
+      </c>
+      <c r="G940" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:7">
-      <c r="A941" s="22" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B941" s="22" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C941" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D941" s="23"/>
-      <c r="E941" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F941" s="25">
-        <v>0</v>
-      </c>
-      <c r="G941" s="25">
+      <c r="A941" s="28" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B941" s="28" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C941" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D941" s="29"/>
+      <c r="E941" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F941" s="31">
+        <v>0</v>
+      </c>
+      <c r="G941" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:7">
-      <c r="A942" s="22" t="s">
+      <c r="A942" s="28" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B942" s="28" t="s">
         <v>1642</v>
       </c>
-      <c r="B942" s="22" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C942" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D942" s="23"/>
-      <c r="E942" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F942" s="26">
-        <v>0</v>
-      </c>
-      <c r="G942" s="25">
+      <c r="C942" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D942" s="29"/>
+      <c r="E942" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F942" s="30">
+        <v>0</v>
+      </c>
+      <c r="G942" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:7">
-      <c r="A943" s="22" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B943" s="23" t="s">
+      <c r="A943" s="28" t="s">
         <v>1645</v>
       </c>
-      <c r="C943" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D943" s="23"/>
-      <c r="E943" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F943" s="25">
-        <v>0</v>
-      </c>
-      <c r="G943" s="25">
+      <c r="B943" s="28" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C943" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D943" s="29"/>
+      <c r="E943" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F943" s="31">
+        <v>0</v>
+      </c>
+      <c r="G943" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:7">
-      <c r="A944" s="22" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B944" s="22" t="s">
+      <c r="A944" s="28" t="s">
         <v>1647</v>
       </c>
-      <c r="C944" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D944" s="23"/>
-      <c r="E944" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F944" s="26">
-        <v>0</v>
-      </c>
-      <c r="G944" s="25">
+      <c r="B944" s="29" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C944" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D944" s="29"/>
+      <c r="E944" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F944" s="30">
+        <v>0</v>
+      </c>
+      <c r="G944" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:7">
-      <c r="A945" s="22" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B945" s="23" t="s">
+      <c r="A945" s="28" t="s">
         <v>1649</v>
       </c>
-      <c r="C945" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D945" s="23"/>
-      <c r="E945" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F945" s="26">
-        <v>0</v>
-      </c>
-      <c r="G945" s="25">
+      <c r="B945" s="28" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C945" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D945" s="29"/>
+      <c r="E945" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F945" s="31">
+        <v>0</v>
+      </c>
+      <c r="G945" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:7">
-      <c r="A946" s="22" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B946" s="23" t="s">
+      <c r="A946" s="28" t="s">
         <v>1651</v>
       </c>
-      <c r="C946" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D946" s="23"/>
-      <c r="E946" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F946" s="26">
-        <v>0</v>
-      </c>
-      <c r="G946" s="25">
+      <c r="B946" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C946" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D946" s="29"/>
+      <c r="E946" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F946" s="31">
+        <v>0</v>
+      </c>
+      <c r="G946" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:7">
-      <c r="A947" s="22" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B947" s="23" t="s">
+      <c r="A947" s="28" t="s">
         <v>1653</v>
       </c>
-      <c r="C947" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D947" s="22" t="s">
+      <c r="B947" s="29" t="s">
         <v>1654</v>
       </c>
-      <c r="E947" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F947" s="25">
-        <v>0</v>
-      </c>
-      <c r="G947" s="25">
+      <c r="C947" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D947" s="29"/>
+      <c r="E947" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F947" s="31">
+        <v>0</v>
+      </c>
+      <c r="G947" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:7">
-      <c r="A948" s="22" t="s">
+      <c r="A948" s="28" t="s">
         <v>1655</v>
       </c>
-      <c r="B948" s="23" t="s">
+      <c r="B948" s="29" t="s">
         <v>1656</v>
       </c>
-      <c r="C948" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D948" s="23"/>
-      <c r="E948" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F948" s="26">
-        <v>0</v>
-      </c>
-      <c r="G948" s="25">
+      <c r="C948" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D948" s="28" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E948" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F948" s="30">
+        <v>0</v>
+      </c>
+      <c r="G948" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:7">
-      <c r="A949" s="22" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B949" s="23" t="s">
+      <c r="A949" s="28" t="s">
         <v>1658</v>
       </c>
-      <c r="C949" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D949" s="23"/>
-      <c r="E949" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F949" s="25">
-        <v>0</v>
-      </c>
-      <c r="G949" s="25">
+      <c r="B949" s="29" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C949" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D949" s="29"/>
+      <c r="E949" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F949" s="31">
+        <v>0</v>
+      </c>
+      <c r="G949" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:7">
-      <c r="A950" s="22" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B950" s="23" t="s">
+      <c r="A950" s="28" t="s">
         <v>1660</v>
       </c>
-      <c r="C950" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D950" s="23"/>
-      <c r="E950" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F950" s="26">
-        <v>0</v>
-      </c>
-      <c r="G950" s="25">
+      <c r="B950" s="29" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C950" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D950" s="29"/>
+      <c r="E950" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F950" s="30">
+        <v>0</v>
+      </c>
+      <c r="G950" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:7">
-      <c r="A951" s="22" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B951" s="23" t="s">
+      <c r="A951" s="28" t="s">
         <v>1662</v>
       </c>
-      <c r="C951" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D951" s="23" t="s">
+      <c r="B951" s="29" t="s">
         <v>1663</v>
       </c>
-      <c r="E951" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F951" s="26">
-        <v>0</v>
-      </c>
-      <c r="G951" s="25">
+      <c r="C951" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D951" s="29"/>
+      <c r="E951" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F951" s="31">
+        <v>0</v>
+      </c>
+      <c r="G951" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:7">
-      <c r="A952" s="22" t="s">
+      <c r="A952" s="28" t="s">
         <v>1664</v>
       </c>
-      <c r="B952" s="22" t="s">
+      <c r="B952" s="29" t="s">
         <v>1665</v>
       </c>
-      <c r="C952" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D952" s="23"/>
-      <c r="E952" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F952" s="26">
-        <v>0</v>
-      </c>
-      <c r="G952" s="25">
+      <c r="C952" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D952" s="29" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E952" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F952" s="31">
+        <v>0</v>
+      </c>
+      <c r="G952" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:7">
-      <c r="A953" s="22" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B953" s="22" t="s">
+      <c r="A953" s="28" t="s">
         <v>1667</v>
       </c>
-      <c r="C953" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D953" s="23"/>
-      <c r="E953" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F953" s="26">
-        <v>0</v>
-      </c>
-      <c r="G953" s="25">
+      <c r="B953" s="28" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C953" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D953" s="29"/>
+      <c r="E953" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F953" s="31">
+        <v>0</v>
+      </c>
+      <c r="G953" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:7">
-      <c r="A954" s="22" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B954" s="22" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C954" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D954" s="23"/>
-      <c r="E954" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F954" s="25">
-        <v>0</v>
-      </c>
-      <c r="G954" s="25">
+      <c r="A954" s="28" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B954" s="28" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C954" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D954" s="29"/>
+      <c r="E954" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F954" s="31">
+        <v>0</v>
+      </c>
+      <c r="G954" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:7">
-      <c r="A955" s="22" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B955" s="23" t="s">
+      <c r="A955" s="28" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B955" s="28" t="s">
         <v>1670</v>
       </c>
-      <c r="C955" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D955" s="22" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E955" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F955" s="25">
-        <v>0</v>
-      </c>
-      <c r="G955" s="25">
+      <c r="C955" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D955" s="29"/>
+      <c r="E955" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F955" s="30">
+        <v>0</v>
+      </c>
+      <c r="G955" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:7">
-      <c r="A956" s="22" t="s">
+      <c r="A956" s="28" t="s">
         <v>1672</v>
       </c>
-      <c r="B956" s="23" t="s">
+      <c r="B956" s="29" t="s">
         <v>1673</v>
       </c>
-      <c r="C956" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D956" s="23"/>
-      <c r="E956" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F956" s="26">
-        <v>0</v>
-      </c>
-      <c r="G956" s="25">
+      <c r="C956" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D956" s="28" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E956" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F956" s="30">
+        <v>0</v>
+      </c>
+      <c r="G956" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:7">
-      <c r="A957" s="22" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B957" s="23" t="s">
+      <c r="A957" s="28" t="s">
         <v>1675</v>
       </c>
-      <c r="C957" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D957" s="23"/>
-      <c r="E957" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F957" s="25">
-        <v>0</v>
-      </c>
-      <c r="G957" s="25">
+      <c r="B957" s="29" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C957" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D957" s="29"/>
+      <c r="E957" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F957" s="31">
+        <v>0</v>
+      </c>
+      <c r="G957" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:7">
-      <c r="A958" s="22" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B958" s="23" t="s">
+      <c r="A958" s="28" t="s">
         <v>1677</v>
       </c>
-      <c r="C958" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D958" s="23"/>
-      <c r="E958" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F958" s="26">
-        <v>0</v>
-      </c>
-      <c r="G958" s="25">
+      <c r="B958" s="29" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C958" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D958" s="29"/>
+      <c r="E958" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F958" s="30">
+        <v>0</v>
+      </c>
+      <c r="G958" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:7">
-      <c r="A959" s="22" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B959" s="23" t="s">
+      <c r="A959" s="28" t="s">
         <v>1679</v>
       </c>
-      <c r="C959" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D959" s="22" t="s">
+      <c r="B959" s="29" t="s">
         <v>1680</v>
       </c>
-      <c r="E959" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F959" s="26">
-        <v>0</v>
-      </c>
-      <c r="G959" s="25">
+      <c r="C959" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D959" s="29"/>
+      <c r="E959" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F959" s="31">
+        <v>0</v>
+      </c>
+      <c r="G959" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:7">
-      <c r="A960" s="22" t="s">
+      <c r="A960" s="28" t="s">
         <v>1681</v>
       </c>
-      <c r="B960" s="23" t="s">
+      <c r="B960" s="29" t="s">
         <v>1682</v>
       </c>
-      <c r="C960" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D960" s="23"/>
-      <c r="E960" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F960" s="26">
-        <v>0</v>
-      </c>
-      <c r="G960" s="25">
+      <c r="C960" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D960" s="28" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E960" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F960" s="31">
+        <v>0</v>
+      </c>
+      <c r="G960" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:7">
-      <c r="A961" s="22" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B961" s="23" t="s">
+      <c r="A961" s="28" t="s">
         <v>1684</v>
       </c>
-      <c r="C961" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D961" s="23" t="s">
+      <c r="B961" s="29" t="s">
         <v>1685</v>
       </c>
-      <c r="E961" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F961" s="25">
-        <v>0</v>
-      </c>
-      <c r="G961" s="25">
+      <c r="C961" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D961" s="29"/>
+      <c r="E961" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F961" s="31">
+        <v>0</v>
+      </c>
+      <c r="G961" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:7">
-      <c r="A962" s="23" t="s">
+      <c r="A962" s="28" t="s">
         <v>1686</v>
       </c>
-      <c r="B962" s="31" t="s">
+      <c r="B962" s="29" t="s">
         <v>1687</v>
       </c>
-      <c r="C962" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D962" s="23"/>
-      <c r="E962" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F962" s="25">
-        <v>0</v>
-      </c>
-      <c r="G962" s="25">
+      <c r="C962" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D962" s="29" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E962" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F962" s="30">
+        <v>0</v>
+      </c>
+      <c r="G962" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:7">
-      <c r="A963" s="22" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B963" s="23" t="s">
+      <c r="A963" s="29" t="s">
         <v>1689</v>
       </c>
-      <c r="C963" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D963" s="23"/>
-      <c r="E963" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F963" s="25">
-        <v>0</v>
-      </c>
-      <c r="G963" s="25">
+      <c r="B963" s="32" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C963" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D963" s="29"/>
+      <c r="E963" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F963" s="30">
+        <v>0</v>
+      </c>
+      <c r="G963" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:7">
-      <c r="A964" s="22" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B964" s="23" t="s">
+      <c r="A964" s="28" t="s">
         <v>1691</v>
       </c>
-      <c r="C964" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D964" s="23"/>
-      <c r="E964" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F964" s="26">
-        <v>0</v>
-      </c>
-      <c r="G964" s="25">
+      <c r="B964" s="29" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C964" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D964" s="29"/>
+      <c r="E964" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F964" s="30">
+        <v>0</v>
+      </c>
+      <c r="G964" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:7">
-      <c r="A965" s="22" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B965" s="23" t="s">
+      <c r="A965" s="28" t="s">
         <v>1693</v>
       </c>
-      <c r="C965" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D965" s="23"/>
-      <c r="E965" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F965" s="25">
-        <v>0</v>
-      </c>
-      <c r="G965" s="25">
+      <c r="B965" s="29" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C965" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D965" s="29"/>
+      <c r="E965" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F965" s="31">
+        <v>0</v>
+      </c>
+      <c r="G965" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:7">
-      <c r="A966" s="22" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B966" s="22" t="s">
+      <c r="A966" s="28" t="s">
         <v>1695</v>
       </c>
-      <c r="C966" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D966" s="23"/>
-      <c r="E966" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F966" s="25">
-        <v>0</v>
-      </c>
-      <c r="G966" s="25">
+      <c r="B966" s="29" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C966" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D966" s="29"/>
+      <c r="E966" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F966" s="30">
+        <v>0</v>
+      </c>
+      <c r="G966" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:7">
-      <c r="A967" s="22" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B967" s="23" t="s">
+      <c r="A967" s="28" t="s">
         <v>1697</v>
       </c>
-      <c r="C967" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D967" s="22" t="s">
+      <c r="B967" s="28" t="s">
         <v>1698</v>
       </c>
-      <c r="E967" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F967" s="26">
-        <v>0</v>
-      </c>
-      <c r="G967" s="25">
+      <c r="C967" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D967" s="29"/>
+      <c r="E967" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F967" s="30">
+        <v>0</v>
+      </c>
+      <c r="G967" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:7">
-      <c r="A968" s="22" t="s">
+      <c r="A968" s="28" t="s">
         <v>1699</v>
       </c>
-      <c r="B968" s="22" t="s">
+      <c r="B968" s="29" t="s">
         <v>1700</v>
       </c>
-      <c r="C968" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D968" s="23"/>
-      <c r="E968" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F968" s="25">
-        <v>0</v>
-      </c>
-      <c r="G968" s="25">
+      <c r="C968" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D968" s="28" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E968" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F968" s="31">
+        <v>0</v>
+      </c>
+      <c r="G968" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:7">
-      <c r="A969" s="22" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B969" s="23" t="s">
+      <c r="A969" s="28" t="s">
         <v>1702</v>
       </c>
-      <c r="C969" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D969" s="23"/>
-      <c r="E969" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F969" s="25">
-        <v>0</v>
-      </c>
-      <c r="G969" s="25">
+      <c r="B969" s="28" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C969" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D969" s="29"/>
+      <c r="E969" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F969" s="30">
+        <v>0</v>
+      </c>
+      <c r="G969" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:7">
-      <c r="A970" s="22" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B970" s="22" t="s">
+      <c r="A970" s="28" t="s">
         <v>1704</v>
       </c>
-      <c r="C970" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D970" s="23"/>
-      <c r="E970" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F970" s="25">
-        <v>0</v>
-      </c>
-      <c r="G970" s="25">
+      <c r="B970" s="29" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C970" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D970" s="29"/>
+      <c r="E970" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F970" s="30">
+        <v>0</v>
+      </c>
+      <c r="G970" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:7">
-      <c r="A971" s="22" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B971" s="23" t="s">
+      <c r="A971" s="28" t="s">
         <v>1706</v>
       </c>
-      <c r="C971" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D971" s="23"/>
-      <c r="E971" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F971" s="25">
-        <v>0</v>
-      </c>
-      <c r="G971" s="25">
+      <c r="B971" s="28" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C971" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D971" s="29"/>
+      <c r="E971" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F971" s="30">
+        <v>0</v>
+      </c>
+      <c r="G971" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:7">
-      <c r="A972" s="22" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B972" s="23" t="s">
+      <c r="A972" s="28" t="s">
         <v>1708</v>
       </c>
-      <c r="C972" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D972" s="23"/>
-      <c r="E972" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F972" s="26">
-        <v>0</v>
-      </c>
-      <c r="G972" s="25">
+      <c r="B972" s="29" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C972" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D972" s="29"/>
+      <c r="E972" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F972" s="30">
+        <v>0</v>
+      </c>
+      <c r="G972" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:7">
-      <c r="A973" s="22" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B973" s="22" t="s">
+      <c r="A973" s="28" t="s">
         <v>1710</v>
       </c>
-      <c r="C973" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D973" s="22"/>
-      <c r="E973" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F973" s="26">
-        <v>0</v>
-      </c>
-      <c r="G973" s="25">
+      <c r="B973" s="29" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C973" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D973" s="29"/>
+      <c r="E973" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F973" s="31">
+        <v>0</v>
+      </c>
+      <c r="G973" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:7">
-      <c r="A974" s="22" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B974" s="22" t="s">
+      <c r="A974" s="28" t="s">
         <v>1712</v>
       </c>
-      <c r="C974" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D974" s="23"/>
-      <c r="E974" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F974" s="26">
-        <v>0</v>
-      </c>
-      <c r="G974" s="25">
+      <c r="B974" s="28" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C974" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D974" s="28"/>
+      <c r="E974" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F974" s="31">
+        <v>0</v>
+      </c>
+      <c r="G974" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:7">
-      <c r="A975" s="22" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B975" s="22" t="s">
+      <c r="A975" s="28" t="s">
         <v>1714</v>
       </c>
-      <c r="C975" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D975" s="23"/>
-      <c r="E975" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F975" s="25">
-        <v>0</v>
-      </c>
-      <c r="G975" s="25">
+      <c r="B975" s="28" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C975" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D975" s="29"/>
+      <c r="E975" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F975" s="31">
+        <v>0</v>
+      </c>
+      <c r="G975" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:7">
-      <c r="A976" s="22" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B976" s="23" t="s">
+      <c r="A976" s="28" t="s">
         <v>1716</v>
       </c>
-      <c r="C976" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D976" s="23"/>
-      <c r="E976" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F976" s="25">
-        <v>0</v>
-      </c>
-      <c r="G976" s="25">
+      <c r="B976" s="28" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C976" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D976" s="29"/>
+      <c r="E976" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F976" s="30">
+        <v>0</v>
+      </c>
+      <c r="G976" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:7">
-      <c r="A977" s="37" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B977" s="38" t="s">
+      <c r="A977" s="28" t="s">
         <v>1718</v>
       </c>
-      <c r="C977" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D977" s="23"/>
-      <c r="E977" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F977" s="26">
-        <v>0</v>
-      </c>
-      <c r="G977" s="25">
+      <c r="B977" s="29" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C977" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D977" s="29"/>
+      <c r="E977" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F977" s="30">
+        <v>0</v>
+      </c>
+      <c r="G977" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:7">
-      <c r="A978" s="39" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B978" s="22" t="s">
+      <c r="A978" s="33" t="s">
         <v>1720</v>
       </c>
-      <c r="C978" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D978" s="22" t="s">
+      <c r="B978" s="34" t="s">
         <v>1721</v>
       </c>
-      <c r="E978" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F978" s="26">
-        <v>0</v>
-      </c>
-      <c r="G978" s="25">
+      <c r="C978" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D978" s="29"/>
+      <c r="E978" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F978" s="31">
+        <v>0</v>
+      </c>
+      <c r="G978" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:7">
-      <c r="A979" s="22" t="s">
+      <c r="A979" s="35" t="s">
         <v>1722</v>
       </c>
-      <c r="B979" s="23" t="s">
+      <c r="B979" s="28" t="s">
         <v>1723</v>
       </c>
-      <c r="C979" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D979" s="23"/>
-      <c r="E979" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F979" s="25">
-        <v>0</v>
-      </c>
-      <c r="G979" s="25">
+      <c r="C979" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D979" s="28" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E979" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F979" s="31">
+        <v>0</v>
+      </c>
+      <c r="G979" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:7">
-      <c r="A980" s="22" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B980" s="23" t="s">
+      <c r="A980" s="28" t="s">
         <v>1725</v>
       </c>
-      <c r="C980" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D980" s="23"/>
-      <c r="E980" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F980" s="26">
-        <v>0</v>
-      </c>
-      <c r="G980" s="25">
+      <c r="B980" s="29" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C980" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D980" s="29"/>
+      <c r="E980" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F980" s="30">
+        <v>0</v>
+      </c>
+      <c r="G980" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:7">
-      <c r="A981" s="22" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B981" s="23" t="s">
+      <c r="A981" s="28" t="s">
         <v>1727</v>
       </c>
-      <c r="C981" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D981" s="23"/>
-      <c r="E981" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F981" s="25">
-        <v>0</v>
-      </c>
-      <c r="G981" s="25">
+      <c r="B981" s="29" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C981" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D981" s="29"/>
+      <c r="E981" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F981" s="31">
+        <v>0</v>
+      </c>
+      <c r="G981" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:7">
-      <c r="A982" s="22" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B982" s="22" t="s">
+      <c r="A982" s="28" t="s">
         <v>1729</v>
       </c>
-      <c r="C982" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D982" s="23"/>
-      <c r="E982" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F982" s="26">
-        <v>0</v>
-      </c>
-      <c r="G982" s="25">
+      <c r="B982" s="29" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C982" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D982" s="29"/>
+      <c r="E982" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F982" s="30">
+        <v>0</v>
+      </c>
+      <c r="G982" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:7">
-      <c r="A983" s="22" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B983" s="23" t="s">
+      <c r="A983" s="28" t="s">
         <v>1731</v>
       </c>
-      <c r="C983" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D983" s="23"/>
-      <c r="E983" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F983" s="26">
-        <v>0</v>
-      </c>
-      <c r="G983" s="25">
+      <c r="B983" s="28" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C983" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D983" s="29"/>
+      <c r="E983" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F983" s="31">
+        <v>0</v>
+      </c>
+      <c r="G983" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:7">
-      <c r="A984" s="22" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B984" s="22" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C984" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D984" s="22" t="s">
+      <c r="A984" s="28" t="s">
         <v>1733</v>
       </c>
-      <c r="E984" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F984" s="25">
-        <v>0</v>
-      </c>
-      <c r="G984" s="25">
+      <c r="B984" s="29" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C984" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D984" s="29"/>
+      <c r="E984" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F984" s="31">
+        <v>0</v>
+      </c>
+      <c r="G984" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:7">
-      <c r="A985" s="22" t="s">
+      <c r="A985" s="28" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B985" s="28" t="s">
         <v>1734</v>
       </c>
-      <c r="B985" s="23" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C985" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D985" s="23"/>
-      <c r="E985" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F985" s="25">
-        <v>0</v>
-      </c>
-      <c r="G985" s="25">
+      <c r="C985" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D985" s="28" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E985" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F985" s="30">
+        <v>0</v>
+      </c>
+      <c r="G985" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:7">
-      <c r="A986" s="22" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B986" s="22" t="s">
+      <c r="A986" s="28" t="s">
         <v>1737</v>
       </c>
-      <c r="C986" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D986" s="23"/>
-      <c r="E986" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F986" s="25">
-        <v>0</v>
-      </c>
-      <c r="G986" s="25">
+      <c r="B986" s="29" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C986" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D986" s="29"/>
+      <c r="E986" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F986" s="30">
+        <v>0</v>
+      </c>
+      <c r="G986" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:7">
-      <c r="A987" s="22" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B987" s="22" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C987" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D987" s="22" t="s">
+      <c r="A987" s="28" t="s">
         <v>1739</v>
       </c>
-      <c r="E987" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F987" s="25">
-        <v>0</v>
-      </c>
-      <c r="G987" s="25">
+      <c r="B987" s="28" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C987" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D987" s="29"/>
+      <c r="E987" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F987" s="30">
+        <v>0</v>
+      </c>
+      <c r="G987" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:7">
-      <c r="A988" s="22" t="s">
+      <c r="A988" s="28" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B988" s="28" t="s">
         <v>1740</v>
       </c>
-      <c r="B988" s="22" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C988" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D988" s="22" t="s">
+      <c r="C988" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D988" s="28" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E988" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F988" s="30">
+        <v>0</v>
+      </c>
+      <c r="G988" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="28" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B989" s="28" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C989" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D989" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E988" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F988" s="26">
-        <v>0</v>
-      </c>
-      <c r="G988" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="989" spans="1:7">
-      <c r="A989" s="22" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B989" s="22" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C989" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D989" s="22" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E989" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F989" s="26">
-        <v>0</v>
-      </c>
-      <c r="G989" s="25">
+      <c r="E989" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F989" s="31">
+        <v>0</v>
+      </c>
+      <c r="G989" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:7">
-      <c r="A990" s="23" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B990" s="22" t="s">
+      <c r="A990" s="28" t="s">
         <v>1744</v>
       </c>
-      <c r="C990" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D990" s="23"/>
-      <c r="E990" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F990" s="26">
-        <v>0</v>
-      </c>
-      <c r="G990" s="25">
+      <c r="B990" s="28" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C990" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D990" s="28" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E990" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F990" s="31">
+        <v>0</v>
+      </c>
+      <c r="G990" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:7">
-      <c r="A991" s="22" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B991" s="22" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C991" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D991" s="22" t="s">
+      <c r="A991" s="29" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B991" s="28" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C991" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D991" s="29"/>
+      <c r="E991" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F991" s="31">
+        <v>0</v>
+      </c>
+      <c r="G991" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7">
+      <c r="A992" s="28" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B992" s="28" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C992" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D992" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E991" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F991" s="25">
-        <v>0</v>
-      </c>
-      <c r="G991" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="992" spans="1:7">
-      <c r="A992" s="23" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B992" s="23" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C992" s="23" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D992" s="23"/>
-      <c r="E992" s="23" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F992" s="25">
-        <v>0</v>
-      </c>
-      <c r="G992" s="25">
+      <c r="E992" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F992" s="30">
+        <v>0</v>
+      </c>
+      <c r="G992" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:7">
-      <c r="A993" s="22" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B993" s="23" t="s">
+      <c r="A993" s="29" t="s">
         <v>1749</v>
       </c>
-      <c r="C993" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D993" s="23"/>
-      <c r="E993" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F993" s="26">
-        <v>0</v>
-      </c>
-      <c r="G993" s="25">
+      <c r="B993" s="29" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C993" s="29" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D993" s="29"/>
+      <c r="E993" s="29" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F993" s="30">
+        <v>0</v>
+      </c>
+      <c r="G993" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:7">
-      <c r="A994" s="22" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B994" s="22" t="s">
+      <c r="A994" s="28" t="s">
         <v>1751</v>
       </c>
-      <c r="C994" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D994" s="22" t="s">
+      <c r="B994" s="29" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C994" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D994" s="29"/>
+      <c r="E994" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F994" s="31">
+        <v>0</v>
+      </c>
+      <c r="G994" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7">
+      <c r="A995" s="28" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B995" s="28" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C995" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D995" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E994" s="22" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F994" s="26">
-        <v>0</v>
-      </c>
-      <c r="G994" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="995" spans="1:7">
-      <c r="A995" s="22" t="s">
+      <c r="E995" s="28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F995" s="31">
+        <v>0</v>
+      </c>
+      <c r="G995" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7">
+      <c r="A996" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="B995" s="22" t="s">
+      <c r="B996" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="C995" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D995" s="23"/>
-      <c r="E995" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F995" s="26">
-        <v>0</v>
-      </c>
-      <c r="G995" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="996" spans="1:7">
-      <c r="A996" s="22" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B996" s="22" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C996" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D996" s="23"/>
-      <c r="E996" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F996" s="25">
-        <v>0</v>
-      </c>
-      <c r="G996" s="25">
+      <c r="C996" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D996" s="29"/>
+      <c r="E996" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F996" s="31">
+        <v>0</v>
+      </c>
+      <c r="G996" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:7">
-      <c r="A997" s="22" t="s">
+      <c r="A997" s="28" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B997" s="28" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C997" s="28" t="s">
         <v>1755</v>
       </c>
-      <c r="B997" s="22" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C997" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D997" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E997" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F997" s="26">
-        <v>0</v>
-      </c>
-      <c r="G997" s="25">
+      <c r="D997" s="29"/>
+      <c r="E997" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F997" s="30">
+        <v>0</v>
+      </c>
+      <c r="G997" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:7">
-      <c r="A998" s="22" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B998" s="22" t="s">
+      <c r="A998" s="28" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B998" s="28" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C998" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D998" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E998" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F998" s="31">
+        <v>0</v>
+      </c>
+      <c r="G998" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7">
+      <c r="A999" s="28" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B999" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="C998" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D998" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E998" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F998" s="26">
-        <v>0</v>
-      </c>
-      <c r="G998" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="999" spans="1:7">
-      <c r="A999" s="22" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B999" s="22" t="s">
+      <c r="C999" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D999" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E999" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F999" s="31">
+        <v>0</v>
+      </c>
+      <c r="G999" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7">
+      <c r="A1000" s="28" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1000" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C999" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D999" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E999" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F999" s="25">
-        <v>0</v>
-      </c>
-      <c r="G999" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:7">
-      <c r="A1000" s="22" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B1000" s="22" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C1000" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1000" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1000" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1000" s="26">
-        <v>0</v>
-      </c>
-      <c r="G1000" s="25">
+      <c r="C1000" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1000" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1000" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1000" s="30">
+        <v>0</v>
+      </c>
+      <c r="G1000" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
-      <c r="A1001" s="22" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B1001" s="22" t="s">
+      <c r="A1001" s="28" t="s">
         <v>1762</v>
       </c>
-      <c r="C1001" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1001" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1001" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1001" s="26">
-        <v>0</v>
-      </c>
-      <c r="G1001" s="25">
+      <c r="B1001" s="28" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C1001" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1001" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1001" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1001" s="31">
+        <v>0</v>
+      </c>
+      <c r="G1001" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:7">
-      <c r="A1002" s="22" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B1002" s="22" t="s">
+      <c r="A1002" s="28" t="s">
         <v>1764</v>
       </c>
-      <c r="C1002" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1002" s="23"/>
-      <c r="E1002" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1002" s="25">
-        <v>0</v>
-      </c>
-      <c r="G1002" s="25">
+      <c r="B1002" s="28" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1002" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1002" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1002" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1002" s="31">
+        <v>0</v>
+      </c>
+      <c r="G1002" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:7">
-      <c r="A1003" s="22" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B1003" s="23" t="s">
+      <c r="A1003" s="28" t="s">
         <v>1766</v>
       </c>
-      <c r="C1003" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1003" s="22"/>
-      <c r="E1003" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1003" s="26">
-        <v>0</v>
-      </c>
-      <c r="G1003" s="25">
+      <c r="B1003" s="28" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C1003" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1003" s="29"/>
+      <c r="E1003" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1003" s="30">
+        <v>0</v>
+      </c>
+      <c r="G1003" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:7">
-      <c r="A1004" s="22" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B1004" s="22" t="s">
+      <c r="A1004" s="28" t="s">
         <v>1768</v>
       </c>
-      <c r="C1004" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1004" s="23"/>
-      <c r="E1004" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1004" s="25">
-        <v>0</v>
-      </c>
-      <c r="G1004" s="25">
+      <c r="B1004" s="29" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1004" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1004" s="28"/>
+      <c r="E1004" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1004" s="31">
+        <v>0</v>
+      </c>
+      <c r="G1004" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:7">
-      <c r="A1005" s="22" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B1005" s="22" t="s">
+      <c r="A1005" s="28" t="s">
         <v>1770</v>
       </c>
-      <c r="C1005" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1005" s="23"/>
-      <c r="E1005" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1005" s="25">
-        <v>0</v>
-      </c>
-      <c r="G1005" s="25">
+      <c r="B1005" s="28" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1005" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1005" s="29"/>
+      <c r="E1005" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1005" s="30">
+        <v>0</v>
+      </c>
+      <c r="G1005" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:7">
-      <c r="A1006" s="22" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B1006" s="22" t="s">
+      <c r="A1006" s="28" t="s">
         <v>1772</v>
       </c>
-      <c r="C1006" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1006" s="23"/>
-      <c r="E1006" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1006" s="26">
-        <v>0</v>
-      </c>
-      <c r="G1006" s="25">
+      <c r="B1006" s="28" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1006" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1006" s="29"/>
+      <c r="E1006" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1006" s="30">
+        <v>0</v>
+      </c>
+      <c r="G1006" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:7">
-      <c r="A1007" s="22" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B1007" s="22" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C1007" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1007" s="23"/>
-      <c r="E1007" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1007" s="26">
-        <v>0</v>
-      </c>
-      <c r="G1007" s="25">
+      <c r="A1007" s="28" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1007" s="28" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1007" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1007" s="29"/>
+      <c r="E1007" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1007" s="31">
+        <v>0</v>
+      </c>
+      <c r="G1007" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:7">
-      <c r="A1008" s="22" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B1008" s="22" t="s">
+      <c r="A1008" s="28" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1008" s="28" t="s">
         <v>1775</v>
       </c>
-      <c r="C1008" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1008" s="23"/>
-      <c r="E1008" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1008" s="25">
-        <v>0</v>
-      </c>
-      <c r="G1008" s="25">
+      <c r="C1008" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1008" s="29"/>
+      <c r="E1008" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1008" s="31">
+        <v>0</v>
+      </c>
+      <c r="G1008" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:7">
-      <c r="A1009" s="22" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B1009" s="22" t="s">
+      <c r="A1009" s="28" t="s">
         <v>1777</v>
       </c>
-      <c r="C1009" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1009" s="23"/>
-      <c r="E1009" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1009" s="25">
-        <v>0</v>
-      </c>
-      <c r="G1009" s="25">
+      <c r="B1009" s="28" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1009" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1009" s="29"/>
+      <c r="E1009" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1009" s="30">
+        <v>0</v>
+      </c>
+      <c r="G1009" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:7">
-      <c r="A1010" s="22" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B1010" s="22" t="s">
+      <c r="A1010" s="28" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1010" s="28" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1010" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1010" s="29"/>
+      <c r="E1010" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1010" s="30">
+        <v>0</v>
+      </c>
+      <c r="G1010" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7">
+      <c r="A1011" s="28" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1011" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="C1010" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1010"/>
-      <c r="E1010" s="22" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F1010" s="25">
-        <v>0</v>
-      </c>
-      <c r="G1010" s="25">
+      <c r="C1011" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1011" s="29"/>
+      <c r="E1011" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1011" s="30">
+        <v>0</v>
+      </c>
+      <c r="G1011" s="30">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <sortState ref="A2:G1010">
-    <sortCondition ref="E1"/>
+  <sortState ref="A2:G1011">
+    <sortCondition ref="C1"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="F2:G1048576">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="F1011 G1011 F2:G1010 F1012:G1048576">
       <formula1>IF(TRUE,OR(F2=0,F2=1),"Checkbox")</formula1>
     </dataValidation>
   </dataValidations>
@@ -28923,8 +28943,8 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <autofilters xmlns="https://web.wps.cn/et/2018/main">
   <sheetItem sheetStid="1">
+    <filterData filterID="1331220589"/>
     <filterData filterID="1331040869"/>
-    <filterData filterID="1331220589"/>
   </sheetItem>
 </autofilters>
 </file>

--- a/music_list_7.xlsx
+++ b/music_list_7.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1008</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1023</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4600" uniqueCount="1804">
   <si>
     <t>歌名</t>
   </si>
@@ -4634,6 +4634,12 @@
     <t>アンコール/安可</t>
   </si>
   <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>《动物狂想曲》第一季OP</t>
+  </si>
+  <si>
     <t>My Friend(マイフレンド)</t>
   </si>
   <si>
@@ -4656,6 +4662,15 @@
   </si>
   <si>
     <t>煙</t>
+  </si>
+  <si>
+    <t>いけないボーダーライン/禁忌的边界线</t>
+  </si>
+  <si>
+    <t>ワルキューレ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《超时空要塞Δ》插曲 </t>
   </si>
   <si>
     <t>iB.</t>
@@ -5389,6 +5404,9 @@
     <t>威猛乐队</t>
   </si>
   <si>
+    <t>Rubia</t>
+  </si>
+  <si>
     <t>粤语</t>
   </si>
   <si>
@@ -5475,44 +5493,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="39">
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="177" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="179" formatCode="m/d"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="182" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="184" formatCode="#\ ?/?"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="187" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="188" formatCode="yy/m/d"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="180" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="190" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="mmmmm"/>
-    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="187" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="188" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="189" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="190" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="191" formatCode="yy/m/d"/>
-    <numFmt numFmtId="192" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="194" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="195" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="196" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="197" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="192" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="193" formatCode="mmmmm"/>
+    <numFmt numFmtId="194" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="195" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="196" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;\¥\-#,##0"/>
     <numFmt numFmtId="198" formatCode="#\ ??"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="200" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="201" formatCode="m/d"/>
+    <numFmt numFmtId="199" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
+    <numFmt numFmtId="200" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="201" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="202" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="44">
@@ -5676,18 +5694,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5708,24 +5733,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5737,9 +5747,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5754,7 +5801,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5763,36 +5818,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5800,14 +5826,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5841,169 +5859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6021,7 +5883,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6062,17 +6080,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6084,6 +6091,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6137,76 +6155,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6215,81 +6233,81 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="202" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -6304,10 +6322,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -6345,18 +6363,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -6707,12 +6713,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1020"/>
+  <dimension ref="A1:G1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1014" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1011" sqref="A1011"/>
+      <selection pane="bottomLeft" activeCell="B1021" sqref="B1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7634,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -20807,46 +20813,46 @@
       </c>
     </row>
     <row r="638" spans="1:7">
-      <c r="A638" s="21" t="s">
+      <c r="A638" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="B638" s="21" t="s">
+      <c r="B638" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C638" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D638" s="22"/>
-      <c r="E638" s="21" t="s">
+      <c r="C638" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D638" s="5"/>
+      <c r="E638" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="F638" s="23">
-        <v>0</v>
-      </c>
-      <c r="G638" s="23">
+      <c r="F638" s="7">
+        <v>0</v>
+      </c>
+      <c r="G638" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:7">
-      <c r="A639" s="21" t="s">
+      <c r="A639" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="B639" s="21" t="s">
+      <c r="B639" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C639" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D639" s="21" t="s">
+      <c r="C639" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D639" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E639" s="21" t="s">
+      <c r="E639" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="F639" s="24">
-        <v>0</v>
-      </c>
-      <c r="G639" s="23">
+      <c r="F639" s="8">
+        <v>0</v>
+      </c>
+      <c r="G639" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21732,7 +21738,7 @@
       <c r="A680" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="B680" s="25" t="s">
+      <c r="B680" s="21" t="s">
         <v>1153</v>
       </c>
       <c r="C680" s="4" t="s">
@@ -23744,23 +23750,23 @@
       </c>
     </row>
     <row r="773" spans="1:7">
-      <c r="A773" s="21" t="s">
+      <c r="A773" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="B773" s="21" t="s">
+      <c r="B773" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="C773" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D773" s="22"/>
-      <c r="E773" s="21" t="s">
+      <c r="C773" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D773" s="5"/>
+      <c r="E773" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="F773" s="24">
-        <v>0</v>
-      </c>
-      <c r="G773" s="23">
+      <c r="F773" s="8">
+        <v>0</v>
+      </c>
+      <c r="G773" s="7">
         <v>0</v>
       </c>
     </row>
@@ -25529,7 +25535,7 @@
       <c r="C855" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D855" s="26" t="s">
+      <c r="D855" s="22" t="s">
         <v>1441</v>
       </c>
       <c r="E855" s="4" t="s">
@@ -25774,7 +25780,7 @@
       <c r="C866" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D866" s="27" t="s">
+      <c r="D866" s="23" t="s">
         <v>1463</v>
       </c>
       <c r="E866" s="4" t="s">
@@ -25877,13 +25883,13 @@
       <c r="A871" s="4" t="s">
         <v>1473</v>
       </c>
-      <c r="B871" s="27" t="s">
+      <c r="B871" s="23" t="s">
         <v>1474</v>
       </c>
       <c r="C871" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D871" s="27" t="s">
+      <c r="D871" s="23" t="s">
         <v>1475</v>
       </c>
       <c r="E871" s="4" t="s">
@@ -25943,16 +25949,16 @@
       </c>
     </row>
     <row r="874" ht="14.25" spans="1:7">
-      <c r="A874" s="28" t="s">
+      <c r="A874" s="24" t="s">
         <v>1482</v>
       </c>
-      <c r="B874" s="28" t="s">
+      <c r="B874" s="24" t="s">
         <v>1483</v>
       </c>
       <c r="C874" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D874" s="29" t="s">
+      <c r="D874" s="25" t="s">
         <v>1484</v>
       </c>
       <c r="E874" s="4" t="s">
@@ -25996,7 +26002,7 @@
       <c r="C876" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D876" s="27" t="s">
+      <c r="D876" s="23" t="s">
         <v>1489</v>
       </c>
       <c r="E876" s="4" t="s">
@@ -26287,7 +26293,7 @@
       <c r="C889" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D889" s="27" t="s">
+      <c r="D889" s="23" t="s">
         <v>1521</v>
       </c>
       <c r="E889" s="4" t="s">
@@ -26430,20 +26436,20 @@
       <c r="A896" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="B896" s="5" t="s">
+      <c r="B896" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C896" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D896" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="C896" s="5" t="s">
+      <c r="E896" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D896" s="4" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E896" s="5" t="s">
-        <v>1440</v>
-      </c>
       <c r="F896" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G896" s="7">
         <v>0</v>
@@ -26451,18 +26457,18 @@
     </row>
     <row r="897" spans="1:7">
       <c r="A897" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B897" s="5" t="s">
         <v>1532</v>
       </c>
-      <c r="B897" s="5" t="s">
+      <c r="C897" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D897" s="4" t="s">
         <v>1533</v>
       </c>
-      <c r="C897" s="4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D897" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E897" s="4" t="s">
+      <c r="E897" s="5" t="s">
         <v>1440</v>
       </c>
       <c r="F897" s="7">
@@ -26483,7 +26489,7 @@
         <v>1440</v>
       </c>
       <c r="D898" s="4" t="s">
-        <v>1536</v>
+        <v>14</v>
       </c>
       <c r="E898" s="4" t="s">
         <v>1440</v>
@@ -26495,17 +26501,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" ht="14.25" spans="1:7">
-      <c r="A899" s="5" t="s">
+    <row r="899" spans="1:7">
+      <c r="A899" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B899" s="5" t="s">
         <v>1537</v>
-      </c>
-      <c r="B899" s="30" t="s">
-        <v>1538</v>
       </c>
       <c r="C899" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D899" s="5"/>
+      <c r="D899" s="4" t="s">
+        <v>1538</v>
+      </c>
       <c r="E899" s="4" t="s">
         <v>1440</v>
       </c>
@@ -26526,24 +26534,24 @@
       <c r="C900" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D900" s="4" t="s">
+      <c r="D900" s="5" t="s">
         <v>1541</v>
       </c>
       <c r="E900" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F900" s="8">
+      <c r="F900" s="7">
         <v>0</v>
       </c>
       <c r="G900" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:7">
-      <c r="A901" s="4" t="s">
+    <row r="901" ht="14.25" spans="1:7">
+      <c r="A901" s="5" t="s">
         <v>1542</v>
       </c>
-      <c r="B901" s="4" t="s">
+      <c r="B901" s="26" t="s">
         <v>1543</v>
       </c>
       <c r="C901" s="4" t="s">
@@ -26561,7 +26569,7 @@
       </c>
     </row>
     <row r="902" spans="1:7">
-      <c r="A902" s="5" t="s">
+      <c r="A902" s="4" t="s">
         <v>1544</v>
       </c>
       <c r="B902" s="4" t="s">
@@ -26576,7 +26584,7 @@
       <c r="E902" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F902" s="7">
+      <c r="F902" s="8">
         <v>0</v>
       </c>
       <c r="G902" s="7">
@@ -26584,7 +26592,7 @@
       </c>
     </row>
     <row r="903" spans="1:7">
-      <c r="A903" s="5" t="s">
+      <c r="A903" s="4" t="s">
         <v>1547</v>
       </c>
       <c r="B903" s="4" t="s">
@@ -26597,7 +26605,7 @@
       <c r="E903" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F903" s="8">
+      <c r="F903" s="7">
         <v>0</v>
       </c>
       <c r="G903" s="7">
@@ -26608,7 +26616,7 @@
       <c r="A904" s="5" t="s">
         <v>1549</v>
       </c>
-      <c r="B904" s="5" t="s">
+      <c r="B904" s="4" t="s">
         <v>1550</v>
       </c>
       <c r="C904" s="4" t="s">
@@ -26628,7 +26636,7 @@
       </c>
     </row>
     <row r="905" spans="1:7">
-      <c r="A905" s="4" t="s">
+      <c r="A905" s="5" t="s">
         <v>1552</v>
       </c>
       <c r="B905" s="4" t="s">
@@ -26641,7 +26649,7 @@
       <c r="E905" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F905" s="7">
+      <c r="F905" s="8">
         <v>0</v>
       </c>
       <c r="G905" s="7">
@@ -26649,16 +26657,18 @@
       </c>
     </row>
     <row r="906" spans="1:7">
-      <c r="A906" s="28" t="s">
+      <c r="A906" s="5" t="s">
         <v>1554</v>
       </c>
-      <c r="B906" s="4" t="s">
+      <c r="B906" s="5" t="s">
         <v>1555</v>
       </c>
       <c r="C906" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D906" s="5"/>
+      <c r="D906" s="4" t="s">
+        <v>1556</v>
+      </c>
       <c r="E906" s="4" t="s">
         <v>1440</v>
       </c>
@@ -26670,11 +26680,11 @@
       </c>
     </row>
     <row r="907" spans="1:7">
-      <c r="A907" s="5" t="s">
-        <v>1556</v>
+      <c r="A907" s="4" t="s">
+        <v>1557</v>
       </c>
       <c r="B907" s="4" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="C907" s="4" t="s">
         <v>1440</v>
@@ -26691,18 +26701,16 @@
       </c>
     </row>
     <row r="908" spans="1:7">
-      <c r="A908" s="4" t="s">
-        <v>1557</v>
+      <c r="A908" s="24" t="s">
+        <v>1559</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="C908" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D908" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D908" s="5"/>
       <c r="E908" s="4" t="s">
         <v>1440</v>
       </c>
@@ -26714,11 +26722,11 @@
       </c>
     </row>
     <row r="909" spans="1:7">
-      <c r="A909" s="4" t="s">
-        <v>1558</v>
+      <c r="A909" s="5" t="s">
+        <v>1561</v>
       </c>
       <c r="B909" s="4" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="C909" s="4" t="s">
         <v>1440</v>
@@ -26735,8 +26743,8 @@
       </c>
     </row>
     <row r="910" spans="1:7">
-      <c r="A910" s="5" t="s">
-        <v>1559</v>
+      <c r="A910" s="4" t="s">
+        <v>1562</v>
       </c>
       <c r="B910" s="4" t="s">
         <v>1560</v>
@@ -26745,7 +26753,7 @@
         <v>1440</v>
       </c>
       <c r="D910" s="4" t="s">
-        <v>1561</v>
+        <v>14</v>
       </c>
       <c r="E910" s="4" t="s">
         <v>1440</v>
@@ -26759,7 +26767,7 @@
     </row>
     <row r="911" spans="1:7">
       <c r="A911" s="4" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B911" s="4" t="s">
         <v>1560</v>
@@ -26767,9 +26775,7 @@
       <c r="C911" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D911" s="4" t="s">
-        <v>1563</v>
-      </c>
+      <c r="D911" s="5"/>
       <c r="E911" s="4" t="s">
         <v>1440</v>
       </c>
@@ -26781,17 +26787,17 @@
       </c>
     </row>
     <row r="912" spans="1:7">
-      <c r="A912" s="4" t="s">
+      <c r="A912" s="5" t="s">
         <v>1564</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="C912" s="4" t="s">
         <v>1440</v>
       </c>
       <c r="D912" s="4" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="E912" s="4" t="s">
         <v>1440</v>
@@ -26805,19 +26811,21 @@
     </row>
     <row r="913" spans="1:7">
       <c r="A913" s="4" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B913" s="5" t="s">
         <v>1567</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>1565</v>
       </c>
       <c r="C913" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D913" s="5"/>
+      <c r="D913" s="4" t="s">
+        <v>1568</v>
+      </c>
       <c r="E913" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F913" s="8">
+      <c r="F913" s="7">
         <v>0</v>
       </c>
       <c r="G913" s="7">
@@ -26826,10 +26834,10 @@
     </row>
     <row r="914" spans="1:7">
       <c r="A914" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="C914" s="4" t="s">
         <v>1440</v>
@@ -26851,19 +26859,17 @@
       <c r="A915" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="B915" s="4" t="s">
+      <c r="B915" s="5" t="s">
         <v>1572</v>
       </c>
       <c r="C915" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D915" s="4" t="s">
-        <v>1573</v>
-      </c>
+      <c r="D915" s="5"/>
       <c r="E915" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F915" s="7">
+      <c r="F915" s="8">
         <v>0</v>
       </c>
       <c r="G915" s="7">
@@ -26872,18 +26878,18 @@
     </row>
     <row r="916" spans="1:7">
       <c r="A916" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B916" s="4" t="s">
         <v>1574</v>
       </c>
-      <c r="B916" s="5" t="s">
+      <c r="C916" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D916" s="4" t="s">
         <v>1575</v>
       </c>
-      <c r="C916" s="5" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D916" s="5" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E916" s="5" t="s">
+      <c r="E916" s="4" t="s">
         <v>1440</v>
       </c>
       <c r="F916" s="7">
@@ -26895,21 +26901,21 @@
     </row>
     <row r="917" spans="1:7">
       <c r="A917" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B917" s="4" t="s">
         <v>1577</v>
-      </c>
-      <c r="B917" s="31" t="s">
-        <v>1578</v>
       </c>
       <c r="C917" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D917" s="5" t="s">
-        <v>1579</v>
+      <c r="D917" s="4" t="s">
+        <v>1578</v>
       </c>
       <c r="E917" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F917" s="8">
+      <c r="F917" s="7">
         <v>0</v>
       </c>
       <c r="G917" s="7">
@@ -26918,18 +26924,18 @@
     </row>
     <row r="918" spans="1:7">
       <c r="A918" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B918" s="5" t="s">
         <v>1580</v>
       </c>
-      <c r="B918" s="4" t="s">
+      <c r="C918" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D918" s="5" t="s">
         <v>1581</v>
       </c>
-      <c r="C918" s="4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D918" s="6" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E918" s="4" t="s">
+      <c r="E918" s="5" t="s">
         <v>1440</v>
       </c>
       <c r="F918" s="7">
@@ -26941,44 +26947,44 @@
     </row>
     <row r="919" spans="1:7">
       <c r="A919" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B919" s="27" t="s">
         <v>1583</v>
-      </c>
-      <c r="B919" s="4" t="s">
-        <v>1584</v>
       </c>
       <c r="C919" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D919" s="4" t="s">
-        <v>1585</v>
+      <c r="D919" s="5" t="s">
+        <v>1584</v>
       </c>
       <c r="E919" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F919" s="7">
+      <c r="F919" s="8">
         <v>0</v>
       </c>
       <c r="G919" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:7">
       <c r="A920" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B920" s="4" t="s">
         <v>1586</v>
-      </c>
-      <c r="B920" s="14" t="s">
-        <v>1587</v>
       </c>
       <c r="C920" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D920" s="4" t="s">
-        <v>1588</v>
+      <c r="D920" s="6" t="s">
+        <v>1587</v>
       </c>
       <c r="E920" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F920" s="8">
+      <c r="F920" s="7">
         <v>0</v>
       </c>
       <c r="G920" s="7">
@@ -26986,31 +26992,33 @@
       </c>
     </row>
     <row r="921" spans="1:7">
-      <c r="A921" s="5" t="s">
+      <c r="A921" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B921" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="B921" s="5" t="s">
-        <v>1590</v>
       </c>
       <c r="C921" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D921" s="5"/>
+      <c r="D921" s="4" t="s">
+        <v>1590</v>
+      </c>
       <c r="E921" s="4" t="s">
         <v>1440</v>
       </c>
       <c r="F921" s="7">
+        <v>0</v>
+      </c>
+      <c r="G921" s="7">
         <v>1</v>
       </c>
-      <c r="G921" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="922" spans="1:7">
-      <c r="A922" s="5" t="s">
+      <c r="A922" s="4" t="s">
         <v>1591</v>
       </c>
-      <c r="B922" s="4" t="s">
+      <c r="B922" s="14" t="s">
         <v>1592</v>
       </c>
       <c r="C922" s="4" t="s">
@@ -27030,39 +27038,39 @@
       </c>
     </row>
     <row r="923" spans="1:7">
-      <c r="A923" s="4" t="s">
+      <c r="A923" s="5" t="s">
         <v>1594</v>
       </c>
-      <c r="B923" s="4" t="s">
+      <c r="B923" s="5" t="s">
         <v>1595</v>
       </c>
       <c r="C923" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D923" s="4" t="s">
-        <v>1596</v>
-      </c>
+      <c r="D923" s="5"/>
       <c r="E923" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F923" s="8">
-        <v>0</v>
+      <c r="F923" s="7">
+        <v>1</v>
       </c>
       <c r="G923" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:7">
-      <c r="A924" s="4" t="s">
+      <c r="A924" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B924" s="4" t="s">
         <v>1597</v>
-      </c>
-      <c r="B924" s="5" t="s">
-        <v>1598</v>
       </c>
       <c r="C924" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D924" s="5"/>
+      <c r="D924" s="4" t="s">
+        <v>1598</v>
+      </c>
       <c r="E924" s="4" t="s">
         <v>1440</v>
       </c>
@@ -27083,7 +27091,9 @@
       <c r="C925" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D925" s="5"/>
+      <c r="D925" s="4" t="s">
+        <v>1601</v>
+      </c>
       <c r="E925" s="4" t="s">
         <v>1440</v>
       </c>
@@ -27096,10 +27106,10 @@
     </row>
     <row r="926" spans="1:7">
       <c r="A926" s="4" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B926" s="4" t="s">
-        <v>1600</v>
+        <v>1602</v>
+      </c>
+      <c r="B926" s="5" t="s">
+        <v>1603</v>
       </c>
       <c r="C926" s="4" t="s">
         <v>1440</v>
@@ -27108,7 +27118,7 @@
       <c r="E926" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F926" s="7">
+      <c r="F926" s="8">
         <v>0</v>
       </c>
       <c r="G926" s="7">
@@ -27116,22 +27126,20 @@
       </c>
     </row>
     <row r="927" spans="1:7">
-      <c r="A927" s="5" t="s">
-        <v>1602</v>
+      <c r="A927" s="4" t="s">
+        <v>1604</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C927" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D927" s="4" t="s">
-        <v>1604</v>
-      </c>
+      <c r="D927" s="5"/>
       <c r="E927" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F927" s="7">
+      <c r="F927" s="8">
         <v>0</v>
       </c>
       <c r="G927" s="7">
@@ -27140,42 +27148,42 @@
     </row>
     <row r="928" spans="1:7">
       <c r="A928" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B928" s="4" t="s">
         <v>1605</v>
       </c>
-      <c r="B928" s="5" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C928" s="5" t="s">
+      <c r="C928" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D928" s="5" t="s">
+      <c r="D928" s="5"/>
+      <c r="E928" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F928" s="7">
+        <v>0</v>
+      </c>
+      <c r="G928" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7">
+      <c r="A929" s="5" t="s">
         <v>1607</v>
       </c>
-      <c r="E928" s="5" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F928" s="7">
-        <v>0</v>
-      </c>
-      <c r="G928" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="929" spans="1:7">
-      <c r="A929" s="4" t="s">
+      <c r="B929" s="4" t="s">
         <v>1608</v>
-      </c>
-      <c r="B929" s="5" t="s">
-        <v>1609</v>
       </c>
       <c r="C929" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D929" s="5"/>
+      <c r="D929" s="4" t="s">
+        <v>1609</v>
+      </c>
       <c r="E929" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F929" s="8">
+      <c r="F929" s="7">
         <v>0</v>
       </c>
       <c r="G929" s="7">
@@ -27183,19 +27191,19 @@
       </c>
     </row>
     <row r="930" spans="1:7">
-      <c r="A930" s="5" t="s">
+      <c r="A930" s="4" t="s">
         <v>1610</v>
       </c>
-      <c r="B930" s="4" t="s">
+      <c r="B930" s="5" t="s">
         <v>1611</v>
       </c>
-      <c r="C930" s="4" t="s">
+      <c r="C930" s="5" t="s">
         <v>1440</v>
       </c>
-      <c r="D930" s="4" t="s">
+      <c r="D930" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="E930" s="4" t="s">
+      <c r="E930" s="5" t="s">
         <v>1440</v>
       </c>
       <c r="F930" s="7">
@@ -27209,19 +27217,17 @@
       <c r="A931" s="4" t="s">
         <v>1613</v>
       </c>
-      <c r="B931" s="4" t="s">
+      <c r="B931" s="5" t="s">
         <v>1614</v>
       </c>
       <c r="C931" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D931" s="4" t="s">
-        <v>1615</v>
-      </c>
+      <c r="D931" s="5"/>
       <c r="E931" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F931" s="7">
+      <c r="F931" s="8">
         <v>0</v>
       </c>
       <c r="G931" s="7">
@@ -27229,22 +27235,22 @@
       </c>
     </row>
     <row r="932" spans="1:7">
-      <c r="A932" s="4" t="s">
+      <c r="A932" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B932" s="4" t="s">
         <v>1616</v>
-      </c>
-      <c r="B932" s="5" t="s">
-        <v>1617</v>
       </c>
       <c r="C932" s="4" t="s">
         <v>1440</v>
       </c>
       <c r="D932" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E932" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F932" s="8">
+      <c r="F932" s="7">
         <v>0</v>
       </c>
       <c r="G932" s="7">
@@ -27253,15 +27259,17 @@
     </row>
     <row r="933" spans="1:7">
       <c r="A933" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B933" s="4" t="s">
         <v>1619</v>
-      </c>
-      <c r="B933" s="5" t="s">
-        <v>1620</v>
       </c>
       <c r="C933" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D933" s="5"/>
+      <c r="D933" s="4" t="s">
+        <v>1620</v>
+      </c>
       <c r="E933" s="4" t="s">
         <v>1440</v>
       </c>
@@ -27276,17 +27284,19 @@
       <c r="A934" s="4" t="s">
         <v>1621</v>
       </c>
-      <c r="B934" s="4" t="s">
+      <c r="B934" s="5" t="s">
         <v>1622</v>
       </c>
       <c r="C934" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D934" s="5"/>
+      <c r="D934" s="4" t="s">
+        <v>1623</v>
+      </c>
       <c r="E934" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F934" s="7">
+      <c r="F934" s="8">
         <v>0</v>
       </c>
       <c r="G934" s="7">
@@ -27295,17 +27305,15 @@
     </row>
     <row r="935" spans="1:7">
       <c r="A935" s="4" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B935" s="4" t="s">
-        <v>1622</v>
+        <v>1624</v>
+      </c>
+      <c r="B935" s="5" t="s">
+        <v>1625</v>
       </c>
       <c r="C935" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D935" s="4" t="s">
-        <v>1624</v>
-      </c>
+      <c r="D935" s="5"/>
       <c r="E935" s="4" t="s">
         <v>1440</v>
       </c>
@@ -27318,21 +27326,19 @@
     </row>
     <row r="936" spans="1:7">
       <c r="A936" s="4" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C936" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D936" s="4" t="s">
-        <v>1627</v>
-      </c>
+      <c r="D936" s="5"/>
       <c r="E936" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F936" s="8">
+      <c r="F936" s="7">
         <v>0</v>
       </c>
       <c r="G936" s="7">
@@ -27340,17 +27346,17 @@
       </c>
     </row>
     <row r="937" spans="1:7">
-      <c r="A937" s="5" t="s">
+      <c r="A937" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="B937" s="26" t="s">
-        <v>1629</v>
+      <c r="B937" s="4" t="s">
+        <v>1627</v>
       </c>
       <c r="C937" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D937" s="27" t="s">
-        <v>1630</v>
+      <c r="D937" s="4" t="s">
+        <v>1629</v>
       </c>
       <c r="E937" s="4" t="s">
         <v>1440</v>
@@ -27364,15 +27370,17 @@
     </row>
     <row r="938" spans="1:7">
       <c r="A938" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B938" s="4" t="s">
         <v>1631</v>
-      </c>
-      <c r="B938" s="4" t="s">
-        <v>1632</v>
       </c>
       <c r="C938" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D938" s="5"/>
+      <c r="D938" s="4" t="s">
+        <v>1632</v>
+      </c>
       <c r="E938" s="4" t="s">
         <v>1440</v>
       </c>
@@ -27384,22 +27392,22 @@
       </c>
     </row>
     <row r="939" spans="1:7">
-      <c r="A939" s="4" t="s">
+      <c r="A939" s="5" t="s">
         <v>1633</v>
       </c>
-      <c r="B939" s="4" t="s">
-        <v>1632</v>
+      <c r="B939" s="22" t="s">
+        <v>1634</v>
       </c>
       <c r="C939" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D939" s="4" t="s">
-        <v>1634</v>
+      <c r="D939" s="23" t="s">
+        <v>1635</v>
       </c>
       <c r="E939" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F939" s="8">
+      <c r="F939" s="7">
         <v>0</v>
       </c>
       <c r="G939" s="7">
@@ -27408,21 +27416,19 @@
     </row>
     <row r="940" spans="1:7">
       <c r="A940" s="4" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C940" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D940" s="4" t="s">
-        <v>1612</v>
-      </c>
+      <c r="D940" s="5"/>
       <c r="E940" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F940" s="7">
+      <c r="F940" s="8">
         <v>0</v>
       </c>
       <c r="G940" s="7">
@@ -27431,10 +27437,10 @@
     </row>
     <row r="941" spans="1:7">
       <c r="A941" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B941" s="4" t="s">
         <v>1637</v>
-      </c>
-      <c r="B941" s="4" t="s">
-        <v>1638</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1440</v>
@@ -27445,7 +27451,7 @@
       <c r="E941" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="F941" s="7">
+      <c r="F941" s="8">
         <v>0</v>
       </c>
       <c r="G941" s="7">
@@ -27453,17 +27459,19 @@
       </c>
     </row>
     <row r="942" spans="1:7">
-      <c r="A942" s="5" t="s">
+      <c r="A942" s="4" t="s">
         <v>1640</v>
       </c>
-      <c r="B942" s="5" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C942" s="5" t="s">
+      <c r="B942" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C942" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D942" s="5"/>
-      <c r="E942" s="5" t="s">
+      <c r="D942" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E942" s="4" t="s">
         <v>1440</v>
       </c>
       <c r="F942" s="7">
@@ -27475,16 +27483,16 @@
     </row>
     <row r="943" spans="1:7">
       <c r="A943" s="4" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C943" s="4" t="s">
         <v>1440</v>
       </c>
       <c r="D943" s="4" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="E943" s="4" t="s">
         <v>1440</v>
@@ -27497,17 +27505,17 @@
       </c>
     </row>
     <row r="944" spans="1:7">
-      <c r="A944" s="4" t="s">
-        <v>1644</v>
+      <c r="A944" s="5" t="s">
+        <v>1645</v>
       </c>
       <c r="B944" s="5" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C944" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C944" s="5" t="s">
         <v>1440</v>
       </c>
       <c r="D944" s="5"/>
-      <c r="E944" s="4" t="s">
+      <c r="E944" s="5" t="s">
         <v>1440</v>
       </c>
       <c r="F944" s="7">
@@ -27527,7 +27535,7 @@
       <c r="C945" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D945" s="27" t="s">
+      <c r="D945" s="4" t="s">
         <v>1648</v>
       </c>
       <c r="E945" s="4" t="s">
@@ -27545,13 +27553,13 @@
         <v>1649</v>
       </c>
       <c r="B946" s="5" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C946" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C946" s="4" t="s">
         <v>1440</v>
       </c>
       <c r="D946" s="5"/>
-      <c r="E946" s="5" t="s">
+      <c r="E946" s="4" t="s">
         <v>1440</v>
       </c>
       <c r="F946" s="7">
@@ -27563,17 +27571,19 @@
     </row>
     <row r="947" spans="1:7">
       <c r="A947" s="4" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B947" s="5" t="s">
         <v>1651</v>
       </c>
+      <c r="B947" s="4" t="s">
+        <v>1652</v>
+      </c>
       <c r="C947" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D947" s="5"/>
+        <v>1440</v>
+      </c>
+      <c r="D947" s="23" t="s">
+        <v>1653</v>
+      </c>
       <c r="E947" s="4" t="s">
-        <v>1652</v>
+        <v>1440</v>
       </c>
       <c r="F947" s="7">
         <v>0</v>
@@ -27584,19 +27594,17 @@
     </row>
     <row r="948" spans="1:7">
       <c r="A948" s="4" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B948" s="5" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C948" s="4" t="s">
         <v>1652</v>
       </c>
-      <c r="D948" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E948" s="4" t="s">
-        <v>1652</v>
+      <c r="C948" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D948" s="5"/>
+      <c r="E948" s="5" t="s">
+        <v>1440</v>
       </c>
       <c r="F948" s="7">
         <v>0</v>
@@ -27607,21 +27615,19 @@
     </row>
     <row r="949" spans="1:7">
       <c r="A949" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B949" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="B949" s="5" t="s">
+      <c r="C949" s="4" t="s">
         <v>1657</v>
       </c>
-      <c r="C949" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D949" s="4" t="s">
-        <v>1658</v>
-      </c>
+      <c r="D949" s="5"/>
       <c r="E949" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F949" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F949" s="7">
         <v>0</v>
       </c>
       <c r="G949" s="7">
@@ -27630,21 +27636,21 @@
     </row>
     <row r="950" spans="1:7">
       <c r="A950" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B950" s="5" t="s">
         <v>1659</v>
       </c>
-      <c r="B950" s="4" t="s">
+      <c r="C950" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D950" s="4" t="s">
         <v>1660</v>
       </c>
-      <c r="C950" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D950" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E950" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F950" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F950" s="7">
         <v>0</v>
       </c>
       <c r="G950" s="7">
@@ -27655,15 +27661,17 @@
       <c r="A951" s="4" t="s">
         <v>1661</v>
       </c>
-      <c r="B951" s="4" t="s">
-        <v>1660</v>
+      <c r="B951" s="5" t="s">
+        <v>1662</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D951" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D951" s="4" t="s">
+        <v>1663</v>
+      </c>
       <c r="E951" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F951" s="8">
         <v>0</v>
@@ -27674,19 +27682,21 @@
     </row>
     <row r="952" spans="1:7">
       <c r="A952" s="4" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D952" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D952" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E952" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F952" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F952" s="8">
         <v>0</v>
       </c>
       <c r="G952" s="7">
@@ -27695,17 +27705,17 @@
     </row>
     <row r="953" spans="1:7">
       <c r="A953" s="4" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D953" s="5"/>
       <c r="E953" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F953" s="8">
         <v>0</v>
@@ -27716,17 +27726,17 @@
     </row>
     <row r="954" spans="1:7">
       <c r="A954" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B954" s="4" t="s">
         <v>1665</v>
       </c>
-      <c r="B954" s="5" t="s">
-        <v>1666</v>
-      </c>
       <c r="C954" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D954" s="5"/>
       <c r="E954" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F954" s="7">
         <v>0</v>
@@ -27737,17 +27747,17 @@
     </row>
     <row r="955" spans="1:7">
       <c r="A955" s="4" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C955" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D955" s="5"/>
       <c r="E955" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F955" s="8">
         <v>0</v>
@@ -27758,19 +27768,19 @@
     </row>
     <row r="956" spans="1:7">
       <c r="A956" s="4" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B956" s="5" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C956" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D956" s="5"/>
       <c r="E956" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F956" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F956" s="7">
         <v>0</v>
       </c>
       <c r="G956" s="7">
@@ -27779,17 +27789,17 @@
     </row>
     <row r="957" spans="1:7">
       <c r="A957" s="4" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B957" s="5" t="s">
         <v>1672</v>
       </c>
+      <c r="B957" s="4" t="s">
+        <v>1673</v>
+      </c>
       <c r="C957" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D957" s="5"/>
       <c r="E957" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F957" s="8">
         <v>0</v>
@@ -27800,21 +27810,19 @@
     </row>
     <row r="958" spans="1:7">
       <c r="A958" s="4" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B958" s="5" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D958" s="4" t="s">
-        <v>1675</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="D958" s="5"/>
       <c r="E958" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F958" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F958" s="8">
         <v>0</v>
       </c>
       <c r="G958" s="7">
@@ -27829,11 +27837,11 @@
         <v>1677</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D959" s="5"/>
       <c r="E959" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F959" s="8">
         <v>0</v>
@@ -27850,11 +27858,13 @@
         <v>1679</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D960" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D960" s="4" t="s">
+        <v>1680</v>
+      </c>
       <c r="E960" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F960" s="7">
         <v>0</v>
@@ -27865,19 +27875,17 @@
     </row>
     <row r="961" spans="1:7">
       <c r="A961" s="4" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B961" s="4" t="s">
         <v>1681</v>
       </c>
+      <c r="B961" s="5" t="s">
+        <v>1682</v>
+      </c>
       <c r="C961" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D961" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="D961" s="5"/>
       <c r="E961" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F961" s="8">
         <v>0</v>
@@ -27887,18 +27895,18 @@
       </c>
     </row>
     <row r="962" spans="1:7">
-      <c r="A962" s="5" t="s">
-        <v>1682</v>
+      <c r="A962" s="4" t="s">
+        <v>1683</v>
       </c>
       <c r="B962" s="5" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C962" s="5" t="s">
-        <v>1652</v>
+        <v>1684</v>
+      </c>
+      <c r="C962" s="4" t="s">
+        <v>1657</v>
       </c>
       <c r="D962" s="5"/>
-      <c r="E962" s="5" t="s">
-        <v>1652</v>
+      <c r="E962" s="4" t="s">
+        <v>1657</v>
       </c>
       <c r="F962" s="7">
         <v>0</v>
@@ -27909,17 +27917,19 @@
     </row>
     <row r="963" spans="1:7">
       <c r="A963" s="4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B963" s="5" t="s">
         <v>1685</v>
       </c>
+      <c r="B963" s="4" t="s">
+        <v>1686</v>
+      </c>
       <c r="C963" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D963" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D963" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E963" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F963" s="8">
         <v>0</v>
@@ -27929,22 +27939,20 @@
       </c>
     </row>
     <row r="964" spans="1:7">
-      <c r="A964" s="4" t="s">
-        <v>1686</v>
+      <c r="A964" s="5" t="s">
+        <v>1687</v>
       </c>
       <c r="B964" s="5" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C964" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D964" s="5" t="s">
         <v>1688</v>
       </c>
-      <c r="E964" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F964" s="8">
+      <c r="C964" s="5" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D964" s="5"/>
+      <c r="E964" s="5" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F964" s="7">
         <v>0</v>
       </c>
       <c r="G964" s="7">
@@ -27955,15 +27963,15 @@
       <c r="A965" s="4" t="s">
         <v>1689</v>
       </c>
-      <c r="B965" s="4" t="s">
+      <c r="B965" s="5" t="s">
         <v>1690</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D965" s="5"/>
       <c r="E965" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F965" s="8">
         <v>0</v>
@@ -27976,15 +27984,17 @@
       <c r="A966" s="4" t="s">
         <v>1691</v>
       </c>
-      <c r="B966" s="4" t="s">
+      <c r="B966" s="5" t="s">
         <v>1692</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D966" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D966" s="5" t="s">
+        <v>1693</v>
+      </c>
       <c r="E966" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F966" s="8">
         <v>0</v>
@@ -27995,19 +28005,19 @@
     </row>
     <row r="967" spans="1:7">
       <c r="A967" s="4" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D967" s="5"/>
       <c r="E967" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F967" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F967" s="8">
         <v>0</v>
       </c>
       <c r="G967" s="7">
@@ -28016,21 +28026,19 @@
     </row>
     <row r="968" spans="1:7">
       <c r="A968" s="4" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B968" s="5" t="s">
-        <v>1695</v>
+        <v>1696</v>
+      </c>
+      <c r="B968" s="4" t="s">
+        <v>1697</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D968" s="4" t="s">
-        <v>1696</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="D968" s="5"/>
       <c r="E968" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F968" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F968" s="8">
         <v>0</v>
       </c>
       <c r="G968" s="7">
@@ -28039,19 +28047,19 @@
     </row>
     <row r="969" spans="1:7">
       <c r="A969" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B969" s="4" t="s">
         <v>1697</v>
       </c>
-      <c r="B969" s="5" t="s">
-        <v>1698</v>
-      </c>
       <c r="C969" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D969" s="5"/>
       <c r="E969" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F969" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F969" s="7">
         <v>0</v>
       </c>
       <c r="G969" s="7">
@@ -28066,11 +28074,13 @@
         <v>1700</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D970" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D970" s="4" t="s">
+        <v>1701</v>
+      </c>
       <c r="E970" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F970" s="7">
         <v>0</v>
@@ -28081,17 +28091,17 @@
     </row>
     <row r="971" spans="1:7">
       <c r="A971" s="4" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B971" s="5" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D971" s="5"/>
       <c r="E971" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F971" s="8">
         <v>0</v>
@@ -28102,21 +28112,19 @@
     </row>
     <row r="972" spans="1:7">
       <c r="A972" s="4" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B972" s="5" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D972" s="4" t="s">
-        <v>1705</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="D972" s="5"/>
       <c r="E972" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F972" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F972" s="7">
         <v>0</v>
       </c>
       <c r="G972" s="7">
@@ -28131,11 +28139,11 @@
         <v>1707</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D973" s="5"/>
       <c r="E973" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F973" s="8">
         <v>0</v>
@@ -28152,15 +28160,15 @@
         <v>1709</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D974" s="5" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D974" s="4" t="s">
         <v>1710</v>
       </c>
       <c r="E974" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F974" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F974" s="8">
         <v>0</v>
       </c>
       <c r="G974" s="7">
@@ -28175,13 +28183,13 @@
         <v>1712</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D975" s="5"/>
       <c r="E975" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F975" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F975" s="8">
         <v>0</v>
       </c>
       <c r="G975" s="7">
@@ -28196,13 +28204,15 @@
         <v>1714</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D976" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D976" s="5" t="s">
+        <v>1715</v>
+      </c>
       <c r="E976" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F976" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F976" s="7">
         <v>0</v>
       </c>
       <c r="G976" s="7">
@@ -28211,17 +28221,17 @@
     </row>
     <row r="977" spans="1:7">
       <c r="A977" s="4" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B977" s="5" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D977" s="5"/>
       <c r="E977" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F977" s="7">
         <v>0</v>
@@ -28232,19 +28242,19 @@
     </row>
     <row r="978" spans="1:7">
       <c r="A978" s="4" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B978" s="4" t="s">
         <v>1718</v>
       </c>
+      <c r="B978" s="5" t="s">
+        <v>1719</v>
+      </c>
       <c r="C978" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D978" s="5"/>
       <c r="E978" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F978" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F978" s="8">
         <v>0</v>
       </c>
       <c r="G978" s="7">
@@ -28253,21 +28263,19 @@
     </row>
     <row r="979" spans="1:7">
       <c r="A979" s="4" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B979" s="5" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D979" s="4" t="s">
-        <v>1721</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="D979" s="5"/>
       <c r="E979" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F979" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F979" s="7">
         <v>0</v>
       </c>
       <c r="G979" s="7">
@@ -28282,11 +28290,11 @@
         <v>1723</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D980" s="5"/>
       <c r="E980" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F980" s="7">
         <v>0</v>
@@ -28303,13 +28311,15 @@
         <v>1725</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D981" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D981" s="4" t="s">
+        <v>1726</v>
+      </c>
       <c r="E981" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F981" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F981" s="8">
         <v>0</v>
       </c>
       <c r="G981" s="7">
@@ -28318,19 +28328,19 @@
     </row>
     <row r="982" spans="1:7">
       <c r="A982" s="4" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B982" s="5" t="s">
         <v>1727</v>
       </c>
+      <c r="B982" s="4" t="s">
+        <v>1728</v>
+      </c>
       <c r="C982" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D982" s="5"/>
       <c r="E982" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F982" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F982" s="7">
         <v>0</v>
       </c>
       <c r="G982" s="7">
@@ -28339,17 +28349,17 @@
     </row>
     <row r="983" spans="1:7">
       <c r="A983" s="4" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B983" s="4" t="s">
         <v>1729</v>
       </c>
+      <c r="B983" s="5" t="s">
+        <v>1730</v>
+      </c>
       <c r="C983" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D983" s="5"/>
       <c r="E983" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F983" s="7">
         <v>0</v>
@@ -28360,19 +28370,19 @@
     </row>
     <row r="984" spans="1:7">
       <c r="A984" s="4" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B984" s="5" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D984" s="5"/>
       <c r="E984" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F984" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F984" s="8">
         <v>0</v>
       </c>
       <c r="G984" s="7">
@@ -28381,19 +28391,19 @@
     </row>
     <row r="985" spans="1:7">
       <c r="A985" s="4" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B985" s="5" t="s">
         <v>1733</v>
       </c>
+      <c r="B985" s="4" t="s">
+        <v>1734</v>
+      </c>
       <c r="C985" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D985" s="5"/>
       <c r="E985" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F985" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F985" s="7">
         <v>0</v>
       </c>
       <c r="G985" s="7">
@@ -28402,19 +28412,19 @@
     </row>
     <row r="986" spans="1:7">
       <c r="A986" s="4" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B986" s="4" t="s">
         <v>1735</v>
       </c>
+      <c r="B986" s="5" t="s">
+        <v>1736</v>
+      </c>
       <c r="C986" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D986" s="4"/>
+        <v>1657</v>
+      </c>
+      <c r="D986" s="5"/>
       <c r="E986" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F986" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F986" s="7">
         <v>0</v>
       </c>
       <c r="G986" s="7">
@@ -28423,17 +28433,17 @@
     </row>
     <row r="987" spans="1:7">
       <c r="A987" s="4" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B987" s="4" t="s">
         <v>1737</v>
       </c>
+      <c r="B987" s="5" t="s">
+        <v>1738</v>
+      </c>
       <c r="C987" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D987" s="5"/>
       <c r="E987" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F987" s="8">
         <v>0</v>
@@ -28444,19 +28454,19 @@
     </row>
     <row r="988" spans="1:7">
       <c r="A988" s="4" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B988" s="4" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D988" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D988" s="4"/>
       <c r="E988" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F988" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F988" s="8">
         <v>0</v>
       </c>
       <c r="G988" s="7">
@@ -28465,19 +28475,19 @@
     </row>
     <row r="989" spans="1:7">
       <c r="A989" s="4" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B989" s="5" t="s">
         <v>1741</v>
       </c>
+      <c r="B989" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="C989" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D989" s="5"/>
       <c r="E989" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F989" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F989" s="8">
         <v>0</v>
       </c>
       <c r="G989" s="7">
@@ -28485,20 +28495,20 @@
       </c>
     </row>
     <row r="990" spans="1:7">
-      <c r="A990" s="32" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B990" s="33" t="s">
+      <c r="A990" s="4" t="s">
         <v>1743</v>
       </c>
+      <c r="B990" s="4" t="s">
+        <v>1744</v>
+      </c>
       <c r="C990" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D990" s="5"/>
       <c r="E990" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F990" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F990" s="7">
         <v>0</v>
       </c>
       <c r="G990" s="7">
@@ -28506,22 +28516,20 @@
       </c>
     </row>
     <row r="991" spans="1:7">
-      <c r="A991" s="34" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B991" s="4" t="s">
+      <c r="A991" s="4" t="s">
         <v>1745</v>
       </c>
+      <c r="B991" s="5" t="s">
+        <v>1746</v>
+      </c>
       <c r="C991" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D991" s="4" t="s">
-        <v>1746</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="D991" s="5"/>
       <c r="E991" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F991" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F991" s="7">
         <v>0</v>
       </c>
       <c r="G991" s="7">
@@ -28529,20 +28537,20 @@
       </c>
     </row>
     <row r="992" spans="1:7">
-      <c r="A992" s="4" t="s">
+      <c r="A992" s="28" t="s">
         <v>1747</v>
       </c>
-      <c r="B992" s="5" t="s">
+      <c r="B992" s="29" t="s">
         <v>1748</v>
       </c>
       <c r="C992" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D992" s="5"/>
       <c r="E992" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F992" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F992" s="8">
         <v>0</v>
       </c>
       <c r="G992" s="7">
@@ -28550,18 +28558,20 @@
       </c>
     </row>
     <row r="993" spans="1:7">
-      <c r="A993" s="4" t="s">
+      <c r="A993" s="30" t="s">
         <v>1749</v>
       </c>
-      <c r="B993" s="5" t="s">
+      <c r="B993" s="4" t="s">
         <v>1750</v>
       </c>
       <c r="C993" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D993" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D993" s="4" t="s">
+        <v>1751</v>
+      </c>
       <c r="E993" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F993" s="8">
         <v>0</v>
@@ -28572,17 +28582,17 @@
     </row>
     <row r="994" spans="1:7">
       <c r="A994" s="4" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B994" s="5" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C994" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D994" s="5"/>
       <c r="E994" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F994" s="7">
         <v>0</v>
@@ -28593,17 +28603,17 @@
     </row>
     <row r="995" spans="1:7">
       <c r="A995" s="4" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B995" s="4" t="s">
         <v>1754</v>
       </c>
+      <c r="B995" s="5" t="s">
+        <v>1755</v>
+      </c>
       <c r="C995" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D995" s="5"/>
       <c r="E995" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F995" s="8">
         <v>0</v>
@@ -28614,19 +28624,19 @@
     </row>
     <row r="996" spans="1:7">
       <c r="A996" s="4" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B996" s="5" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C996" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D996" s="5"/>
       <c r="E996" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F996" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F996" s="7">
         <v>0</v>
       </c>
       <c r="G996" s="7">
@@ -28635,21 +28645,19 @@
     </row>
     <row r="997" spans="1:7">
       <c r="A997" s="4" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B997" s="4" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="C997" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D997" s="4" t="s">
-        <v>1758</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="D997" s="5"/>
       <c r="E997" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F997" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F997" s="8">
         <v>0</v>
       </c>
       <c r="G997" s="7">
@@ -28658,19 +28666,19 @@
     </row>
     <row r="998" spans="1:7">
       <c r="A998" s="4" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B998" s="5" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C998" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D998" s="5"/>
       <c r="E998" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F998" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F998" s="8">
         <v>0</v>
       </c>
       <c r="G998" s="7">
@@ -28679,17 +28687,19 @@
     </row>
     <row r="999" spans="1:7">
       <c r="A999" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B999" s="4" t="s">
         <v>1761</v>
       </c>
-      <c r="B999" s="4" t="s">
-        <v>1762</v>
-      </c>
       <c r="C999" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D999" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D999" s="4" t="s">
+        <v>1763</v>
+      </c>
       <c r="E999" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F999" s="7">
         <v>0</v>
@@ -28700,19 +28710,17 @@
     </row>
     <row r="1000" spans="1:7">
       <c r="A1000" s="4" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B1000" s="4" t="s">
-        <v>1762</v>
+        <v>1764</v>
+      </c>
+      <c r="B1000" s="5" t="s">
+        <v>1765</v>
       </c>
       <c r="C1000" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D1000" s="4" t="s">
-        <v>1764</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="D1000" s="5"/>
       <c r="E1000" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F1000" s="7">
         <v>0</v>
@@ -28723,21 +28731,19 @@
     </row>
     <row r="1001" spans="1:7">
       <c r="A1001" s="4" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="C1001" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D1001" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="D1001" s="5"/>
       <c r="E1001" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F1001" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F1001" s="7">
         <v>0</v>
       </c>
       <c r="G1001" s="7">
@@ -28746,21 +28752,21 @@
     </row>
     <row r="1002" spans="1:7">
       <c r="A1002" s="4" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B1002" s="4" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="C1002" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D1002" s="4" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="E1002" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F1002" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F1002" s="7">
         <v>0</v>
       </c>
       <c r="G1002" s="7">
@@ -28769,21 +28775,21 @@
     </row>
     <row r="1003" spans="1:7">
       <c r="A1003" s="4" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="B1003" s="4" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="C1003" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="D1003" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E1003" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F1003" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F1003" s="8">
         <v>0</v>
       </c>
       <c r="G1003" s="7">
@@ -28791,18 +28797,20 @@
       </c>
     </row>
     <row r="1004" spans="1:7">
-      <c r="A1004" s="5" t="s">
-        <v>1769</v>
+      <c r="A1004" s="4" t="s">
+        <v>1771</v>
       </c>
       <c r="B1004" s="4" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="C1004" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D1004" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D1004" s="4" t="s">
+        <v>1772</v>
+      </c>
       <c r="E1004" s="4" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="F1004" s="8">
         <v>0</v>
@@ -28813,19 +28821,21 @@
     </row>
     <row r="1005" spans="1:7">
       <c r="A1005" s="4" t="s">
-        <v>426</v>
+        <v>1773</v>
       </c>
       <c r="B1005" s="4" t="s">
-        <v>427</v>
+        <v>1767</v>
       </c>
       <c r="C1005" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1005" s="5"/>
+        <v>1657</v>
+      </c>
+      <c r="D1005" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E1005" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1005" s="8">
+        <v>1657</v>
+      </c>
+      <c r="F1005" s="7">
         <v>0</v>
       </c>
       <c r="G1005" s="7">
@@ -28833,20 +28843,20 @@
       </c>
     </row>
     <row r="1006" spans="1:7">
-      <c r="A1006" s="4" t="s">
-        <v>1772</v>
+      <c r="A1006" s="5" t="s">
+        <v>1774</v>
       </c>
       <c r="B1006" s="4" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="C1006" s="4" t="s">
-        <v>1771</v>
+        <v>1657</v>
       </c>
       <c r="D1006" s="5"/>
       <c r="E1006" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1006" s="7">
+        <v>1657</v>
+      </c>
+      <c r="F1006" s="8">
         <v>0</v>
       </c>
       <c r="G1006" s="7">
@@ -28855,20 +28865,20 @@
     </row>
     <row r="1007" spans="1:7">
       <c r="A1007" s="4" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="B1007" s="4" t="s">
-        <v>1775</v>
+        <v>309</v>
       </c>
       <c r="C1007" s="4" t="s">
-        <v>1771</v>
+        <v>1657</v>
       </c>
       <c r="D1007" s="5"/>
       <c r="E1007" s="4" t="s">
-        <v>1771</v>
+        <v>1657</v>
       </c>
       <c r="F1007" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1007" s="7">
         <v>0</v>
@@ -28876,19 +28886,19 @@
     </row>
     <row r="1008" spans="1:7">
       <c r="A1008" s="4" t="s">
-        <v>1776</v>
+        <v>426</v>
       </c>
       <c r="B1008" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1008" s="4" t="s">
         <v>1777</v>
-      </c>
-      <c r="C1008" s="4" t="s">
-        <v>1771</v>
       </c>
       <c r="D1008" s="5"/>
       <c r="E1008" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1008" s="7">
+        <v>1777</v>
+      </c>
+      <c r="F1008" s="8">
         <v>0</v>
       </c>
       <c r="G1008" s="7">
@@ -28903,15 +28913,13 @@
         <v>1779</v>
       </c>
       <c r="C1009" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1009" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>1777</v>
+      </c>
+      <c r="D1009" s="5"/>
       <c r="E1009" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1009" s="8">
+        <v>1777</v>
+      </c>
+      <c r="F1009" s="7">
         <v>0</v>
       </c>
       <c r="G1009" s="7">
@@ -28923,18 +28931,16 @@
         <v>1780</v>
       </c>
       <c r="B1010" s="4" t="s">
-        <v>381</v>
+        <v>1781</v>
       </c>
       <c r="C1010" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1010" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>1777</v>
+      </c>
+      <c r="D1010" s="5"/>
       <c r="E1010" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1010" s="8">
+        <v>1777</v>
+      </c>
+      <c r="F1010" s="7">
         <v>0</v>
       </c>
       <c r="G1010" s="7">
@@ -28943,17 +28949,17 @@
     </row>
     <row r="1011" spans="1:7">
       <c r="A1011" s="4" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1011" s="4" t="s">
-        <v>381</v>
+        <v>1783</v>
       </c>
       <c r="C1011" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="D1011" s="5"/>
       <c r="E1011" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="F1011" s="7">
         <v>0</v>
@@ -28964,21 +28970,21 @@
     </row>
     <row r="1012" spans="1:7">
       <c r="A1012" s="4" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="B1012" s="4" t="s">
-        <v>20</v>
+        <v>1785</v>
       </c>
       <c r="C1012" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="D1012" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E1012" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1012" s="7">
+        <v>1777</v>
+      </c>
+      <c r="F1012" s="8">
         <v>0</v>
       </c>
       <c r="G1012" s="7">
@@ -28987,19 +28993,19 @@
     </row>
     <row r="1013" spans="1:7">
       <c r="A1013" s="4" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="B1013" s="4" t="s">
-        <v>1784</v>
+        <v>381</v>
       </c>
       <c r="C1013" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="D1013" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E1013" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="F1013" s="8">
         <v>0</v>
@@ -29010,21 +29016,19 @@
     </row>
     <row r="1014" spans="1:7">
       <c r="A1014" s="4" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="B1014" s="4" t="s">
-        <v>1786</v>
+        <v>381</v>
       </c>
       <c r="C1014" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1014" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>1777</v>
+      </c>
+      <c r="D1014" s="5"/>
       <c r="E1014" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1014" s="8">
+        <v>1777</v>
+      </c>
+      <c r="F1014" s="7">
         <v>0</v>
       </c>
       <c r="G1014" s="7">
@@ -29033,17 +29037,19 @@
     </row>
     <row r="1015" spans="1:7">
       <c r="A1015" s="4" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B1015" s="4" t="s">
-        <v>1788</v>
+        <v>20</v>
       </c>
       <c r="C1015" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1015" s="5"/>
+        <v>1777</v>
+      </c>
+      <c r="D1015" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E1015" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="F1015" s="7">
         <v>0</v>
@@ -29056,15 +29062,17 @@
       <c r="A1016" s="4" t="s">
         <v>1789</v>
       </c>
-      <c r="B1016" s="5" t="s">
+      <c r="B1016" s="4" t="s">
         <v>1790</v>
       </c>
       <c r="C1016" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1016" s="4"/>
+        <v>1777</v>
+      </c>
+      <c r="D1016" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E1016" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="F1016" s="8">
         <v>0</v>
@@ -29081,13 +29089,15 @@
         <v>1792</v>
       </c>
       <c r="C1017" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1017" s="5"/>
+        <v>1777</v>
+      </c>
+      <c r="D1017" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E1017" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1017" s="7">
+        <v>1777</v>
+      </c>
+      <c r="F1017" s="8">
         <v>0</v>
       </c>
       <c r="G1017" s="7">
@@ -29102,11 +29112,11 @@
         <v>1794</v>
       </c>
       <c r="C1018" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="D1018" s="5"/>
       <c r="E1018" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="F1018" s="7">
         <v>0</v>
@@ -29119,15 +29129,15 @@
       <c r="A1019" s="4" t="s">
         <v>1795</v>
       </c>
-      <c r="B1019" s="4" t="s">
+      <c r="B1019" s="5" t="s">
         <v>1796</v>
       </c>
       <c r="C1019" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1019" s="5"/>
+        <v>1777</v>
+      </c>
+      <c r="D1019" s="4"/>
       <c r="E1019" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="F1019" s="8">
         <v>0</v>
@@ -29141,25 +29151,89 @@
         <v>1797</v>
       </c>
       <c r="B1020" s="4" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="C1020" s="4" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="D1020" s="5"/>
       <c r="E1020" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1020" s="8">
+        <v>1777</v>
+      </c>
+      <c r="F1020" s="7">
         <v>0</v>
       </c>
       <c r="G1020" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7">
+      <c r="A1021" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1021" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1021" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D1021" s="5"/>
+      <c r="E1021" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F1021" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1021" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7">
+      <c r="A1022" s="4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1022" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1022" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D1022" s="5"/>
+      <c r="E1022" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F1022" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1022" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7">
+      <c r="A1023" s="4" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1023" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1023" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D1023" s="5"/>
+      <c r="E1023" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F1023" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1023" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <sortState ref="A2:G1020">
+  <autoFilter ref="A1:G1023"/>
+  <sortState ref="A2:G1023">
     <sortCondition ref="E1"/>
   </sortState>
   <dataValidations count="1">
@@ -29171,7 +29245,7 @@
     <hyperlink ref="D889" r:id="rId1" display="《国王排名》ED" tooltip="https://baike.baidu.com/item/%E5%9B%BD%E7%8E%8B%E6%8E%92%E5%90%8D/24190907"/>
     <hyperlink ref="D201" r:id="rId2" display="《英雄联盟：双城之战》的中文主题曲" tooltip="https://baike.baidu.com/item/%E8%8B%B1%E9%9B%84%E8%81%94%E7%9B%9F%EF%BC%9A%E5%8F%8C%E5%9F%8E%E4%B9%8B%E6%88%98/58613563"/>
     <hyperlink ref="D866" r:id="rId3" display="我的世界已坠入爱河《闪烁的青春》OP主题曲" tooltip="https://baike.baidu.com/item/%E9%97%AA%E7%83%81%E7%9A%84%E9%9D%92%E6%98%A5/13320086"/>
-    <hyperlink ref="D937" r:id="rId4" display="《明日方舟》EP" tooltip="https://baike.baidu.com/item/%E9%AC%BC%E7%81%AD%E4%B9%8B%E5%88%83%EF%BC%9A%E6%97%A0%E9%99%90%E5%88%97%E8%BD%A6%E7%AF%87/23783245"/>
+    <hyperlink ref="D939" r:id="rId4" display="《明日方舟》EP" tooltip="https://baike.baidu.com/item/%E9%AC%BC%E7%81%AD%E4%B9%8B%E5%88%83%EF%BC%9A%E6%97%A0%E9%99%90%E5%88%97%E8%BD%A6%E7%AF%87/23783245"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -29185,8 +29259,20 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <autofilters xmlns="https://web.wps.cn/et/2018/main">
   <sheetItem sheetStid="1">
-    <filterData filterID="1331220589"/>
+    <filterData filterID="1331220589">
+      <hiddenRange rowFrom="1" rowTo="38"/>
+      <hiddenRange rowFrom="40" rowTo="1022"/>
+    </filterData>
     <filterData filterID="1331040869"/>
+    <autofilterInfo filterID="1331220589">
+      <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G1023">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="equal" val="百变奶精"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </autofilterInfo>
   </sheetItem>
 </autofilters>
 </file>
@@ -29194,7 +29280,9 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
+      <cellprotection/>
+    </woSheetProps>
   </woSheetsProps>
   <woBookProps>
     <bookSettings isFilterShared="0" coreConquerUserId="" isAutoUpdatePaused="0" filterType="user" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>

--- a/music_list_7.xlsx
+++ b/music_list_7.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="1987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="1989">
   <si>
     <t>歌名</t>
   </si>
@@ -5440,6 +5440,12 @@
     <t>《白色相簿2》OP</t>
   </si>
   <si>
+    <t>さよならのこと</t>
+  </si>
+  <si>
+    <t>《WHITE Album》</t>
+  </si>
+  <si>
     <t>扉を開けて/敞开心扉</t>
   </si>
   <si>
@@ -6042,45 +6048,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="39">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="184" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="185" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="186" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="188" formatCode="yy/m/d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="189" formatCode="m/d"/>
+    <numFmt numFmtId="190" formatCode="#\ ??"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="192" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="195" formatCode="mmmmm"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="197" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="198" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
+    <numFmt numFmtId="199" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="201" formatCode="mmmmm\-yy"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="184" formatCode="#\ ??"/>
-    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="188" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="189" formatCode="yy/m/d"/>
-    <numFmt numFmtId="190" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="191" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="193" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="194" formatCode="mmmmm"/>
-    <numFmt numFmtId="195" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="197" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="200" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="201" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="202" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="202" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -6255,8 +6261,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6269,24 +6298,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6301,7 +6330,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6310,20 +6339,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -6339,24 +6384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6370,30 +6399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6427,7 +6433,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6439,31 +6541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6475,19 +6559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6499,43 +6571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6547,13 +6583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6565,49 +6607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6618,30 +6624,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6663,17 +6645,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6693,6 +6669,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6708,13 +6695,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6723,148 +6729,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6875,7 +6881,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -6893,10 +6899,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -7305,9 +7311,9 @@
   <dimension ref="A1:H1079"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1062" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1064" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1074" sqref="B1074"/>
+      <selection pane="bottomLeft" activeCell="B1079" sqref="B1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -30111,30 +30117,31 @@
       </c>
       <c r="H986" s="6"/>
     </row>
-    <row r="987" spans="1:8">
-      <c r="A987" s="5" t="s">
+    <row r="987" spans="1:7">
+      <c r="A987" s="11" t="s">
         <v>1788</v>
       </c>
-      <c r="B987" s="6" t="s">
+      <c r="B987" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C987" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D987" s="11" t="s">
         <v>1789</v>
       </c>
-      <c r="C987" s="5" t="s">
+      <c r="E987" s="11" t="s">
         <v>1541</v>
       </c>
-      <c r="D987" s="6"/>
-      <c r="E987" s="5" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F987" s="8">
-        <v>0</v>
-      </c>
-      <c r="G987" s="8">
-        <v>0</v>
-      </c>
-      <c r="H987" s="6"/>
-    </row>
-    <row r="988" spans="1:7">
-      <c r="A988" s="6" t="s">
+      <c r="F987" s="2">
+        <v>1</v>
+      </c>
+      <c r="G987" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8">
+      <c r="A988" s="5" t="s">
         <v>1790</v>
       </c>
       <c r="B988" s="6" t="s">
@@ -30143,9 +30150,7 @@
       <c r="C988" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D988" s="6" t="s">
-        <v>1792</v>
-      </c>
+      <c r="D988" s="6"/>
       <c r="E988" s="5" t="s">
         <v>1541</v>
       </c>
@@ -30155,48 +30160,48 @@
       <c r="G988" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="989" spans="1:8">
-      <c r="A989" s="5" t="s">
+      <c r="H988" s="6"/>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B989" s="6" t="s">
         <v>1793</v>
-      </c>
-      <c r="B989" s="5" t="s">
-        <v>1794</v>
       </c>
       <c r="C989" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D989" s="5" t="s">
-        <v>1795</v>
+      <c r="D989" s="6" t="s">
+        <v>1794</v>
       </c>
       <c r="E989" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="F989" s="9">
+      <c r="F989" s="8">
         <v>0</v>
       </c>
       <c r="G989" s="8">
         <v>0</v>
       </c>
-      <c r="H989" s="6"/>
     </row>
     <row r="990" spans="1:8">
-      <c r="A990" s="6" t="s">
+      <c r="A990" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B990" s="5" t="s">
         <v>1796</v>
-      </c>
-      <c r="B990" s="27" t="s">
-        <v>1797</v>
       </c>
       <c r="C990" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D990" s="30" t="s">
-        <v>1798</v>
+      <c r="D990" s="5" t="s">
+        <v>1797</v>
       </c>
       <c r="E990" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="F990" s="8">
+      <c r="F990" s="9">
         <v>0</v>
       </c>
       <c r="G990" s="8">
@@ -30205,20 +30210,22 @@
       <c r="H990" s="6"/>
     </row>
     <row r="991" spans="1:8">
-      <c r="A991" s="5" t="s">
+      <c r="A991" s="6" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B991" s="27" t="s">
         <v>1799</v>
-      </c>
-      <c r="B991" s="5" t="s">
-        <v>1800</v>
       </c>
       <c r="C991" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D991" s="6"/>
+      <c r="D991" s="30" t="s">
+        <v>1800</v>
+      </c>
       <c r="E991" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="F991" s="9">
+      <c r="F991" s="8">
         <v>0</v>
       </c>
       <c r="G991" s="8">
@@ -30231,14 +30238,12 @@
         <v>1801</v>
       </c>
       <c r="B992" s="5" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="C992" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D992" s="5" t="s">
-        <v>1802</v>
-      </c>
+      <c r="D992" s="6"/>
       <c r="E992" s="5" t="s">
         <v>1541</v>
       </c>
@@ -30255,18 +30260,18 @@
         <v>1803</v>
       </c>
       <c r="B993" s="5" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C993" s="5" t="s">
         <v>1541</v>
       </c>
       <c r="D993" s="5" t="s">
-        <v>1774</v>
+        <v>1804</v>
       </c>
       <c r="E993" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="F993" s="8">
+      <c r="F993" s="9">
         <v>0</v>
       </c>
       <c r="G993" s="8">
@@ -30285,7 +30290,7 @@
         <v>1541</v>
       </c>
       <c r="D994" s="5" t="s">
-        <v>1807</v>
+        <v>1774</v>
       </c>
       <c r="E994" s="5" t="s">
         <v>1541</v>
@@ -30300,15 +30305,17 @@
     </row>
     <row r="995" spans="1:8">
       <c r="A995" s="5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B995" s="5" t="s">
         <v>1808</v>
-      </c>
-      <c r="B995" s="6" t="s">
-        <v>1809</v>
       </c>
       <c r="C995" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D995" s="6"/>
+      <c r="D995" s="5" t="s">
+        <v>1809</v>
+      </c>
       <c r="E995" s="5" t="s">
         <v>1541</v>
       </c>
@@ -30324,15 +30331,13 @@
       <c r="A996" s="5" t="s">
         <v>1810</v>
       </c>
-      <c r="B996" s="5" t="s">
+      <c r="B996" s="6" t="s">
         <v>1811</v>
       </c>
       <c r="C996" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D996" s="5" t="s">
-        <v>1812</v>
-      </c>
+      <c r="D996" s="6"/>
       <c r="E996" s="5" t="s">
         <v>1541</v>
       </c>
@@ -30345,17 +30350,19 @@
       <c r="H996" s="6"/>
     </row>
     <row r="997" spans="1:8">
-      <c r="A997" s="6" t="s">
+      <c r="A997" s="5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B997" s="5" t="s">
         <v>1813</v>
       </c>
-      <c r="B997" s="6" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C997" s="6" t="s">
+      <c r="C997" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D997" s="6"/>
-      <c r="E997" s="6" t="s">
+      <c r="D997" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E997" s="5" t="s">
         <v>1541</v>
       </c>
       <c r="F997" s="8">
@@ -30368,18 +30375,16 @@
     </row>
     <row r="998" spans="1:8">
       <c r="A998" s="6" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B998" s="5" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C998" s="5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B998" s="6" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C998" s="6" t="s">
         <v>1541</v>
       </c>
-      <c r="D998" s="6" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E998" s="5" t="s">
+      <c r="D998" s="6"/>
+      <c r="E998" s="6" t="s">
         <v>1541</v>
       </c>
       <c r="F998" s="8">
@@ -30391,17 +30396,17 @@
       <c r="H998" s="6"/>
     </row>
     <row r="999" spans="1:8">
-      <c r="A999" s="5" t="s">
+      <c r="A999" s="6" t="s">
         <v>1816</v>
       </c>
       <c r="B999" s="5" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="C999" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D999" s="5" t="s">
-        <v>1818</v>
+      <c r="D999" s="6" t="s">
+        <v>1817</v>
       </c>
       <c r="E999" s="5" t="s">
         <v>1541</v>
@@ -30416,16 +30421,16 @@
     </row>
     <row r="1000" spans="1:8">
       <c r="A1000" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1000" s="5" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1000" s="5" t="s">
-        <v>1820</v>
       </c>
       <c r="C1000" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D1000" s="30" t="s">
-        <v>1821</v>
+      <c r="D1000" s="5" t="s">
+        <v>1820</v>
       </c>
       <c r="E1000" s="5" t="s">
         <v>1541</v>
@@ -30440,16 +30445,18 @@
     </row>
     <row r="1001" spans="1:8">
       <c r="A1001" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1001" s="5" t="s">
         <v>1822</v>
       </c>
-      <c r="B1001" s="6" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C1001" s="6" t="s">
+      <c r="C1001" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="D1001" s="6"/>
-      <c r="E1001" s="6" t="s">
+      <c r="D1001" s="30" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E1001" s="5" t="s">
         <v>1541</v>
       </c>
       <c r="F1001" s="8">
@@ -30458,47 +30465,45 @@
       <c r="G1001" s="8">
         <v>0</v>
       </c>
-      <c r="H1001" s="6" t="s">
-        <v>1823</v>
-      </c>
+      <c r="H1001" s="6"/>
     </row>
     <row r="1002" spans="1:8">
       <c r="A1002" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="B1002" s="6" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1002" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D1002" s="6"/>
+      <c r="E1002" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F1002" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1002" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1002" s="6" t="s">
         <v>1825</v>
       </c>
-      <c r="C1002" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1002" s="6"/>
-      <c r="E1002" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1002" s="8">
-        <v>0</v>
-      </c>
-      <c r="G1002" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1002" s="6"/>
     </row>
     <row r="1003" spans="1:8">
       <c r="A1003" s="5" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1003" s="6" t="s">
         <v>1827</v>
       </c>
-      <c r="B1003" s="6" t="s">
+      <c r="C1003" s="5" t="s">
         <v>1828</v>
       </c>
-      <c r="C1003" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1003" s="5" t="s">
-        <v>1829</v>
-      </c>
+      <c r="D1003" s="6"/>
       <c r="E1003" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1003" s="8">
         <v>0</v>
@@ -30510,21 +30515,21 @@
     </row>
     <row r="1004" spans="1:8">
       <c r="A1004" s="5" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1004" s="6" t="s">
         <v>1830</v>
       </c>
-      <c r="B1004" s="6" t="s">
+      <c r="C1004" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1004" s="5" t="s">
         <v>1831</v>
       </c>
-      <c r="C1004" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1004" s="5" t="s">
-        <v>1832</v>
-      </c>
       <c r="E1004" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1004" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1004" s="8">
         <v>0</v>
       </c>
       <c r="G1004" s="8">
@@ -30534,19 +30539,19 @@
     </row>
     <row r="1005" spans="1:8">
       <c r="A1005" s="5" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1005" s="6" t="s">
         <v>1833</v>
       </c>
-      <c r="B1005" s="5" t="s">
+      <c r="C1005" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1005" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="C1005" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1005" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E1005" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1005" s="9">
         <v>0</v>
@@ -30561,14 +30566,16 @@
         <v>1835</v>
       </c>
       <c r="B1006" s="5" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="C1006" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1006" s="6"/>
+        <v>1828</v>
+      </c>
+      <c r="D1006" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E1006" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1006" s="9">
         <v>0</v>
@@ -30580,65 +30587,65 @@
     </row>
     <row r="1007" spans="1:8">
       <c r="A1007" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1007" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="B1007" s="5" t="s">
-        <v>1834</v>
-      </c>
       <c r="C1007" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1007" s="6"/>
       <c r="E1007" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1007" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1007" s="9">
         <v>0</v>
       </c>
       <c r="G1007" s="8">
         <v>0</v>
       </c>
-      <c r="H1007" s="6" t="s">
-        <v>1837</v>
-      </c>
+      <c r="H1007" s="6"/>
     </row>
     <row r="1008" spans="1:8">
       <c r="A1008" s="5" t="s">
         <v>1838</v>
       </c>
       <c r="B1008" s="5" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C1008" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1008" s="6"/>
       <c r="E1008" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1008" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1008" s="8">
         <v>0</v>
       </c>
       <c r="G1008" s="8">
         <v>0</v>
       </c>
-      <c r="H1008" s="6"/>
+      <c r="H1008" s="6" t="s">
+        <v>1839</v>
+      </c>
     </row>
     <row r="1009" spans="1:8">
       <c r="A1009" s="5" t="s">
         <v>1840</v>
       </c>
-      <c r="B1009" s="6" t="s">
+      <c r="B1009" s="5" t="s">
         <v>1841</v>
       </c>
       <c r="C1009" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1009" s="6"/>
       <c r="E1009" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1009" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1009" s="9">
         <v>0</v>
       </c>
       <c r="G1009" s="8">
@@ -30650,17 +30657,17 @@
       <c r="A1010" s="5" t="s">
         <v>1842</v>
       </c>
-      <c r="B1010" s="5" t="s">
+      <c r="B1010" s="6" t="s">
         <v>1843</v>
       </c>
       <c r="C1010" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1010" s="6"/>
       <c r="E1010" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1010" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1010" s="8">
         <v>0</v>
       </c>
       <c r="G1010" s="8">
@@ -30672,15 +30679,15 @@
       <c r="A1011" s="5" t="s">
         <v>1844</v>
       </c>
-      <c r="B1011" s="6" t="s">
+      <c r="B1011" s="5" t="s">
         <v>1845</v>
       </c>
       <c r="C1011" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1011" s="6"/>
       <c r="E1011" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1011" s="9">
         <v>0</v>
@@ -30688,23 +30695,21 @@
       <c r="G1011" s="8">
         <v>0</v>
       </c>
-      <c r="H1011" s="6" t="s">
-        <v>1846</v>
-      </c>
+      <c r="H1011" s="6"/>
     </row>
     <row r="1012" spans="1:8">
       <c r="A1012" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1012" s="6" t="s">
         <v>1847</v>
       </c>
-      <c r="B1012" s="6" t="s">
-        <v>1848</v>
-      </c>
       <c r="C1012" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1012" s="6"/>
       <c r="E1012" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1012" s="9">
         <v>0</v>
@@ -30712,7 +30717,9 @@
       <c r="G1012" s="8">
         <v>0</v>
       </c>
-      <c r="H1012" s="6"/>
+      <c r="H1012" s="6" t="s">
+        <v>1848</v>
+      </c>
     </row>
     <row r="1013" spans="1:8">
       <c r="A1013" s="5" t="s">
@@ -30722,15 +30729,13 @@
         <v>1850</v>
       </c>
       <c r="C1013" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1013" s="5" t="s">
-        <v>1851</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="D1013" s="6"/>
       <c r="E1013" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1013" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1013" s="9">
         <v>0</v>
       </c>
       <c r="G1013" s="8">
@@ -30740,19 +30745,21 @@
     </row>
     <row r="1014" spans="1:8">
       <c r="A1014" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1014" s="6" t="s">
         <v>1852</v>
       </c>
-      <c r="B1014" s="6" t="s">
+      <c r="C1014" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1014" s="5" t="s">
         <v>1853</v>
       </c>
-      <c r="C1014" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1014" s="6"/>
       <c r="E1014" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1014" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1014" s="8">
         <v>0</v>
       </c>
       <c r="G1014" s="8">
@@ -30768,13 +30775,13 @@
         <v>1855</v>
       </c>
       <c r="C1015" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1015" s="6"/>
       <c r="E1015" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1015" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1015" s="9">
         <v>0</v>
       </c>
       <c r="G1015" s="8">
@@ -30786,41 +30793,41 @@
       <c r="A1016" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="B1016" s="5" t="s">
+      <c r="B1016" s="6" t="s">
         <v>1857</v>
       </c>
       <c r="C1016" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1016" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1016" s="6"/>
+      <c r="E1016" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1016" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1016" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1016" s="6"/>
+    </row>
+    <row r="1017" spans="1:8">
+      <c r="A1017" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1017" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C1017" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1017" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1016" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1016" s="9">
-        <v>0</v>
-      </c>
-      <c r="G1016" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1016" s="6"/>
-    </row>
-    <row r="1017" spans="1:8">
-      <c r="A1017" s="6" t="s">
-        <v>1858</v>
-      </c>
-      <c r="B1017" s="6" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C1017" s="6" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1017" s="6"/>
-      <c r="E1017" s="6" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1017" s="8">
+      <c r="E1017" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1017" s="9">
         <v>0</v>
       </c>
       <c r="G1017" s="8">
@@ -30829,20 +30836,20 @@
       <c r="H1017" s="6"/>
     </row>
     <row r="1018" spans="1:8">
-      <c r="A1018" s="5" t="s">
+      <c r="A1018" s="6" t="s">
         <v>1860</v>
       </c>
       <c r="B1018" s="6" t="s">
         <v>1861</v>
       </c>
-      <c r="C1018" s="5" t="s">
-        <v>1826</v>
+      <c r="C1018" s="6" t="s">
+        <v>1828</v>
       </c>
       <c r="D1018" s="6"/>
-      <c r="E1018" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1018" s="9">
+      <c r="E1018" s="6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1018" s="8">
         <v>0</v>
       </c>
       <c r="G1018" s="8">
@@ -30858,13 +30865,11 @@
         <v>1863</v>
       </c>
       <c r="C1019" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1019" s="6" t="s">
-        <v>1864</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="D1019" s="6"/>
       <c r="E1019" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1019" s="9">
         <v>0</v>
@@ -30876,17 +30881,19 @@
     </row>
     <row r="1020" spans="1:8">
       <c r="A1020" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1020" s="6" t="s">
         <v>1865</v>
       </c>
-      <c r="B1020" s="5" t="s">
+      <c r="C1020" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1020" s="6" t="s">
         <v>1866</v>
       </c>
-      <c r="C1020" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1020" s="6"/>
       <c r="E1020" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1020" s="9">
         <v>0</v>
@@ -30904,11 +30911,11 @@
         <v>1868</v>
       </c>
       <c r="C1021" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1021" s="6"/>
       <c r="E1021" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1021" s="9">
         <v>0</v>
@@ -30923,16 +30930,16 @@
         <v>1869</v>
       </c>
       <c r="B1022" s="5" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="C1022" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1022" s="6"/>
       <c r="E1022" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1022" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1022" s="9">
         <v>0</v>
       </c>
       <c r="G1022" s="8">
@@ -30942,19 +30949,17 @@
     </row>
     <row r="1023" spans="1:8">
       <c r="A1023" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1023" s="5" t="s">
         <v>1870</v>
       </c>
-      <c r="B1023" s="6" t="s">
-        <v>1871</v>
-      </c>
       <c r="C1023" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1023" s="5" t="s">
-        <v>1872</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="D1023" s="6"/>
       <c r="E1023" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1023" s="8">
         <v>0</v>
@@ -30966,19 +30971,21 @@
     </row>
     <row r="1024" spans="1:8">
       <c r="A1024" s="5" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1024" s="6" t="s">
         <v>1873</v>
       </c>
-      <c r="B1024" s="6" t="s">
+      <c r="C1024" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1024" s="5" t="s">
         <v>1874</v>
       </c>
-      <c r="C1024" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1024" s="6"/>
       <c r="E1024" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1024" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1024" s="8">
         <v>0</v>
       </c>
       <c r="G1024" s="8">
@@ -30994,13 +31001,13 @@
         <v>1876</v>
       </c>
       <c r="C1025" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1025" s="6"/>
       <c r="E1025" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1025" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1025" s="9">
         <v>0</v>
       </c>
       <c r="G1025" s="8">
@@ -31016,13 +31023,13 @@
         <v>1878</v>
       </c>
       <c r="C1026" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1026" s="6"/>
       <c r="E1026" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1026" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1026" s="8">
         <v>0</v>
       </c>
       <c r="G1026" s="8">
@@ -31038,13 +31045,11 @@
         <v>1880</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1027" s="5" t="s">
-        <v>1881</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="D1027" s="6"/>
       <c r="E1027" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1027" s="9">
         <v>0</v>
@@ -31056,17 +31061,19 @@
     </row>
     <row r="1028" spans="1:8">
       <c r="A1028" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1028" s="6" t="s">
         <v>1882</v>
       </c>
-      <c r="B1028" s="6" t="s">
+      <c r="C1028" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1028" s="5" t="s">
         <v>1883</v>
       </c>
-      <c r="C1028" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1028" s="6"/>
       <c r="E1028" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1028" s="9">
         <v>0</v>
@@ -31074,47 +31081,47 @@
       <c r="G1028" s="8">
         <v>0</v>
       </c>
-      <c r="H1028" s="6" t="s">
-        <v>1884</v>
-      </c>
+      <c r="H1028" s="6"/>
     </row>
     <row r="1029" spans="1:8">
       <c r="A1029" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1029" s="6" t="s">
         <v>1885</v>
       </c>
-      <c r="B1029" s="6" t="s">
+      <c r="C1029" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1029" s="6"/>
+      <c r="E1029" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1029" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1029" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1029" s="6" t="s">
         <v>1886</v>
       </c>
-      <c r="C1029" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1029" s="6" t="s">
-        <v>1887</v>
-      </c>
-      <c r="E1029" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1029" s="8">
-        <v>0</v>
-      </c>
-      <c r="G1029" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1029" s="6"/>
     </row>
     <row r="1030" spans="1:8">
       <c r="A1030" s="5" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1030" s="6" t="s">
         <v>1888</v>
       </c>
-      <c r="B1030" s="6" t="s">
+      <c r="C1030" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1030" s="6" t="s">
         <v>1889</v>
       </c>
-      <c r="C1030" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1030" s="6"/>
       <c r="E1030" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1030" s="8">
         <v>0</v>
@@ -31132,13 +31139,13 @@
         <v>1891</v>
       </c>
       <c r="C1031" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1031" s="6"/>
       <c r="E1031" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1031" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1031" s="8">
         <v>0</v>
       </c>
       <c r="G1031" s="8">
@@ -31154,13 +31161,13 @@
         <v>1893</v>
       </c>
       <c r="C1032" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1032" s="6"/>
       <c r="E1032" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1032" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1032" s="9">
         <v>0</v>
       </c>
       <c r="G1032" s="8">
@@ -31172,15 +31179,15 @@
       <c r="A1033" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="B1033" s="5" t="s">
+      <c r="B1033" s="6" t="s">
         <v>1895</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1033" s="6"/>
       <c r="E1033" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1033" s="8">
         <v>0</v>
@@ -31194,63 +31201,63 @@
       <c r="A1034" s="5" t="s">
         <v>1896</v>
       </c>
-      <c r="B1034" s="6" t="s">
+      <c r="B1034" s="5" t="s">
         <v>1897</v>
       </c>
       <c r="C1034" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1034" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1034" s="6"/>
+      <c r="E1034" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1034" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1034" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1034" s="6"/>
+    </row>
+    <row r="1035" spans="1:8">
+      <c r="A1035" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="E1034" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1034" s="9">
-        <v>0</v>
-      </c>
-      <c r="G1034" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1034" s="6" t="s">
+      <c r="B1035" s="6" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="1035" spans="1:8">
-      <c r="A1035" s="6" t="s">
+      <c r="C1035" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1035" s="5" t="s">
         <v>1900</v>
       </c>
-      <c r="B1035" s="5" t="s">
+      <c r="E1035" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1035" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1035" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1035" s="6" t="s">
         <v>1901</v>
       </c>
-      <c r="C1035" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1035" s="6"/>
-      <c r="E1035" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1035" s="8">
-        <v>0</v>
-      </c>
-      <c r="G1035" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1035" s="6"/>
     </row>
     <row r="1036" spans="1:8">
-      <c r="A1036" s="5" t="s">
+      <c r="A1036" s="6" t="s">
         <v>1902</v>
       </c>
       <c r="B1036" s="5" t="s">
         <v>1903</v>
       </c>
       <c r="C1036" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1036" s="6"/>
       <c r="E1036" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1036" s="8">
         <v>0</v>
@@ -31264,15 +31271,15 @@
       <c r="A1037" s="5" t="s">
         <v>1904</v>
       </c>
-      <c r="B1037" s="6" t="s">
+      <c r="B1037" s="5" t="s">
         <v>1905</v>
       </c>
       <c r="C1037" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1037" s="6"/>
       <c r="E1037" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1037" s="8">
         <v>0</v>
@@ -31290,13 +31297,13 @@
         <v>1907</v>
       </c>
       <c r="C1038" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1038" s="6"/>
       <c r="E1038" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1038" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1038" s="8">
         <v>0</v>
       </c>
       <c r="G1038" s="8">
@@ -31308,39 +31315,37 @@
       <c r="A1039" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="B1039" s="5" t="s">
+      <c r="B1039" s="6" t="s">
         <v>1909</v>
       </c>
       <c r="C1039" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1039" s="6"/>
       <c r="E1039" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1039" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1039" s="9">
         <v>0</v>
       </c>
       <c r="G1039" s="8">
         <v>0</v>
       </c>
-      <c r="H1039" s="6" t="s">
-        <v>1910</v>
-      </c>
+      <c r="H1039" s="6"/>
     </row>
     <row r="1040" spans="1:8">
       <c r="A1040" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1040" s="5" t="s">
         <v>1911</v>
       </c>
-      <c r="B1040" s="6" t="s">
-        <v>1912</v>
-      </c>
       <c r="C1040" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1040" s="6"/>
       <c r="E1040" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1040" s="8">
         <v>0</v>
@@ -31348,7 +31353,9 @@
       <c r="G1040" s="8">
         <v>0</v>
       </c>
-      <c r="H1040" s="6"/>
+      <c r="H1040" s="6" t="s">
+        <v>1912</v>
+      </c>
     </row>
     <row r="1041" spans="1:8">
       <c r="A1041" s="5" t="s">
@@ -31358,43 +31365,43 @@
         <v>1914</v>
       </c>
       <c r="C1041" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1041" s="6"/>
       <c r="E1041" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1041" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1041" s="8">
         <v>0</v>
       </c>
       <c r="G1041" s="8">
         <v>0</v>
       </c>
-      <c r="H1041" s="6" t="s">
-        <v>1915</v>
-      </c>
+      <c r="H1041" s="6"/>
     </row>
     <row r="1042" spans="1:8">
       <c r="A1042" s="5" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1042" s="6" t="s">
         <v>1916</v>
       </c>
-      <c r="B1042" s="5" t="s">
+      <c r="C1042" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1042" s="6"/>
+      <c r="E1042" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1042" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1042" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1042" s="6" t="s">
         <v>1917</v>
       </c>
-      <c r="C1042" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1042" s="5"/>
-      <c r="E1042" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1042" s="9">
-        <v>0</v>
-      </c>
-      <c r="G1042" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1042" s="6"/>
     </row>
     <row r="1043" spans="1:8">
       <c r="A1043" s="5" t="s">
@@ -31404,11 +31411,11 @@
         <v>1919</v>
       </c>
       <c r="C1043" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1043" s="6"/>
+        <v>1828</v>
+      </c>
+      <c r="D1043" s="5"/>
       <c r="E1043" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1043" s="9">
         <v>0</v>
@@ -31426,13 +31433,13 @@
         <v>1921</v>
       </c>
       <c r="C1044" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1044" s="6"/>
       <c r="E1044" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1044" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1044" s="9">
         <v>0</v>
       </c>
       <c r="G1044" s="8">
@@ -31444,15 +31451,15 @@
       <c r="A1045" s="5" t="s">
         <v>1922</v>
       </c>
-      <c r="B1045" s="6" t="s">
+      <c r="B1045" s="5" t="s">
         <v>1923</v>
       </c>
       <c r="C1045" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1045" s="6"/>
       <c r="E1045" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1045" s="8">
         <v>0</v>
@@ -31463,20 +31470,20 @@
       <c r="H1045" s="6"/>
     </row>
     <row r="1046" spans="1:8">
-      <c r="A1046" s="35" t="s">
+      <c r="A1046" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="B1046" s="36" t="s">
+      <c r="B1046" s="6" t="s">
         <v>1925</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1046" s="6"/>
       <c r="E1046" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1046" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1046" s="8">
         <v>0</v>
       </c>
       <c r="G1046" s="8">
@@ -31485,44 +31492,44 @@
       <c r="H1046" s="6"/>
     </row>
     <row r="1047" spans="1:8">
-      <c r="A1047" s="37" t="s">
+      <c r="A1047" s="35" t="s">
         <v>1926</v>
       </c>
-      <c r="B1047" s="5" t="s">
+      <c r="B1047" s="36" t="s">
         <v>1927</v>
       </c>
       <c r="C1047" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1047" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1047" s="6"/>
+      <c r="E1047" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1047" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1047" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1047" s="6"/>
+    </row>
+    <row r="1048" spans="1:8">
+      <c r="A1048" s="37" t="s">
         <v>1928</v>
       </c>
-      <c r="E1047" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1047" s="9">
-        <v>0</v>
-      </c>
-      <c r="G1047" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1047" s="6"/>
-    </row>
-    <row r="1048" spans="1:8">
-      <c r="A1048" s="5" t="s">
+      <c r="B1048" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="B1048" s="6" t="s">
+      <c r="C1048" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1048" s="5" t="s">
         <v>1930</v>
       </c>
-      <c r="C1048" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1048" s="6"/>
       <c r="E1048" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1048" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1048" s="9">
         <v>0</v>
       </c>
       <c r="G1048" s="8">
@@ -31538,13 +31545,13 @@
         <v>1932</v>
       </c>
       <c r="C1049" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1049" s="6"/>
       <c r="E1049" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1049" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1049" s="8">
         <v>0</v>
       </c>
       <c r="G1049" s="8">
@@ -31560,13 +31567,13 @@
         <v>1934</v>
       </c>
       <c r="C1050" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1050" s="6"/>
       <c r="E1050" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1050" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1050" s="9">
         <v>0</v>
       </c>
       <c r="G1050" s="8">
@@ -31578,17 +31585,17 @@
       <c r="A1051" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="B1051" s="5" t="s">
+      <c r="B1051" s="6" t="s">
         <v>1936</v>
       </c>
       <c r="C1051" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1051" s="6"/>
       <c r="E1051" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1051" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1051" s="8">
         <v>0</v>
       </c>
       <c r="G1051" s="8">
@@ -31600,15 +31607,15 @@
       <c r="A1052" s="5" t="s">
         <v>1937</v>
       </c>
-      <c r="B1052" s="6" t="s">
+      <c r="B1052" s="5" t="s">
         <v>1938</v>
       </c>
       <c r="C1052" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1052" s="6"/>
       <c r="E1052" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1052" s="9">
         <v>0</v>
@@ -31622,19 +31629,17 @@
       <c r="A1053" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="B1053" s="5" t="s">
-        <v>1938</v>
+      <c r="B1053" s="6" t="s">
+        <v>1940</v>
       </c>
       <c r="C1053" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1053" s="5" t="s">
-        <v>1940</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="D1053" s="6"/>
       <c r="E1053" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1053" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1053" s="9">
         <v>0</v>
       </c>
       <c r="G1053" s="8">
@@ -31646,15 +31651,17 @@
       <c r="A1054" s="5" t="s">
         <v>1941</v>
       </c>
-      <c r="B1054" s="6" t="s">
+      <c r="B1054" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C1054" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1054" s="5" t="s">
         <v>1942</v>
       </c>
-      <c r="C1054" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1054" s="6"/>
       <c r="E1054" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1054" s="8">
         <v>0</v>
@@ -31662,23 +31669,21 @@
       <c r="G1054" s="8">
         <v>0</v>
       </c>
-      <c r="H1054" s="6" t="s">
-        <v>1943</v>
-      </c>
+      <c r="H1054" s="6"/>
     </row>
     <row r="1055" spans="1:8">
       <c r="A1055" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1055" s="6" t="s">
         <v>1944</v>
       </c>
-      <c r="B1055" s="5" t="s">
-        <v>1945</v>
-      </c>
       <c r="C1055" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1055" s="6"/>
       <c r="E1055" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1055" s="8">
         <v>0</v>
@@ -31686,23 +31691,23 @@
       <c r="G1055" s="8">
         <v>0</v>
       </c>
-      <c r="H1055" s="6"/>
+      <c r="H1055" s="6" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="1056" spans="1:8">
       <c r="A1056" s="5" t="s">
         <v>1946</v>
       </c>
       <c r="B1056" s="5" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="C1056" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1056" s="5" t="s">
-        <v>1947</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="D1056" s="6"/>
       <c r="E1056" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1056" s="8">
         <v>0</v>
@@ -31710,49 +31715,49 @@
       <c r="G1056" s="8">
         <v>0</v>
       </c>
-      <c r="H1056" s="6" t="s">
-        <v>1948</v>
-      </c>
+      <c r="H1056" s="6"/>
     </row>
     <row r="1057" spans="1:8">
       <c r="A1057" s="5" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1057" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1057" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1057" s="5" t="s">
         <v>1949</v>
       </c>
-      <c r="B1057" s="5" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C1057" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1057" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E1057" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1057" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1057" s="8">
         <v>0</v>
       </c>
       <c r="G1057" s="8">
         <v>0</v>
       </c>
-      <c r="H1057" s="6"/>
+      <c r="H1057" s="6" t="s">
+        <v>1950</v>
+      </c>
     </row>
     <row r="1058" spans="1:8">
       <c r="A1058" s="5" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1058" s="5" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="C1058" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1058" s="5" t="s">
-        <v>1951</v>
+        <v>11</v>
       </c>
       <c r="E1058" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F1058" s="9">
         <v>0</v>
@@ -31767,110 +31772,112 @@
         <v>1952</v>
       </c>
       <c r="B1059" s="5" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="C1059" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1059" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E1059" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1059" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1059" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1059" s="6"/>
+    </row>
+    <row r="1060" spans="1:8">
+      <c r="A1060" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1060" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1060" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1060" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1059" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1059" s="8">
-        <v>0</v>
-      </c>
-      <c r="G1059" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1059" s="6" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:8">
-      <c r="A1060" s="6" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B1060" s="5" t="s">
+      <c r="E1060" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1060" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1060" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1060" s="6" t="s">
         <v>1955</v>
       </c>
-      <c r="C1060" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D1060" s="6"/>
-      <c r="E1060" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1060" s="9">
-        <v>0</v>
-      </c>
-      <c r="G1060" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1060" s="6"/>
     </row>
     <row r="1061" spans="1:8">
-      <c r="A1061" s="5" t="s">
+      <c r="A1061" s="6" t="s">
         <v>1956</v>
       </c>
       <c r="B1061" s="5" t="s">
-        <v>328</v>
+        <v>1957</v>
       </c>
       <c r="C1061" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D1061" s="6"/>
       <c r="E1061" s="5" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F1061" s="8">
+        <v>1828</v>
+      </c>
+      <c r="F1061" s="9">
         <v>0</v>
       </c>
       <c r="G1061" s="8">
         <v>0</v>
       </c>
-      <c r="H1061" s="6" t="s">
-        <v>1957</v>
-      </c>
+      <c r="H1061" s="6"/>
     </row>
     <row r="1062" spans="1:8">
       <c r="A1062" s="5" t="s">
-        <v>449</v>
+        <v>1958</v>
       </c>
       <c r="B1062" s="5" t="s">
-        <v>450</v>
+        <v>328</v>
       </c>
       <c r="C1062" s="5" t="s">
-        <v>1958</v>
+        <v>1828</v>
       </c>
       <c r="D1062" s="6"/>
       <c r="E1062" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F1062" s="9">
+        <v>1828</v>
+      </c>
+      <c r="F1062" s="8">
         <v>0</v>
       </c>
       <c r="G1062" s="8">
         <v>0</v>
       </c>
-      <c r="H1062" s="6"/>
+      <c r="H1062" s="6" t="s">
+        <v>1959</v>
+      </c>
     </row>
     <row r="1063" spans="1:8">
       <c r="A1063" s="5" t="s">
-        <v>1959</v>
+        <v>449</v>
       </c>
       <c r="B1063" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1063" s="5" t="s">
         <v>1960</v>
-      </c>
-      <c r="C1063" s="5" t="s">
-        <v>1958</v>
       </c>
       <c r="D1063" s="6"/>
       <c r="E1063" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F1063" s="8">
+        <v>1960</v>
+      </c>
+      <c r="F1063" s="9">
         <v>0</v>
       </c>
       <c r="G1063" s="8">
@@ -31886,11 +31893,11 @@
         <v>1962</v>
       </c>
       <c r="C1064" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D1064" s="6"/>
       <c r="E1064" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="F1064" s="8">
         <v>0</v>
@@ -31908,11 +31915,11 @@
         <v>1964</v>
       </c>
       <c r="C1065" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D1065" s="6"/>
       <c r="E1065" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="F1065" s="8">
         <v>0</v>
@@ -31930,15 +31937,13 @@
         <v>1966</v>
       </c>
       <c r="C1066" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D1066" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>1960</v>
+      </c>
+      <c r="D1066" s="6"/>
       <c r="E1066" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F1066" s="9">
+        <v>1960</v>
+      </c>
+      <c r="F1066" s="8">
         <v>0</v>
       </c>
       <c r="G1066" s="8">
@@ -31951,16 +31956,16 @@
         <v>1967</v>
       </c>
       <c r="B1067" s="5" t="s">
-        <v>402</v>
+        <v>1968</v>
       </c>
       <c r="C1067" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D1067" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1067" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="F1067" s="9">
         <v>0</v>
@@ -31972,43 +31977,41 @@
     </row>
     <row r="1068" spans="1:8">
       <c r="A1068" s="5" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1068" s="5" t="s">
         <v>402</v>
       </c>
       <c r="C1068" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D1068" s="6"/>
+        <v>1960</v>
+      </c>
+      <c r="D1068" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E1068" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F1068" s="8">
+        <v>1960</v>
+      </c>
+      <c r="F1068" s="9">
         <v>0</v>
       </c>
       <c r="G1068" s="8">
         <v>0</v>
       </c>
-      <c r="H1068" s="6" t="s">
-        <v>1969</v>
-      </c>
+      <c r="H1068" s="6"/>
     </row>
     <row r="1069" spans="1:8">
       <c r="A1069" s="5" t="s">
         <v>1970</v>
       </c>
       <c r="B1069" s="5" t="s">
-        <v>21</v>
+        <v>402</v>
       </c>
       <c r="C1069" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D1069" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>1960</v>
+      </c>
+      <c r="D1069" s="6"/>
       <c r="E1069" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="F1069" s="8">
         <v>0</v>
@@ -32016,25 +32019,27 @@
       <c r="G1069" s="8">
         <v>0</v>
       </c>
-      <c r="H1069" s="6"/>
+      <c r="H1069" s="6" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="1070" spans="1:8">
       <c r="A1070" s="5" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1070" s="5" t="s">
-        <v>1972</v>
+        <v>21</v>
       </c>
       <c r="C1070" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D1070" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1070" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F1070" s="9">
+        <v>1960</v>
+      </c>
+      <c r="F1070" s="8">
         <v>0</v>
       </c>
       <c r="G1070" s="8">
@@ -32050,13 +32055,13 @@
         <v>1974</v>
       </c>
       <c r="C1071" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D1071" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1071" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="F1071" s="9">
         <v>0</v>
@@ -32074,13 +32079,15 @@
         <v>1976</v>
       </c>
       <c r="C1072" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D1072" s="6"/>
+        <v>1960</v>
+      </c>
+      <c r="D1072" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E1072" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F1072" s="8">
+        <v>1960</v>
+      </c>
+      <c r="F1072" s="9">
         <v>0</v>
       </c>
       <c r="G1072" s="8">
@@ -32092,17 +32099,17 @@
       <c r="A1073" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="B1073" s="6" t="s">
+      <c r="B1073" s="5" t="s">
         <v>1978</v>
       </c>
       <c r="C1073" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D1073" s="5"/>
+        <v>1960</v>
+      </c>
+      <c r="D1073" s="6"/>
       <c r="E1073" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F1073" s="9">
+        <v>1960</v>
+      </c>
+      <c r="F1073" s="8">
         <v>0</v>
       </c>
       <c r="G1073" s="8">
@@ -32114,17 +32121,17 @@
       <c r="A1074" s="5" t="s">
         <v>1979</v>
       </c>
-      <c r="B1074" s="5" t="s">
+      <c r="B1074" s="6" t="s">
         <v>1980</v>
       </c>
       <c r="C1074" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D1074" s="6"/>
+        <v>1960</v>
+      </c>
+      <c r="D1074" s="5"/>
       <c r="E1074" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F1074" s="8">
+        <v>1960</v>
+      </c>
+      <c r="F1074" s="9">
         <v>0</v>
       </c>
       <c r="G1074" s="8">
@@ -32133,18 +32140,18 @@
       <c r="H1074" s="6"/>
     </row>
     <row r="1075" spans="1:8">
-      <c r="A1075" s="6" t="s">
+      <c r="A1075" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="B1075" s="6" t="s">
-        <v>1980</v>
-      </c>
-      <c r="C1075" s="6" t="s">
-        <v>1958</v>
+      <c r="B1075" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C1075" s="5" t="s">
+        <v>1960</v>
       </c>
       <c r="D1075" s="6"/>
-      <c r="E1075" s="6" t="s">
-        <v>1958</v>
+      <c r="E1075" s="5" t="s">
+        <v>1960</v>
       </c>
       <c r="F1075" s="8">
         <v>0</v>
@@ -32155,18 +32162,18 @@
       <c r="H1075" s="6"/>
     </row>
     <row r="1076" spans="1:8">
-      <c r="A1076" s="5" t="s">
+      <c r="A1076" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1076" s="6" t="s">
         <v>1982</v>
       </c>
-      <c r="B1076" s="5" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C1076" s="5" t="s">
-        <v>1958</v>
+      <c r="C1076" s="6" t="s">
+        <v>1960</v>
       </c>
       <c r="D1076" s="6"/>
-      <c r="E1076" s="5" t="s">
-        <v>1958</v>
+      <c r="E1076" s="6" t="s">
+        <v>1960</v>
       </c>
       <c r="F1076" s="8">
         <v>0</v>
@@ -32184,13 +32191,13 @@
         <v>1985</v>
       </c>
       <c r="C1077" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D1077" s="6"/>
       <c r="E1077" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F1077" s="9">
+        <v>1960</v>
+      </c>
+      <c r="F1077" s="8">
         <v>0</v>
       </c>
       <c r="G1077" s="8">
@@ -32199,18 +32206,18 @@
       <c r="H1077" s="6"/>
     </row>
     <row r="1078" spans="1:8">
-      <c r="A1078" t="s">
+      <c r="A1078" s="5" t="s">
         <v>1986</v>
       </c>
       <c r="B1078" s="5" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="C1078" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D1078" s="6"/>
       <c r="E1078" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="F1078" s="9">
         <v>0</v>
@@ -32220,18 +32227,37 @@
       </c>
       <c r="H1078" s="6"/>
     </row>
-    <row r="1079" spans="1:1">
-      <c r="A1079" s="11"/>
+    <row r="1079" spans="1:8">
+      <c r="A1079" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1079" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1079" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D1079" s="6"/>
+      <c r="E1079" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F1079" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1079" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1079" s="6"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <autoFilter ref="A1:H1078">
-    <sortState ref="A2:H1078">
+    <sortState ref="A1:H1078">
       <sortCondition ref="E1"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:H1063">
+  <sortState ref="A2:H1079">
     <sortCondition ref="E1"/>
   </sortState>
   <dataValidations count="1">
@@ -32243,7 +32269,7 @@
     <hyperlink ref="D930" r:id="rId1" display="《国王排名》ED" tooltip="https://baike.baidu.com/item/%E5%9B%BD%E7%8E%8B%E6%8E%92%E5%90%8D/24190907"/>
     <hyperlink ref="D207" r:id="rId2" display="《英雄联盟：双城之战》的中文主题曲" tooltip="https://baike.baidu.com/item/%E8%8B%B1%E9%9B%84%E8%81%94%E7%9B%9F%EF%BC%9A%E5%8F%8C%E5%9F%8E%E4%B9%8B%E6%88%98/58613563"/>
     <hyperlink ref="D900" r:id="rId3" display="我的世界已坠入爱河《闪烁的青春》OP主题曲" tooltip="https://baike.baidu.com/item/%E9%97%AA%E7%83%81%E7%9A%84%E9%9D%92%E6%98%A5/13320086"/>
-    <hyperlink ref="D990" r:id="rId4" display="《明日方舟》EP" tooltip="https://baike.baidu.com/item/%E9%AC%BC%E7%81%AD%E4%B9%8B%E5%88%83%EF%BC%9A%E6%97%A0%E9%99%90%E5%88%97%E8%BD%A6%E7%AF%87/23783245"/>
+    <hyperlink ref="D991" r:id="rId4" display="《明日方舟》EP" tooltip="https://baike.baidu.com/item/%E9%AC%BC%E7%81%AD%E4%B9%8B%E5%88%83%EF%BC%9A%E6%97%A0%E9%99%90%E5%88%97%E8%BD%A6%E7%AF%87/23783245"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -32253,8 +32279,8 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <autofilters xmlns="https://web.wps.cn/et/2018/main">
   <sheetItem sheetStid="1">
+    <filterData filterID="1331220589"/>
     <filterData filterID="1331040869"/>
-    <filterData filterID="1331220589"/>
     <autofilterInfo filterID="1331040869">
       <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1078"/>
     </autofilterInfo>

--- a/music_list_7.xlsx
+++ b/music_list_7.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1079</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1084</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4932" uniqueCount="1995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="2004">
   <si>
     <t>歌名</t>
   </si>
@@ -5461,7 +5461,7 @@
     <t>さよならのこと</t>
   </si>
   <si>
-    <t>《WHITE Album》</t>
+    <t>《白色相簿》《WHITE Album》</t>
   </si>
   <si>
     <t>扉を開けて/敞开心扉</t>
@@ -6059,6 +6059,33 @@
   </si>
   <si>
     <t>少女的祈祷</t>
+  </si>
+  <si>
+    <t>逆さまの蝶</t>
+  </si>
+  <si>
+    <t>SNoW</t>
+  </si>
+  <si>
+    <t>TV动画《地狱少女》op</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>桜色舞うころ</t>
+  </si>
+  <si>
+    <t>樱花樱花想见你</t>
+  </si>
+  <si>
+    <t>RSP</t>
+  </si>
+  <si>
+    <t>深爱</t>
+  </si>
+  <si>
+    <t>水树奈奈</t>
   </si>
 </sst>
 </file>
@@ -6066,44 +6093,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="39">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="180" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="184" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="185" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="186" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="188" formatCode="m/d"/>
+    <numFmt numFmtId="189" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
+    <numFmt numFmtId="192" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="195" formatCode="#\ ??"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="197" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="m/d"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="182" formatCode="yy/m/d"/>
-    <numFmt numFmtId="183" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="184" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="185" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="mmmmm"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="190" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="192" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="193" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="194" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="198" formatCode="#\ ??"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="200" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="201" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="202" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="201" formatCode="mmmmm"/>
+    <numFmt numFmtId="202" formatCode="yy/m/d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="47">
@@ -6286,11 +6313,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6302,30 +6328,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6339,9 +6343,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6357,29 +6391,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6394,16 +6406,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6417,19 +6428,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF222222"/>
       <name val="initial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10.5"/>
       <color rgb="FF222222"/>
       <name val="initial"/>
@@ -6451,7 +6478,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6463,31 +6514,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6499,7 +6538,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6511,127 +6658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6658,7 +6685,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6667,7 +6694,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6702,21 +6729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6742,150 +6754,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6899,7 +6926,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -6917,10 +6944,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -7326,12 +7353,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1079"/>
+  <dimension ref="A1:H1084"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A900" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1079" sqref="B1079"/>
+      <selection pane="bottomLeft" activeCell="A1082" sqref="A1082"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -9038,7 +9065,7 @@
         <v>85</v>
       </c>
       <c r="F72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -13790,7 +13817,7 @@
         <v>447</v>
       </c>
       <c r="F276" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276" s="2">
         <v>0</v>
@@ -14772,7 +14799,7 @@
         <v>541</v>
       </c>
       <c r="F319" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="2">
         <v>0</v>
@@ -26115,7 +26142,7 @@
         <v>1320</v>
       </c>
       <c r="F812" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G812" s="2">
         <v>0</v>
@@ -28036,7 +28063,7 @@
         <v>1545</v>
       </c>
       <c r="F896" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G896" s="2">
         <v>0</v>
@@ -28059,7 +28086,7 @@
         <v>1545</v>
       </c>
       <c r="F897" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G897" s="2">
         <v>0</v>
@@ -28551,7 +28578,7 @@
         <v>1545</v>
       </c>
       <c r="F918" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G918" s="2">
         <v>0</v>
@@ -29086,7 +29113,7 @@
         <v>1545</v>
       </c>
       <c r="F941" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G941" s="2">
         <v>0</v>
@@ -29341,7 +29368,7 @@
         <v>1545</v>
       </c>
       <c r="F952" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G952" s="2">
         <v>0</v>
@@ -30167,7 +30194,7 @@
         <v>1545</v>
       </c>
       <c r="F987" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G987" s="2">
         <v>0</v>
@@ -32282,10 +32309,116 @@
       </c>
       <c r="H1079" s="6"/>
     </row>
+    <row r="1080" spans="1:7">
+      <c r="A1080" s="11" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1080" s="11" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1080" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D1080" s="11" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1080" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F1080" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1080" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7">
+      <c r="A1081" s="11" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1081" s="11" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C1081" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E1081" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F1081" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1081" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7">
+      <c r="A1082" s="11" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1082" s="11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1082" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E1082" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F1082" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1082" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7">
+      <c r="A1083" s="11" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1083" s="11" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C1083" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E1083" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F1083" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1083" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7">
+      <c r="A1084" s="11" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1084" s="11" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C1084" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D1084" s="11" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E1084" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F1084" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1084" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:H1079">
-    <sortState ref="A1:H1079">
+  <autoFilter ref="A1:H1084">
+    <sortState ref="A1:H1084">
       <sortCondition ref="E1"/>
     </sortState>
     <extLst/>
@@ -32312,10 +32445,27 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <autofilters xmlns="https://web.wps.cn/et/2018/main">
   <sheetItem sheetStid="1">
-    <filterData filterID="1331040869"/>
+    <filterData filterID="1331040869">
+      <hiddenRange rowFrom="1" rowTo="70"/>
+      <hiddenRange rowFrom="72" rowTo="274"/>
+      <hiddenRange rowFrom="276" rowTo="317"/>
+      <hiddenRange rowFrom="319" rowTo="810"/>
+      <hiddenRange rowFrom="812" rowTo="894"/>
+      <hiddenRange rowFrom="897" rowTo="916"/>
+      <hiddenRange rowFrom="918" rowTo="939"/>
+      <hiddenRange rowFrom="941" rowTo="950"/>
+      <hiddenRange rowFrom="952" rowTo="985"/>
+      <hiddenRange rowFrom="987" rowTo="1078"/>
+    </filterData>
     <filterData filterID="1331220589"/>
     <autofilterInfo filterID="1331040869">
-      <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1079"/>
+      <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1084">
+        <filterColumn colId="5">
+          <customFilters>
+            <customFilter operator="equal" val="☑"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
     </autofilterInfo>
   </sheetItem>
 </autofilters>

--- a/music_list_7.xlsx
+++ b/music_list_7.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5200" uniqueCount="2102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5204" uniqueCount="2103">
   <si>
     <t>歌名</t>
   </si>
@@ -6295,6 +6295,9 @@
     <t>BV143411K7SJ</t>
   </si>
   <si>
+    <t>Wake</t>
+  </si>
+  <si>
     <t>粤语</t>
   </si>
   <si>
@@ -6387,45 +6390,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="39">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="183" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="185" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="186" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="188" formatCode="yy/m/d"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="189" formatCode="m/d"/>
+    <numFmt numFmtId="190" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="191" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="192" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="193" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="194" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="195" formatCode="mmmmm"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="183" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="184" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="186" formatCode="mmmmm"/>
-    <numFmt numFmtId="187" formatCode="yy/m/d"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="188" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="190" formatCode="m/d"/>
-    <numFmt numFmtId="191" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="192" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="195" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="196" formatCode="#\ ??"/>
-    <numFmt numFmtId="197" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="198" formatCode="#\ ??"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0;\¥\-#,##0"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="198" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="199" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="200" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="201" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="202" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="200" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="201" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="202" formatCode="mmmmm\-yy"/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -6601,7 +6604,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6615,7 +6618,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6630,11 +6633,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6645,25 +6647,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6672,22 +6660,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6702,6 +6674,46 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6728,19 +6740,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6772,13 +6775,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6790,13 +6847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6808,127 +6859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6952,7 +6889,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6969,8 +6972,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6980,41 +6983,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7063,129 +7031,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7194,22 +7197,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7220,7 +7223,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -7238,10 +7241,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -7650,7 +7653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1133"/>
+  <dimension ref="A1:H1134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A780" activePane="bottomLeft" state="frozen"/>
@@ -33446,43 +33449,42 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="1117" spans="1:8">
-      <c r="A1117" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B1117" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C1117" s="5" t="s">
+    <row r="1117" spans="1:7">
+      <c r="A1117" s="11" t="s">
         <v>2073</v>
       </c>
-      <c r="D1117" s="6"/>
-      <c r="E1117" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1117" s="9">
-        <v>0</v>
-      </c>
-      <c r="G1117" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1117" s="6"/>
+      <c r="B1117" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C1117" s="11" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D1117" s="11"/>
+      <c r="E1117" s="11" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F1117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118" spans="1:8">
       <c r="A1118" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1118" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1118" s="5" t="s">
         <v>2074</v>
-      </c>
-      <c r="B1118" s="5" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C1118" s="5" t="s">
-        <v>2073</v>
       </c>
       <c r="D1118" s="6"/>
       <c r="E1118" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1118" s="8">
+        <v>2074</v>
+      </c>
+      <c r="F1118" s="9">
         <v>0</v>
       </c>
       <c r="G1118" s="8">
@@ -33492,17 +33494,17 @@
     </row>
     <row r="1119" spans="1:8">
       <c r="A1119" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1119" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="B1119" s="5" t="s">
-        <v>2077</v>
-      </c>
       <c r="C1119" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D1119" s="6"/>
       <c r="E1119" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="F1119" s="8">
         <v>0</v>
@@ -33514,17 +33516,17 @@
     </row>
     <row r="1120" spans="1:8">
       <c r="A1120" s="5" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1120" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="B1120" s="5" t="s">
-        <v>2079</v>
-      </c>
       <c r="C1120" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D1120" s="6"/>
       <c r="E1120" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="F1120" s="8">
         <v>0</v>
@@ -33536,21 +33538,19 @@
     </row>
     <row r="1121" spans="1:8">
       <c r="A1121" s="5" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1121" s="5" t="s">
         <v>2080</v>
       </c>
-      <c r="B1121" s="5" t="s">
-        <v>2081</v>
-      </c>
       <c r="C1121" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D1121" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>2074</v>
+      </c>
+      <c r="D1121" s="6"/>
       <c r="E1121" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1121" s="9">
+        <v>2074</v>
+      </c>
+      <c r="F1121" s="8">
         <v>0</v>
       </c>
       <c r="G1121" s="8">
@@ -33560,19 +33560,19 @@
     </row>
     <row r="1122" spans="1:8">
       <c r="A1122" s="5" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1122" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="B1122" s="5" t="s">
-        <v>409</v>
-      </c>
       <c r="C1122" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D1122" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1122" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="F1122" s="9">
         <v>0</v>
@@ -33590,63 +33590,63 @@
         <v>409</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D1123" s="6"/>
+        <v>2074</v>
+      </c>
+      <c r="D1123" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E1123" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1123" s="8">
+        <v>2074</v>
+      </c>
+      <c r="F1123" s="9">
         <v>0</v>
       </c>
       <c r="G1123" s="8">
         <v>0</v>
       </c>
-      <c r="H1123" s="6" t="s">
-        <v>2084</v>
-      </c>
+      <c r="H1123" s="6"/>
     </row>
     <row r="1124" spans="1:8">
       <c r="A1124" s="5" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1124" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1124" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D1124" s="6"/>
+      <c r="E1124" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F1124" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1124" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1124" s="6" t="s">
         <v>2085</v>
       </c>
-      <c r="B1124" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1124" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D1124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1124" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1124" s="8">
-        <v>0</v>
-      </c>
-      <c r="G1124" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1124" s="6"/>
     </row>
     <row r="1125" spans="1:8">
       <c r="A1125" s="5" t="s">
         <v>2086</v>
       </c>
       <c r="B1125" s="5" t="s">
-        <v>2087</v>
+        <v>22</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D1125" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1125" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1125" s="9">
+        <v>2074</v>
+      </c>
+      <c r="F1125" s="8">
         <v>0</v>
       </c>
       <c r="G1125" s="8">
@@ -33656,19 +33656,19 @@
     </row>
     <row r="1126" spans="1:8">
       <c r="A1126" s="5" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1126" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="B1126" s="5" t="s">
-        <v>2089</v>
-      </c>
       <c r="C1126" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D1126" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1126" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="F1126" s="9">
         <v>0</v>
@@ -33680,19 +33680,21 @@
     </row>
     <row r="1127" spans="1:8">
       <c r="A1127" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1127" s="5" t="s">
         <v>2090</v>
       </c>
-      <c r="B1127" s="5" t="s">
-        <v>2091</v>
-      </c>
       <c r="C1127" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D1127" s="6"/>
+        <v>2074</v>
+      </c>
+      <c r="D1127" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E1127" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1127" s="8">
+        <v>2074</v>
+      </c>
+      <c r="F1127" s="9">
         <v>0</v>
       </c>
       <c r="G1127" s="8">
@@ -33702,19 +33704,19 @@
     </row>
     <row r="1128" spans="1:8">
       <c r="A1128" s="5" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B1128" s="5" t="s">
         <v>2092</v>
       </c>
-      <c r="B1128" s="6" t="s">
-        <v>2093</v>
-      </c>
       <c r="C1128" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D1128" s="5"/>
+        <v>2074</v>
+      </c>
+      <c r="D1128" s="6"/>
       <c r="E1128" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1128" s="9">
+        <v>2074</v>
+      </c>
+      <c r="F1128" s="8">
         <v>0</v>
       </c>
       <c r="G1128" s="8">
@@ -33724,39 +33726,39 @@
     </row>
     <row r="1129" spans="1:8">
       <c r="A1129" s="5" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1129" s="6" t="s">
         <v>2094</v>
       </c>
-      <c r="B1129" s="5" t="s">
+      <c r="C1129" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D1129" s="5"/>
+      <c r="E1129" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F1129" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1129" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1129" s="6"/>
+    </row>
+    <row r="1130" spans="1:8">
+      <c r="A1130" s="5" t="s">
         <v>2095</v>
       </c>
-      <c r="C1129" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D1129" s="6"/>
-      <c r="E1129" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1129" s="8">
-        <v>0</v>
-      </c>
-      <c r="G1129" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1129" s="6"/>
-    </row>
-    <row r="1130" spans="1:8">
-      <c r="A1130" s="6" t="s">
+      <c r="B1130" s="5" t="s">
         <v>2096</v>
       </c>
-      <c r="B1130" s="6" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C1130" s="6" t="s">
-        <v>2073</v>
+      <c r="C1130" s="5" t="s">
+        <v>2074</v>
       </c>
       <c r="D1130" s="6"/>
-      <c r="E1130" s="6" t="s">
-        <v>2073</v>
+      <c r="E1130" s="5" t="s">
+        <v>2074</v>
       </c>
       <c r="F1130" s="8">
         <v>0</v>
@@ -33767,18 +33769,18 @@
       <c r="H1130" s="6"/>
     </row>
     <row r="1131" spans="1:8">
-      <c r="A1131" s="5" t="s">
+      <c r="A1131" s="6" t="s">
         <v>2097</v>
       </c>
-      <c r="B1131" s="5" t="s">
-        <v>2098</v>
-      </c>
-      <c r="C1131" s="5" t="s">
-        <v>2073</v>
+      <c r="B1131" s="6" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1131" s="6" t="s">
+        <v>2074</v>
       </c>
       <c r="D1131" s="6"/>
-      <c r="E1131" s="5" t="s">
-        <v>2073</v>
+      <c r="E1131" s="6" t="s">
+        <v>2074</v>
       </c>
       <c r="F1131" s="8">
         <v>0</v>
@@ -33790,19 +33792,19 @@
     </row>
     <row r="1132" spans="1:8">
       <c r="A1132" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1132" s="5" t="s">
         <v>2099</v>
       </c>
-      <c r="B1132" s="5" t="s">
-        <v>2100</v>
-      </c>
       <c r="C1132" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D1132" s="6"/>
       <c r="E1132" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1132" s="9">
+        <v>2074</v>
+      </c>
+      <c r="F1132" s="8">
         <v>0</v>
       </c>
       <c r="G1132" s="8">
@@ -33811,18 +33813,18 @@
       <c r="H1132" s="6"/>
     </row>
     <row r="1133" spans="1:8">
-      <c r="A1133" t="s">
+      <c r="A1133" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1133" s="5" t="s">
         <v>2101</v>
       </c>
-      <c r="B1133" s="5" t="s">
-        <v>2100</v>
-      </c>
       <c r="C1133" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D1133" s="6"/>
       <c r="E1133" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="F1133" s="9">
         <v>0</v>
@@ -33831,6 +33833,28 @@
         <v>0</v>
       </c>
       <c r="H1133" s="6"/>
+    </row>
+    <row r="1134" spans="1:8">
+      <c r="A1134" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1134" s="5" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C1134" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D1134" s="6"/>
+      <c r="E1134" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F1134" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1134" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1134" s="6"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -33838,15 +33862,16 @@
     <protectedRange sqref="A$1:H$1048576" name="Range1"/>
   </protectedRanges>
   <autoFilter ref="A1:H1133">
-    <sortState ref="A2:H1133">
+    <sortState ref="A1:H1133">
       <sortCondition ref="E5"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <sortState ref="A2:H1087">
+  <sortState ref="A2:H1134">
     <sortCondition ref="E1"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="F2:G1048576">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="F1134:G1134 F2:G1133 F1135:G1048576">
       <formula1>IF(TRUE,OR(F2=0,F2=1),"Checkbox")</formula1>
     </dataValidation>
   </dataValidations>
@@ -33877,8 +33902,8 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <autofilters xmlns="https://web.wps.cn/et/2018/main">
   <sheetItem sheetStid="1">
+    <filterData filterID="1331220589"/>
     <filterData filterID="1331040869"/>
-    <filterData filterID="1331220589"/>
     <autofilterInfo filterID="1331040869">
       <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1133"/>
     </autofilterInfo>
